--- a/20 Results/selection.xlsx
+++ b/20 Results/selection.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="protein and species" sheetId="1" r:id="rId1"/>
     <sheet name="vaccine" sheetId="3" r:id="rId2"/>
     <sheet name="B-A FOR RVB" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>NSP1B</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Post-vaccine (2006-2015)</t>
   </si>
   <si>
-    <t>nil</t>
-  </si>
-  <si>
     <t>Codon</t>
   </si>
   <si>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t>VP4A Pre-Vaccines</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -271,9 +271,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -281,6 +278,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
+              <c:f>'protein and species'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -409,7 +409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$L$9</c:f>
+              <c:f>'protein and species'!$B$9:$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -450,7 +450,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$10:$L$10</c:f>
+              <c:f>'protein and species'!$B$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -501,7 +501,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$11</c:f>
+              <c:f>'protein and species'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -522,7 +522,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$L$9</c:f>
+              <c:f>'protein and species'!$B$9:$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -563,7 +563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$11:$L$11</c:f>
+              <c:f>'protein and species'!$B$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -614,7 +614,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>'protein and species'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -635,7 +635,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$9:$L$9</c:f>
+              <c:f>'protein and species'!$B$9:$L$9</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -676,7 +676,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$12:$L$12</c:f>
+              <c:f>'protein and species'!$B$12:$L$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -15311,7 +15311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -15452,61 +15452,61 @@
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5" t="s">
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5" t="s">
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5" t="s">
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5" t="s">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -15678,133 +15678,133 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>-0.3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>-0.22</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>-0.22</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>-0.13</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>-0.2</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>-0.51</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>-0.45</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>-0.38</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="8">
         <v>-0.43</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="8">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="8">
         <v>-0.22</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>-0.59</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>-0.86</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>-0.21</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>-0.18</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>-0.17</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>-0.65</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>-0.59</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>-0.45</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>-0.35</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>-0.92</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:34" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>-0.8</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>-0.77</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>-0.72</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>-0.67</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>-0.9</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>-0.51</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>-0.66</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>-0.62</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="6">
         <v>-0.92</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <v>-0.24</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15816,8 +15816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X883"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15839,29 +15839,29 @@
         <v>46</v>
       </c>
       <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.41</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.21</v>
       </c>
       <c r="U2">
@@ -15873,22 +15873,22 @@
       <c r="W2" s="2">
         <v>-0.710982</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="6">
         <f>V2-W2</f>
         <v>-6.9869999999999655E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.41</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.24</v>
       </c>
       <c r="U3">
@@ -15900,7 +15900,7 @@
       <c r="W3" s="2">
         <v>7.3141200000000003E-2</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="6">
         <f t="shared" ref="X3:X66" si="0">V3-W3</f>
         <v>0.24912580000000001</v>
       </c>
@@ -15919,7 +15919,7 @@
       <c r="W4" s="2">
         <v>-1.26488</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="6">
         <f t="shared" si="0"/>
         <v>1.0310000000000041E-2</v>
       </c>
@@ -15934,7 +15934,7 @@
       <c r="W5" s="2">
         <v>7.1370900000000001E-2</v>
       </c>
-      <c r="X5" s="7">
+      <c r="X5" s="6">
         <f t="shared" si="0"/>
         <v>-0.30317090000000002</v>
       </c>
@@ -15952,7 +15952,7 @@
       <c r="W6" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X6" s="7">
+      <c r="X6" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -15967,7 +15967,7 @@
       <c r="W7" s="2">
         <v>-0.46975099999999997</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="6">
         <f t="shared" si="0"/>
         <v>0.30074099999999998</v>
       </c>
@@ -15977,10 +15977,13 @@
         <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
       </c>
       <c r="U8">
         <v>7</v>
@@ -15991,7 +15994,7 @@
       <c r="W8" s="2">
         <v>-0.53702099999999997</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="6">
         <f t="shared" si="0"/>
         <v>4.0770999999999946E-2</v>
       </c>
@@ -16004,10 +16007,10 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -16018,7 +16021,7 @@
       <c r="W9" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16033,7 +16036,7 @@
       <c r="W10" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16048,7 +16051,7 @@
       <c r="W11" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X11" s="7">
+      <c r="X11" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16063,7 +16066,7 @@
       <c r="W12" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16078,7 +16081,7 @@
       <c r="W13" s="2">
         <v>-2.4526600000000002E-3</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="6">
         <f t="shared" si="0"/>
         <v>-2.2560340000000002E-2</v>
       </c>
@@ -16093,7 +16096,7 @@
       <c r="W14" s="2">
         <v>-0.48072799999999999</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="6">
         <f t="shared" si="0"/>
         <v>-4.1790999999999967E-2</v>
       </c>
@@ -16108,7 +16111,7 @@
       <c r="W15" s="2">
         <v>-0.42681799999999998</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="6">
         <f t="shared" si="0"/>
         <v>7.7039999999999886E-3</v>
       </c>
@@ -16123,7 +16126,7 @@
       <c r="W16" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16138,7 +16141,7 @@
       <c r="W17" s="2">
         <v>-0.40333400000000003</v>
       </c>
-      <c r="X17" s="7">
+      <c r="X17" s="6">
         <f t="shared" si="0"/>
         <v>-1.6801999999999984E-2</v>
       </c>
@@ -16153,7 +16156,7 @@
       <c r="W18" s="2">
         <v>-0.35333999999999999</v>
       </c>
-      <c r="X18" s="7">
+      <c r="X18" s="6">
         <f t="shared" si="0"/>
         <v>0.11910399999999999</v>
       </c>
@@ -16168,7 +16171,7 @@
       <c r="W19" s="2">
         <v>-0.44212899999999999</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="6">
         <f t="shared" si="0"/>
         <v>6.1359999999999748E-3</v>
       </c>
@@ -16183,7 +16186,7 @@
       <c r="W20" s="2">
         <v>-0.50436700000000001</v>
       </c>
-      <c r="X20" s="7">
+      <c r="X20" s="6">
         <f t="shared" si="0"/>
         <v>3.4484999999999988E-2</v>
       </c>
@@ -16198,7 +16201,7 @@
       <c r="W21" s="2">
         <v>-0.61681799999999998</v>
       </c>
-      <c r="X21" s="7">
+      <c r="X21" s="6">
         <f t="shared" si="0"/>
         <v>6.8366999999999956E-2</v>
       </c>
@@ -16213,7 +16216,7 @@
       <c r="W22" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X22" s="7">
+      <c r="X22" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16228,7 +16231,7 @@
       <c r="W23" s="2">
         <v>-0.36686099999999999</v>
       </c>
-      <c r="X23" s="7">
+      <c r="X23" s="6">
         <f t="shared" si="0"/>
         <v>-5.2329999999999988E-2</v>
       </c>
@@ -16243,7 +16246,7 @@
       <c r="W24" s="2">
         <v>-0.41958000000000001</v>
       </c>
-      <c r="X24" s="7">
+      <c r="X24" s="6">
         <f t="shared" si="0"/>
         <v>-9.342000000000017E-3</v>
       </c>
@@ -16258,7 +16261,7 @@
       <c r="W25" s="2">
         <v>-0.423896</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="6">
         <f t="shared" si="0"/>
         <v>2.3141999999999996E-2</v>
       </c>
@@ -16273,7 +16276,7 @@
       <c r="W26" s="2">
         <v>-0.471304</v>
       </c>
-      <c r="X26" s="7">
+      <c r="X26" s="6">
         <f t="shared" si="0"/>
         <v>-5.7659999999999934E-3</v>
       </c>
@@ -16288,7 +16291,7 @@
       <c r="W27" s="2">
         <v>-0.203455</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="6">
         <f t="shared" si="0"/>
         <v>-0.13535700000000001</v>
       </c>
@@ -16303,7 +16306,7 @@
       <c r="W28" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16318,7 +16321,7 @@
       <c r="W29" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16333,7 +16336,7 @@
       <c r="W30" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16348,7 +16351,7 @@
       <c r="W31" s="2">
         <v>-0.45011800000000002</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="6">
         <f t="shared" si="0"/>
         <v>-4.2331999999999981E-2</v>
       </c>
@@ -16363,7 +16366,7 @@
       <c r="W32" s="2">
         <v>-0.465949</v>
       </c>
-      <c r="X32" s="7">
+      <c r="X32" s="6">
         <f t="shared" si="0"/>
         <v>0.11434899999999998</v>
       </c>
@@ -16378,7 +16381,7 @@
       <c r="W33" s="2">
         <v>-0.47118900000000002</v>
       </c>
-      <c r="X33" s="7">
+      <c r="X33" s="6">
         <f t="shared" si="0"/>
         <v>-2.5768999999999986E-2</v>
       </c>
@@ -16393,7 +16396,7 @@
       <c r="W34" s="2">
         <v>-0.443795</v>
       </c>
-      <c r="X34" s="7">
+      <c r="X34" s="6">
         <f t="shared" si="0"/>
         <v>7.545799999999997E-2</v>
       </c>
@@ -16408,7 +16411,7 @@
       <c r="W35" s="2">
         <v>-0.20451</v>
       </c>
-      <c r="X35" s="7">
+      <c r="X35" s="6">
         <f t="shared" si="0"/>
         <v>-3.8371000000000016E-2</v>
       </c>
@@ -16423,7 +16426,7 @@
       <c r="W36" s="2">
         <v>-0.229404</v>
       </c>
-      <c r="X36" s="7">
+      <c r="X36" s="6">
         <f t="shared" si="0"/>
         <v>1.743900000000001E-2</v>
       </c>
@@ -16438,7 +16441,7 @@
       <c r="W37" s="2">
         <v>-0.18756400000000001</v>
       </c>
-      <c r="X37" s="7">
+      <c r="X37" s="6">
         <f t="shared" si="0"/>
         <v>4.3601000000000001E-2</v>
       </c>
@@ -16453,7 +16456,7 @@
       <c r="W38" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X38" s="7">
+      <c r="X38" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16468,7 +16471,7 @@
       <c r="W39" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X39" s="7">
+      <c r="X39" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16483,7 +16486,7 @@
       <c r="W40" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X40" s="7">
+      <c r="X40" s="6">
         <f t="shared" si="0"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -16498,7 +16501,7 @@
       <c r="W41" s="2">
         <v>-0.30594399999999999</v>
       </c>
-      <c r="X41" s="7">
+      <c r="X41" s="6">
         <f t="shared" si="0"/>
         <v>-7.3633000000000004E-2</v>
       </c>
@@ -16513,7 +16516,7 @@
       <c r="W42" s="2">
         <v>-0.40264899999999998</v>
       </c>
-      <c r="X42" s="7">
+      <c r="X42" s="6">
         <f t="shared" si="0"/>
         <v>7.3331999999999953E-2</v>
       </c>
@@ -16528,7 +16531,7 @@
       <c r="W43" s="2">
         <v>-0.44230399999999997</v>
       </c>
-      <c r="X43" s="7">
+      <c r="X43" s="6">
         <f t="shared" si="0"/>
         <v>6.3199999999999978E-2</v>
       </c>
@@ -16543,7 +16546,7 @@
       <c r="W44" s="2">
         <v>-0.15073900000000001</v>
       </c>
-      <c r="X44" s="7">
+      <c r="X44" s="6">
         <f t="shared" si="0"/>
         <v>3.3177000000000012E-2</v>
       </c>
@@ -16558,7 +16561,7 @@
       <c r="W45" s="2">
         <v>-0.40109099999999998</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="6">
         <f t="shared" si="0"/>
         <v>-2.8532000000000002E-2</v>
       </c>
@@ -16573,7 +16576,7 @@
       <c r="W46" s="2">
         <v>-0.52083000000000002</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="6">
         <f t="shared" si="0"/>
         <v>0.10565600000000003</v>
       </c>
@@ -16588,7 +16591,7 @@
       <c r="W47" s="2">
         <v>-0.46094800000000002</v>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="6">
         <f t="shared" si="0"/>
         <v>3.3257000000000037E-2</v>
       </c>
@@ -16603,7 +16606,7 @@
       <c r="W48" s="2">
         <v>-0.52396900000000002</v>
       </c>
-      <c r="X48" s="7">
+      <c r="X48" s="6">
         <f t="shared" si="0"/>
         <v>7.1999999999999842E-3</v>
       </c>
@@ -16618,7 +16621,7 @@
       <c r="W49" s="2">
         <v>-0.38601799999999997</v>
       </c>
-      <c r="X49" s="7">
+      <c r="X49" s="6">
         <f t="shared" si="0"/>
         <v>2.761199999999997E-2</v>
       </c>
@@ -16633,7 +16636,7 @@
       <c r="W50" s="2">
         <v>-0.37341800000000003</v>
       </c>
-      <c r="X50" s="7">
+      <c r="X50" s="6">
         <f t="shared" si="0"/>
         <v>-0.14622499999999994</v>
       </c>
@@ -16648,7 +16651,7 @@
       <c r="W51" s="2">
         <v>-0.308647</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="6">
         <f t="shared" si="0"/>
         <v>3.7903999999999993E-2</v>
       </c>
@@ -16663,7 +16666,7 @@
       <c r="W52" s="2">
         <v>-0.51568999999999998</v>
       </c>
-      <c r="X52" s="7">
+      <c r="X52" s="6">
         <f t="shared" si="0"/>
         <v>6.0199000000000003E-2</v>
       </c>
@@ -16678,7 +16681,7 @@
       <c r="W53" s="2">
         <v>-0.473163</v>
       </c>
-      <c r="X53" s="7">
+      <c r="X53" s="6">
         <f t="shared" si="0"/>
         <v>1.4517000000000002E-2</v>
       </c>
@@ -16693,7 +16696,7 @@
       <c r="W54" s="2">
         <v>-1.1291</v>
       </c>
-      <c r="X54" s="7">
+      <c r="X54" s="6">
         <f t="shared" si="0"/>
         <v>-0.10867000000000004</v>
       </c>
@@ -16708,7 +16711,7 @@
       <c r="W55" s="2">
         <v>-0.514289</v>
       </c>
-      <c r="X55" s="7">
+      <c r="X55" s="6">
         <f t="shared" si="0"/>
         <v>-7.6439999999999841E-3</v>
       </c>
@@ -16723,7 +16726,7 @@
       <c r="W56" s="2">
         <v>-0.59102200000000005</v>
       </c>
-      <c r="X56" s="7">
+      <c r="X56" s="6">
         <f t="shared" si="0"/>
         <v>0.16431400000000007</v>
       </c>
@@ -16738,7 +16741,7 @@
       <c r="W57" s="2">
         <v>-0.67706699999999997</v>
       </c>
-      <c r="X57" s="7">
+      <c r="X57" s="6">
         <f t="shared" si="0"/>
         <v>4.828599999999994E-2</v>
       </c>
@@ -16753,7 +16756,7 @@
       <c r="W58" s="2">
         <v>-0.40527099999999999</v>
       </c>
-      <c r="X58" s="7">
+      <c r="X58" s="6">
         <f t="shared" si="0"/>
         <v>-1.0000000000000009E-2</v>
       </c>
@@ -16768,7 +16771,7 @@
       <c r="W59" s="2">
         <v>-1.0067699999999999</v>
       </c>
-      <c r="X59" s="7">
+      <c r="X59" s="6">
         <f t="shared" si="0"/>
         <v>0.36782199999999998</v>
       </c>
@@ -16783,7 +16786,7 @@
       <c r="W60" s="2">
         <v>-0.51935200000000004</v>
       </c>
-      <c r="X60" s="7">
+      <c r="X60" s="6">
         <f t="shared" si="0"/>
         <v>-1.058199999999998E-2</v>
       </c>
@@ -16798,7 +16801,7 @@
       <c r="W61" s="2">
         <v>-0.124044</v>
       </c>
-      <c r="X61" s="7">
+      <c r="X61" s="6">
         <f t="shared" si="0"/>
         <v>-0.26047599999999999</v>
       </c>
@@ -16813,7 +16816,7 @@
       <c r="W62" s="2">
         <v>-0.58699100000000004</v>
       </c>
-      <c r="X62" s="7">
+      <c r="X62" s="6">
         <f t="shared" si="0"/>
         <v>-0.141482</v>
       </c>
@@ -16828,7 +16831,7 @@
       <c r="W63" s="2">
         <v>-0.431529</v>
       </c>
-      <c r="X63" s="7">
+      <c r="X63" s="6">
         <f t="shared" si="0"/>
         <v>7.1467999999999976E-2</v>
       </c>
@@ -16843,7 +16846,7 @@
       <c r="W64" s="2">
         <v>-0.704816</v>
       </c>
-      <c r="X64" s="7">
+      <c r="X64" s="6">
         <f t="shared" si="0"/>
         <v>8.3137000000000016E-2</v>
       </c>
@@ -16858,7 +16861,7 @@
       <c r="W65" s="2">
         <v>-0.51498299999999997</v>
       </c>
-      <c r="X65" s="7">
+      <c r="X65" s="6">
         <f t="shared" si="0"/>
         <v>2.6939999999999742E-3</v>
       </c>
@@ -16873,7 +16876,7 @@
       <c r="W66" s="2">
         <v>-0.54656000000000005</v>
       </c>
-      <c r="X66" s="7">
+      <c r="X66" s="6">
         <f t="shared" si="0"/>
         <v>8.8808000000000054E-2</v>
       </c>
@@ -16888,7 +16891,7 @@
       <c r="W67" s="2">
         <v>-0.53124199999999999</v>
       </c>
-      <c r="X67" s="7">
+      <c r="X67" s="6">
         <f t="shared" ref="X67:X130" si="1">V67-W67</f>
         <v>-1.581699999999997E-2</v>
       </c>
@@ -16903,7 +16906,7 @@
       <c r="W68" s="2">
         <v>-1.03057</v>
       </c>
-      <c r="X68" s="7">
+      <c r="X68" s="6">
         <f t="shared" si="1"/>
         <v>0.50042399999999998</v>
       </c>
@@ -16918,7 +16921,7 @@
       <c r="W69" s="2">
         <v>-0.34099699999999999</v>
       </c>
-      <c r="X69" s="7">
+      <c r="X69" s="6">
         <f t="shared" si="1"/>
         <v>-0.102885</v>
       </c>
@@ -16933,7 +16936,7 @@
       <c r="W70" s="2">
         <v>-0.42750199999999999</v>
       </c>
-      <c r="X70" s="7">
+      <c r="X70" s="6">
         <f t="shared" si="1"/>
         <v>2.930499999999997E-2</v>
       </c>
@@ -16948,7 +16951,7 @@
       <c r="W71" s="2">
         <v>-0.51893</v>
       </c>
-      <c r="X71" s="7">
+      <c r="X71" s="6">
         <f t="shared" si="1"/>
         <v>1.0765000000000025E-2</v>
       </c>
@@ -16963,7 +16966,7 @@
       <c r="W72" s="2">
         <v>-0.51397499999999996</v>
       </c>
-      <c r="X72" s="7">
+      <c r="X72" s="6">
         <f t="shared" si="1"/>
         <v>3.2224999999999948E-2</v>
       </c>
@@ -16978,7 +16981,7 @@
       <c r="W73" s="2">
         <v>-1.14245</v>
       </c>
-      <c r="X73" s="7">
+      <c r="X73" s="6">
         <f t="shared" si="1"/>
         <v>0.63290000000000002</v>
       </c>
@@ -16993,7 +16996,7 @@
       <c r="W74" s="2">
         <v>-0.43755100000000002</v>
       </c>
-      <c r="X74" s="7">
+      <c r="X74" s="6">
         <f t="shared" si="1"/>
         <v>0.20410200000000003</v>
       </c>
@@ -17008,7 +17011,7 @@
       <c r="W75" s="2">
         <v>-0.47498200000000002</v>
       </c>
-      <c r="X75" s="7">
+      <c r="X75" s="6">
         <f t="shared" si="1"/>
         <v>1.6910000000000036E-2</v>
       </c>
@@ -17023,7 +17026,7 @@
       <c r="W76" s="2">
         <v>-0.48401</v>
       </c>
-      <c r="X76" s="7">
+      <c r="X76" s="6">
         <f t="shared" si="1"/>
         <v>-2.6420000000000055E-2</v>
       </c>
@@ -17038,7 +17041,7 @@
       <c r="W77" s="2">
         <v>-0.457511</v>
       </c>
-      <c r="X77" s="7">
+      <c r="X77" s="6">
         <f t="shared" si="1"/>
         <v>0.26802899999999996</v>
       </c>
@@ -17053,7 +17056,7 @@
       <c r="W78" s="2">
         <v>-0.35089300000000001</v>
       </c>
-      <c r="X78" s="7">
+      <c r="X78" s="6">
         <f t="shared" si="1"/>
         <v>3.4465999999999997E-2</v>
       </c>
@@ -17068,7 +17071,7 @@
       <c r="W79" s="2">
         <v>-0.53245399999999998</v>
       </c>
-      <c r="X79" s="7">
+      <c r="X79" s="6">
         <f t="shared" si="1"/>
         <v>1.7286999999999941E-2</v>
       </c>
@@ -17083,7 +17086,7 @@
       <c r="W80" s="2">
         <v>-1.14503</v>
       </c>
-      <c r="X80" s="7">
+      <c r="X80" s="6">
         <f t="shared" si="1"/>
         <v>0.61165700000000001</v>
       </c>
@@ -17098,7 +17101,7 @@
       <c r="W81" s="2">
         <v>-0.41286400000000001</v>
       </c>
-      <c r="X81" s="7">
+      <c r="X81" s="6">
         <f t="shared" si="1"/>
         <v>-5.9612999999999972E-2</v>
       </c>
@@ -17113,7 +17116,7 @@
       <c r="W82" s="2">
         <v>-0.44996000000000003</v>
       </c>
-      <c r="X82" s="7">
+      <c r="X82" s="6">
         <f t="shared" si="1"/>
         <v>-2.5979999999999948E-2</v>
       </c>
@@ -17128,7 +17131,7 @@
       <c r="W83" s="2">
         <v>-0.64240399999999998</v>
       </c>
-      <c r="X83" s="7">
+      <c r="X83" s="6">
         <f t="shared" si="1"/>
         <v>-0.46422600000000003</v>
       </c>
@@ -17143,7 +17146,7 @@
       <c r="W84" s="2">
         <v>-0.46674900000000002</v>
       </c>
-      <c r="X84" s="7">
+      <c r="X84" s="6">
         <f t="shared" si="1"/>
         <v>8.1417000000000017E-2</v>
       </c>
@@ -17158,7 +17161,7 @@
       <c r="W85" s="2">
         <v>-0.49799500000000002</v>
       </c>
-      <c r="X85" s="7">
+      <c r="X85" s="6">
         <f t="shared" si="1"/>
         <v>-3.7809999999999788E-3</v>
       </c>
@@ -17173,7 +17176,7 @@
       <c r="W86" s="2">
         <v>-0.460758</v>
       </c>
-      <c r="X86" s="7">
+      <c r="X86" s="6">
         <f t="shared" si="1"/>
         <v>-3.3994000000000024E-2</v>
       </c>
@@ -17188,7 +17191,7 @@
       <c r="W87" s="2">
         <v>-0.29988399999999998</v>
       </c>
-      <c r="X87" s="7">
+      <c r="X87" s="6">
         <f t="shared" si="1"/>
         <v>-4.0997000000000006E-2</v>
       </c>
@@ -17203,7 +17206,7 @@
       <c r="W88" s="2">
         <v>-0.84593099999999999</v>
       </c>
-      <c r="X88" s="7">
+      <c r="X88" s="6">
         <f t="shared" si="1"/>
         <v>2.8614999999999946E-2</v>
       </c>
@@ -17218,7 +17221,7 @@
       <c r="W89" s="2">
         <v>-0.47015699999999999</v>
       </c>
-      <c r="X89" s="7">
+      <c r="X89" s="6">
         <f t="shared" si="1"/>
         <v>7.2087999999999985E-2</v>
       </c>
@@ -17233,7 +17236,7 @@
       <c r="W90" s="2">
         <v>-0.45306099999999999</v>
       </c>
-      <c r="X90" s="7">
+      <c r="X90" s="6">
         <f t="shared" si="1"/>
         <v>6.0286000000000006E-2</v>
       </c>
@@ -17248,7 +17251,7 @@
       <c r="W91" s="2">
         <v>-0.438218</v>
       </c>
-      <c r="X91" s="7">
+      <c r="X91" s="6">
         <f t="shared" si="1"/>
         <v>2.4803000000000019E-2</v>
       </c>
@@ -17263,7 +17266,7 @@
       <c r="W92" s="2">
         <v>-0.34216400000000002</v>
       </c>
-      <c r="X92" s="7">
+      <c r="X92" s="6">
         <f t="shared" si="1"/>
         <v>-3.3785999999999983E-2</v>
       </c>
@@ -17278,7 +17281,7 @@
       <c r="W93" s="2">
         <v>-0.43674099999999999</v>
       </c>
-      <c r="X93" s="7">
+      <c r="X93" s="6">
         <f t="shared" si="1"/>
         <v>-0.10359500000000005</v>
       </c>
@@ -17293,7 +17296,7 @@
       <c r="W94" s="2">
         <v>-0.55712700000000004</v>
       </c>
-      <c r="X94" s="7">
+      <c r="X94" s="6">
         <f t="shared" si="1"/>
         <v>3.6341000000000068E-2</v>
       </c>
@@ -17308,7 +17311,7 @@
       <c r="W95" s="2">
         <v>-0.70513199999999998</v>
       </c>
-      <c r="X95" s="7">
+      <c r="X95" s="6">
         <f t="shared" si="1"/>
         <v>-8.0970000000000208E-3</v>
       </c>
@@ -17323,7 +17326,7 @@
       <c r="W96" s="2">
         <v>-0.421572</v>
       </c>
-      <c r="X96" s="7">
+      <c r="X96" s="6">
         <f t="shared" si="1"/>
         <v>-3.1300000000000772E-4</v>
       </c>
@@ -17338,7 +17341,7 @@
       <c r="W97" s="2">
         <v>-0.52052500000000002</v>
       </c>
-      <c r="X97" s="7">
+      <c r="X97" s="6">
         <f t="shared" si="1"/>
         <v>1.390900000000006E-2</v>
       </c>
@@ -17353,7 +17356,7 @@
       <c r="W98" s="2">
         <v>-0.46509200000000001</v>
       </c>
-      <c r="X98" s="7">
+      <c r="X98" s="6">
         <f t="shared" si="1"/>
         <v>-9.5004000000000033E-2</v>
       </c>
@@ -17368,7 +17371,7 @@
       <c r="W99" s="2">
         <v>-0.366734</v>
       </c>
-      <c r="X99" s="7">
+      <c r="X99" s="6">
         <f t="shared" si="1"/>
         <v>-0.56704200000000005</v>
       </c>
@@ -17383,7 +17386,7 @@
       <c r="W100" s="2">
         <v>-0.502938</v>
       </c>
-      <c r="X100" s="7">
+      <c r="X100" s="6">
         <f t="shared" si="1"/>
         <v>2.1900000000000253E-3</v>
       </c>
@@ -17398,7 +17401,7 @@
       <c r="W101" s="2">
         <v>-0.38211400000000001</v>
       </c>
-      <c r="X101" s="7">
+      <c r="X101" s="6">
         <f t="shared" si="1"/>
         <v>3.5368999999999984E-2</v>
       </c>
@@ -17413,7 +17416,7 @@
       <c r="W102" s="2">
         <v>-0.31009999999999999</v>
       </c>
-      <c r="X102" s="7">
+      <c r="X102" s="6">
         <f t="shared" si="1"/>
         <v>-1.8095000000000028E-2</v>
       </c>
@@ -17428,7 +17431,7 @@
       <c r="W103" s="2">
         <v>-0.306116</v>
       </c>
-      <c r="X103" s="7">
+      <c r="X103" s="6">
         <f t="shared" si="1"/>
         <v>-7.2850999999999999E-2</v>
       </c>
@@ -17443,7 +17446,7 @@
       <c r="W104" s="2">
         <v>-0.50219400000000003</v>
       </c>
-      <c r="X104" s="7">
+      <c r="X104" s="6">
         <f t="shared" si="1"/>
         <v>4.8927000000000054E-2</v>
       </c>
@@ -17458,7 +17461,7 @@
       <c r="W105" s="2">
         <v>-0.41643799999999997</v>
       </c>
-      <c r="X105" s="7">
+      <c r="X105" s="6">
         <f t="shared" si="1"/>
         <v>3.5976999999999981E-2</v>
       </c>
@@ -17473,7 +17476,7 @@
       <c r="W106" s="2">
         <v>-0.45831699999999997</v>
       </c>
-      <c r="X106" s="7">
+      <c r="X106" s="6">
         <f t="shared" si="1"/>
         <v>-8.9824000000000015E-2</v>
       </c>
@@ -17488,7 +17491,7 @@
       <c r="W107" s="2">
         <v>-0.43949700000000003</v>
       </c>
-      <c r="X107" s="7">
+      <c r="X107" s="6">
         <f t="shared" si="1"/>
         <v>8.3200000000000496E-3</v>
       </c>
@@ -17503,7 +17506,7 @@
       <c r="W108" s="2">
         <v>-0.51520600000000005</v>
       </c>
-      <c r="X108" s="7">
+      <c r="X108" s="6">
         <f t="shared" si="1"/>
         <v>-1.5274999999999928E-2</v>
       </c>
@@ -17518,7 +17521,7 @@
       <c r="W109" s="2">
         <v>-0.34921799999999997</v>
       </c>
-      <c r="X109" s="7">
+      <c r="X109" s="6">
         <f t="shared" si="1"/>
         <v>-1.6857000000000011E-2</v>
       </c>
@@ -17533,7 +17536,7 @@
       <c r="W110" s="2">
         <v>-0.51027199999999995</v>
       </c>
-      <c r="X110" s="7">
+      <c r="X110" s="6">
         <f t="shared" si="1"/>
         <v>-1.1567000000000105E-2</v>
       </c>
@@ -17548,7 +17551,7 @@
       <c r="W111" s="2">
         <v>-0.45611800000000002</v>
       </c>
-      <c r="X111" s="7">
+      <c r="X111" s="6">
         <f t="shared" si="1"/>
         <v>-4.8271999999999982E-2</v>
       </c>
@@ -17563,7 +17566,7 @@
       <c r="W112" s="2">
         <v>-0.50966500000000003</v>
       </c>
-      <c r="X112" s="7">
+      <c r="X112" s="6">
         <f t="shared" si="1"/>
         <v>8.2189000000000012E-2</v>
       </c>
@@ -17578,7 +17581,7 @@
       <c r="W113" s="2">
         <v>-0.32791399999999998</v>
       </c>
-      <c r="X113" s="7">
+      <c r="X113" s="6">
         <f t="shared" si="1"/>
         <v>5.4110999999999965E-2</v>
       </c>
@@ -17593,7 +17596,7 @@
       <c r="W114" s="2">
         <v>-0.44879599999999997</v>
       </c>
-      <c r="X114" s="7">
+      <c r="X114" s="6">
         <f t="shared" si="1"/>
         <v>-4.5144000000000017E-2</v>
       </c>
@@ -17608,7 +17611,7 @@
       <c r="W115" s="2">
         <v>-0.39602999999999999</v>
       </c>
-      <c r="X115" s="7">
+      <c r="X115" s="6">
         <f t="shared" si="1"/>
         <v>-3.2366000000000006E-2</v>
       </c>
@@ -17623,7 +17626,7 @@
       <c r="W116" s="2">
         <v>-0.70513199999999998</v>
       </c>
-      <c r="X116" s="7">
+      <c r="X116" s="6">
         <f t="shared" si="1"/>
         <v>-8.0970000000000208E-3</v>
       </c>
@@ -17638,7 +17641,7 @@
       <c r="W117" s="2">
         <v>-0.40670099999999998</v>
       </c>
-      <c r="X117" s="7">
+      <c r="X117" s="6">
         <f t="shared" si="1"/>
         <v>-1.0939000000000032E-2</v>
       </c>
@@ -17653,7 +17656,7 @@
       <c r="W118" s="2">
         <v>-0.42317399999999999</v>
       </c>
-      <c r="X118" s="7">
+      <c r="X118" s="6">
         <f t="shared" si="1"/>
         <v>2.1224000000000021E-2</v>
       </c>
@@ -17668,7 +17671,7 @@
       <c r="W119" s="2">
         <v>-0.43268299999999998</v>
       </c>
-      <c r="X119" s="7">
+      <c r="X119" s="6">
         <f t="shared" si="1"/>
         <v>-3.2540000000000346E-3</v>
       </c>
@@ -17683,7 +17686,7 @@
       <c r="W120" s="2">
         <v>-0.43230800000000003</v>
       </c>
-      <c r="X120" s="7">
+      <c r="X120" s="6">
         <f t="shared" si="1"/>
         <v>7.7550000000000119E-3</v>
       </c>
@@ -17698,7 +17701,7 @@
       <c r="W121" s="2">
         <v>-0.44217000000000001</v>
       </c>
-      <c r="X121" s="7">
+      <c r="X121" s="6">
         <f t="shared" si="1"/>
         <v>-8.0267000000000033E-2</v>
       </c>
@@ -17713,7 +17716,7 @@
       <c r="W122" s="2">
         <v>-0.41512900000000003</v>
       </c>
-      <c r="X122" s="7">
+      <c r="X122" s="6">
         <f t="shared" si="1"/>
         <v>1.1095000000000022E-2</v>
       </c>
@@ -17728,7 +17731,7 @@
       <c r="W123" s="2">
         <v>-0.43306499999999998</v>
       </c>
-      <c r="X123" s="7">
+      <c r="X123" s="6">
         <f t="shared" si="1"/>
         <v>-2.9404000000000041E-2</v>
       </c>
@@ -17743,7 +17746,7 @@
       <c r="W124" s="2">
         <v>-0.55139300000000002</v>
       </c>
-      <c r="X124" s="7">
+      <c r="X124" s="6">
         <f t="shared" si="1"/>
         <v>-3.5042999999999935E-2</v>
       </c>
@@ -17758,7 +17761,7 @@
       <c r="W125" s="2">
         <v>-0.582592</v>
       </c>
-      <c r="X125" s="7">
+      <c r="X125" s="6">
         <f t="shared" si="1"/>
         <v>-0.27182300000000004</v>
       </c>
@@ -17773,7 +17776,7 @@
       <c r="W126" s="2">
         <v>-0.55631299999999995</v>
       </c>
-      <c r="X126" s="7">
+      <c r="X126" s="6">
         <f t="shared" si="1"/>
         <v>8.4285999999999972E-2</v>
       </c>
@@ -17788,7 +17791,7 @@
       <c r="W127" s="2">
         <v>-1.74483E-2</v>
       </c>
-      <c r="X127" s="7">
+      <c r="X127" s="6">
         <f t="shared" si="1"/>
         <v>-0.27044469999999998</v>
       </c>
@@ -17803,7 +17806,7 @@
       <c r="W128" s="2">
         <v>0.12053800000000001</v>
       </c>
-      <c r="X128" s="7">
+      <c r="X128" s="6">
         <f t="shared" si="1"/>
         <v>-3.5420000000000035E-3</v>
       </c>
@@ -17818,7 +17821,7 @@
       <c r="W129" s="2">
         <v>-0.161553</v>
       </c>
-      <c r="X129" s="7">
+      <c r="X129" s="6">
         <f t="shared" si="1"/>
         <v>-0.193496</v>
       </c>
@@ -17833,7 +17836,7 @@
       <c r="W130" s="2">
         <v>-0.91372500000000001</v>
       </c>
-      <c r="X130" s="7">
+      <c r="X130" s="6">
         <f t="shared" si="1"/>
         <v>0.72762899999999997</v>
       </c>
@@ -17848,7 +17851,7 @@
       <c r="W131" s="2">
         <v>-0.471829</v>
       </c>
-      <c r="X131" s="7">
+      <c r="X131" s="6">
         <f t="shared" ref="X131:X194" si="2">V131-W131</f>
         <v>-7.5350000000000139E-3</v>
       </c>
@@ -17863,7 +17866,7 @@
       <c r="W132" s="2">
         <v>-0.339364</v>
       </c>
-      <c r="X132" s="7">
+      <c r="X132" s="6">
         <f t="shared" si="2"/>
         <v>-1.3923999999999992E-2</v>
       </c>
@@ -17878,7 +17881,7 @@
       <c r="W133" s="2">
         <v>-0.66824899999999998</v>
       </c>
-      <c r="X133" s="7">
+      <c r="X133" s="6">
         <f t="shared" si="2"/>
         <v>0.15541300000000002</v>
       </c>
@@ -17893,7 +17896,7 @@
       <c r="W134" s="2">
         <v>-0.32663799999999998</v>
       </c>
-      <c r="X134" s="7">
+      <c r="X134" s="6">
         <f t="shared" si="2"/>
         <v>-6.6331000000000029E-2</v>
       </c>
@@ -17908,7 +17911,7 @@
       <c r="W135" s="2">
         <v>-0.34220299999999998</v>
       </c>
-      <c r="X135" s="7">
+      <c r="X135" s="6">
         <f t="shared" si="2"/>
         <v>2.6998999999999995E-2</v>
       </c>
@@ -17923,7 +17926,7 @@
       <c r="W136" s="2">
         <v>3.34379E-2</v>
       </c>
-      <c r="X136" s="7">
+      <c r="X136" s="6">
         <f t="shared" si="2"/>
         <v>-0.34632290000000004</v>
       </c>
@@ -17938,7 +17941,7 @@
       <c r="W137" s="2">
         <v>-0.51181699999999997</v>
       </c>
-      <c r="X137" s="7">
+      <c r="X137" s="6">
         <f t="shared" si="2"/>
         <v>0.15921999999999997</v>
       </c>
@@ -17953,7 +17956,7 @@
       <c r="W138" s="2">
         <v>-0.35817900000000003</v>
       </c>
-      <c r="X138" s="7">
+      <c r="X138" s="6">
         <f t="shared" si="2"/>
         <v>-9.1789999999999927E-3</v>
       </c>
@@ -17968,7 +17971,7 @@
       <c r="W139" s="2">
         <v>-0.38833000000000001</v>
       </c>
-      <c r="X139" s="7">
+      <c r="X139" s="6">
         <f t="shared" si="2"/>
         <v>0.188886</v>
       </c>
@@ -17983,7 +17986,7 @@
       <c r="W140" s="2">
         <v>-0.44534600000000002</v>
       </c>
-      <c r="X140" s="7">
+      <c r="X140" s="6">
         <f t="shared" si="2"/>
         <v>-0.50312899999999994</v>
       </c>
@@ -17998,7 +18001,7 @@
       <c r="W141" s="2">
         <v>-0.40134900000000001</v>
       </c>
-      <c r="X141" s="7">
+      <c r="X141" s="6">
         <f t="shared" si="2"/>
         <v>4.0507999999999988E-2</v>
       </c>
@@ -18013,7 +18016,7 @@
       <c r="W142" s="2">
         <v>-0.47849700000000001</v>
       </c>
-      <c r="X142" s="7">
+      <c r="X142" s="6">
         <f t="shared" si="2"/>
         <v>3.2679999999999987E-2</v>
       </c>
@@ -18028,7 +18031,7 @@
       <c r="W143" s="2">
         <v>-0.33706799999999998</v>
       </c>
-      <c r="X143" s="7">
+      <c r="X143" s="6">
         <f t="shared" si="2"/>
         <v>6.7507999999999957E-2</v>
       </c>
@@ -18043,7 +18046,7 @@
       <c r="W144" s="2">
         <v>-0.43986999999999998</v>
       </c>
-      <c r="X144" s="7">
+      <c r="X144" s="6">
         <f t="shared" si="2"/>
         <v>0.12410599999999999</v>
       </c>
@@ -18058,7 +18061,7 @@
       <c r="W145" s="2">
         <v>-0.205344</v>
       </c>
-      <c r="X145" s="7">
+      <c r="X145" s="6">
         <f t="shared" si="2"/>
         <v>-0.17709</v>
       </c>
@@ -18073,7 +18076,7 @@
       <c r="W146" s="2">
         <v>-1.2276800000000001</v>
       </c>
-      <c r="X146" s="7">
+      <c r="X146" s="6">
         <f t="shared" si="2"/>
         <v>0.62639800000000012</v>
       </c>
@@ -18088,7 +18091,7 @@
       <c r="W147" s="2">
         <v>-0.84332300000000004</v>
       </c>
-      <c r="X147" s="7">
+      <c r="X147" s="6">
         <f t="shared" si="2"/>
         <v>0.55578600000000011</v>
       </c>
@@ -18103,7 +18106,7 @@
       <c r="W148" s="2">
         <v>-0.25700400000000001</v>
       </c>
-      <c r="X148" s="7">
+      <c r="X148" s="6">
         <f t="shared" si="2"/>
         <v>-0.14211599999999996</v>
       </c>
@@ -18118,7 +18121,7 @@
       <c r="W149" s="2">
         <v>-0.38739200000000001</v>
       </c>
-      <c r="X149" s="7">
+      <c r="X149" s="6">
         <f t="shared" si="2"/>
         <v>0.19717900000000002</v>
       </c>
@@ -18133,7 +18136,7 @@
       <c r="W150" s="2">
         <v>-0.415105</v>
       </c>
-      <c r="X150" s="7">
+      <c r="X150" s="6">
         <f t="shared" si="2"/>
         <v>-7.6002000000000014E-2</v>
       </c>
@@ -18148,7 +18151,7 @@
       <c r="W151" s="2">
         <v>-0.42400900000000002</v>
       </c>
-      <c r="X151" s="7">
+      <c r="X151" s="6">
         <f t="shared" si="2"/>
         <v>3.0774000000000024E-2</v>
       </c>
@@ -18163,7 +18166,7 @@
       <c r="W152" s="2">
         <v>-0.67252699999999999</v>
       </c>
-      <c r="X152" s="7">
+      <c r="X152" s="6">
         <f t="shared" si="2"/>
         <v>0.13935799999999998</v>
       </c>
@@ -18178,7 +18181,7 @@
       <c r="W153" s="2">
         <v>-0.52641099999999996</v>
       </c>
-      <c r="X153" s="7">
+      <c r="X153" s="6">
         <f t="shared" si="2"/>
         <v>0.12275299999999995</v>
       </c>
@@ -18193,7 +18196,7 @@
       <c r="W154" s="2">
         <v>-0.51640699999999995</v>
       </c>
-      <c r="X154" s="7">
+      <c r="X154" s="6">
         <f t="shared" si="2"/>
         <v>-2.614800000000006E-2</v>
       </c>
@@ -18208,7 +18211,7 @@
       <c r="W155" s="2">
         <v>-0.41488999999999998</v>
       </c>
-      <c r="X155" s="7">
+      <c r="X155" s="6">
         <f t="shared" si="2"/>
         <v>3.2984999999999987E-2</v>
       </c>
@@ -18223,7 +18226,7 @@
       <c r="W156" s="2">
         <v>-0.27113399999999999</v>
       </c>
-      <c r="X156" s="7">
+      <c r="X156" s="6">
         <f t="shared" si="2"/>
         <v>-0.17366599999999999</v>
       </c>
@@ -18238,7 +18241,7 @@
       <c r="W157" s="2">
         <v>-0.43835600000000002</v>
       </c>
-      <c r="X157" s="7">
+      <c r="X157" s="6">
         <f t="shared" si="2"/>
         <v>-3.9200000000000346E-4</v>
       </c>
@@ -18253,7 +18256,7 @@
       <c r="W158" s="2">
         <v>-0.44712000000000002</v>
       </c>
-      <c r="X158" s="7">
+      <c r="X158" s="6">
         <f t="shared" si="2"/>
         <v>0.10015299999999999</v>
       </c>
@@ -18268,7 +18271,7 @@
       <c r="W159" s="2">
         <v>-0.43100100000000002</v>
       </c>
-      <c r="X159" s="7">
+      <c r="X159" s="6">
         <f t="shared" si="2"/>
         <v>0.10432600000000003</v>
       </c>
@@ -18283,7 +18286,7 @@
       <c r="W160" s="2">
         <v>-0.39819399999999999</v>
       </c>
-      <c r="X160" s="7">
+      <c r="X160" s="6">
         <f t="shared" si="2"/>
         <v>0.197015</v>
       </c>
@@ -18298,7 +18301,7 @@
       <c r="W161" s="2">
         <v>-0.85478799999999999</v>
       </c>
-      <c r="X161" s="7">
+      <c r="X161" s="6">
         <f t="shared" si="2"/>
         <v>0.46607100000000001</v>
       </c>
@@ -18313,7 +18316,7 @@
       <c r="W162" s="2">
         <v>5.3398399999999999E-2</v>
       </c>
-      <c r="X162" s="7">
+      <c r="X162" s="6">
         <f t="shared" si="2"/>
         <v>0.1452446</v>
       </c>
@@ -18328,7 +18331,7 @@
       <c r="W163" s="2">
         <v>-0.36564400000000002</v>
       </c>
-      <c r="X163" s="7">
+      <c r="X163" s="6">
         <f t="shared" si="2"/>
         <v>-0.34351999999999999</v>
       </c>
@@ -18343,7 +18346,7 @@
       <c r="W164" s="2">
         <v>-0.43433899999999998</v>
       </c>
-      <c r="X164" s="7">
+      <c r="X164" s="6">
         <f t="shared" si="2"/>
         <v>5.3744999999999987E-2</v>
       </c>
@@ -18358,7 +18361,7 @@
       <c r="W165" s="2">
         <v>-0.30544100000000002</v>
       </c>
-      <c r="X165" s="7">
+      <c r="X165" s="6">
         <f t="shared" si="2"/>
         <v>-1.8693999999999988E-2</v>
       </c>
@@ -18373,7 +18376,7 @@
       <c r="W166" s="2">
         <v>-0.66879900000000003</v>
       </c>
-      <c r="X166" s="7">
+      <c r="X166" s="6">
         <f t="shared" si="2"/>
         <v>0.34149500000000005</v>
       </c>
@@ -18388,7 +18391,7 @@
       <c r="W167" s="2">
         <v>-0.359595</v>
       </c>
-      <c r="X167" s="7">
+      <c r="X167" s="6">
         <f t="shared" si="2"/>
         <v>4.8312000000000022E-2</v>
       </c>
@@ -18403,7 +18406,7 @@
       <c r="W168" s="2">
         <v>-0.383434</v>
       </c>
-      <c r="X168" s="7">
+      <c r="X168" s="6">
         <f t="shared" si="2"/>
         <v>2.6503999999999972E-2</v>
       </c>
@@ -18418,7 +18421,7 @@
       <c r="W169" s="2">
         <v>-0.41155799999999998</v>
       </c>
-      <c r="X169" s="7">
+      <c r="X169" s="6">
         <f t="shared" si="2"/>
         <v>7.8027999999999986E-2</v>
       </c>
@@ -18433,7 +18436,7 @@
       <c r="W170" s="2">
         <v>-0.47712100000000002</v>
       </c>
-      <c r="X170" s="7">
+      <c r="X170" s="6">
         <f t="shared" si="2"/>
         <v>6.8408999999999998E-2</v>
       </c>
@@ -18448,7 +18451,7 @@
       <c r="W171" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X171" s="7">
+      <c r="X171" s="6">
         <f t="shared" si="2"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -18463,7 +18466,7 @@
       <c r="W172" s="2">
         <v>-0.43594899999999998</v>
       </c>
-      <c r="X172" s="7">
+      <c r="X172" s="6">
         <f t="shared" si="2"/>
         <v>8.8039999999999785E-3</v>
       </c>
@@ -18478,7 +18481,7 @@
       <c r="W173" s="2">
         <v>-0.51600800000000002</v>
       </c>
-      <c r="X173" s="7">
+      <c r="X173" s="6">
         <f t="shared" si="2"/>
         <v>2.4890000000000745E-3</v>
       </c>
@@ -18493,7 +18496,7 @@
       <c r="W174" s="2">
         <v>-0.44102799999999998</v>
       </c>
-      <c r="X174" s="7">
+      <c r="X174" s="6">
         <f t="shared" si="2"/>
         <v>-2.4350000000000038E-2</v>
       </c>
@@ -18508,7 +18511,7 @@
       <c r="W175" s="2">
         <v>-0.51862200000000003</v>
       </c>
-      <c r="X175" s="7">
+      <c r="X175" s="6">
         <f t="shared" si="2"/>
         <v>5.6758000000000031E-2</v>
       </c>
@@ -18523,7 +18526,7 @@
       <c r="W176" s="2">
         <v>-0.37148900000000001</v>
       </c>
-      <c r="X176" s="7">
+      <c r="X176" s="6">
         <f t="shared" si="2"/>
         <v>5.6170000000000386E-3</v>
       </c>
@@ -18538,7 +18541,7 @@
       <c r="W177" s="2">
         <v>-0.45551799999999998</v>
       </c>
-      <c r="X177" s="7">
+      <c r="X177" s="6">
         <f t="shared" si="2"/>
         <v>4.2843999999999993E-2</v>
       </c>
@@ -18553,7 +18556,7 @@
       <c r="W178" s="2">
         <v>-0.37132199999999999</v>
       </c>
-      <c r="X178" s="7">
+      <c r="X178" s="6">
         <f t="shared" si="2"/>
         <v>-8.1330000000000013E-2</v>
       </c>
@@ -18568,7 +18571,7 @@
       <c r="W179" s="2">
         <v>-0.52031799999999995</v>
       </c>
-      <c r="X179" s="7">
+      <c r="X179" s="6">
         <f t="shared" si="2"/>
         <v>-3.1690000000000884E-3</v>
       </c>
@@ -18583,7 +18586,7 @@
       <c r="W180" s="2">
         <v>-0.49512899999999999</v>
       </c>
-      <c r="X180" s="7">
+      <c r="X180" s="6">
         <f t="shared" si="2"/>
         <v>0.21049200000000001</v>
       </c>
@@ -18598,7 +18601,7 @@
       <c r="W181" s="2">
         <v>-0.47173100000000001</v>
       </c>
-      <c r="X181" s="7">
+      <c r="X181" s="6">
         <f t="shared" si="2"/>
         <v>-2.3746999999999963E-2</v>
       </c>
@@ -18613,7 +18616,7 @@
       <c r="W182" s="2">
         <v>-0.36756800000000001</v>
       </c>
-      <c r="X182" s="7">
+      <c r="X182" s="6">
         <f t="shared" si="2"/>
         <v>0.177782</v>
       </c>
@@ -18628,7 +18631,7 @@
       <c r="W183" s="2">
         <v>-0.51434000000000002</v>
       </c>
-      <c r="X183" s="7">
+      <c r="X183" s="6">
         <f t="shared" si="2"/>
         <v>-0.57677</v>
       </c>
@@ -18643,7 +18646,7 @@
       <c r="W184" s="2">
         <v>-0.53788800000000003</v>
       </c>
-      <c r="X184" s="7">
+      <c r="X184" s="6">
         <f t="shared" si="2"/>
         <v>3.1360000000000054E-2</v>
       </c>
@@ -18658,7 +18661,7 @@
       <c r="W185" s="2">
         <v>-0.33130199999999999</v>
       </c>
-      <c r="X185" s="7">
+      <c r="X185" s="6">
         <f t="shared" si="2"/>
         <v>-1.906999999999992E-3</v>
       </c>
@@ -18673,7 +18676,7 @@
       <c r="W186" s="2">
         <v>-0.423234</v>
       </c>
-      <c r="X186" s="7">
+      <c r="X186" s="6">
         <f t="shared" si="2"/>
         <v>5.1383000000000012E-2</v>
       </c>
@@ -18688,7 +18691,7 @@
       <c r="W187" s="2">
         <v>-0.37870300000000001</v>
       </c>
-      <c r="X187" s="7">
+      <c r="X187" s="6">
         <f t="shared" si="2"/>
         <v>-2.4436000000000013E-2</v>
       </c>
@@ -18703,7 +18706,7 @@
       <c r="W188" s="2">
         <v>-0.42032700000000001</v>
       </c>
-      <c r="X188" s="7">
+      <c r="X188" s="6">
         <f t="shared" si="2"/>
         <v>-0.37615500000000002</v>
       </c>
@@ -18718,7 +18721,7 @@
       <c r="W189" s="2">
         <v>-0.70854399999999995</v>
       </c>
-      <c r="X189" s="7">
+      <c r="X189" s="6">
         <f t="shared" si="2"/>
         <v>9.3247999999999998E-2</v>
       </c>
@@ -18733,7 +18736,7 @@
       <c r="W190" s="2">
         <v>-0.48533300000000001</v>
       </c>
-      <c r="X190" s="7">
+      <c r="X190" s="6">
         <f t="shared" si="2"/>
         <v>-6.7220999999999975E-2</v>
       </c>
@@ -18748,7 +18751,7 @@
       <c r="W191" s="2">
         <v>-0.40918900000000002</v>
       </c>
-      <c r="X191" s="7">
+      <c r="X191" s="6">
         <f t="shared" si="2"/>
         <v>-7.928099999999999E-2</v>
       </c>
@@ -18763,7 +18766,7 @@
       <c r="W192" s="2">
         <v>-0.48441299999999998</v>
       </c>
-      <c r="X192" s="7">
+      <c r="X192" s="6">
         <f t="shared" si="2"/>
         <v>-0.13088299999999997</v>
       </c>
@@ -18778,7 +18781,7 @@
       <c r="W193" s="2">
         <v>-0.47424100000000002</v>
       </c>
-      <c r="X193" s="7">
+      <c r="X193" s="6">
         <f t="shared" si="2"/>
         <v>-0.72469899999999987</v>
       </c>
@@ -18793,7 +18796,7 @@
       <c r="W194" s="2">
         <v>-0.76599499999999998</v>
       </c>
-      <c r="X194" s="7">
+      <c r="X194" s="6">
         <f t="shared" si="2"/>
         <v>-2.3418999999999968E-2</v>
       </c>
@@ -18808,7 +18811,7 @@
       <c r="W195" s="2">
         <v>-0.42743599999999998</v>
       </c>
-      <c r="X195" s="7">
+      <c r="X195" s="6">
         <f t="shared" ref="X195:X258" si="3">V195-W195</f>
         <v>-5.9267000000000014E-2</v>
       </c>
@@ -18823,7 +18826,7 @@
       <c r="W196" s="2">
         <v>-0.35360599999999998</v>
       </c>
-      <c r="X196" s="7">
+      <c r="X196" s="6">
         <f t="shared" si="3"/>
         <v>-8.8919999999999999E-2</v>
       </c>
@@ -18838,7 +18841,7 @@
       <c r="W197" s="2">
         <v>-0.11666</v>
       </c>
-      <c r="X197" s="7">
+      <c r="X197" s="6">
         <f t="shared" si="3"/>
         <v>-0.498726</v>
       </c>
@@ -18853,7 +18856,7 @@
       <c r="W198" s="2">
         <v>-0.53827599999999998</v>
       </c>
-      <c r="X198" s="7">
+      <c r="X198" s="6">
         <f t="shared" si="3"/>
         <v>4.0912999999999977E-2</v>
       </c>
@@ -18868,7 +18871,7 @@
       <c r="W199" s="2">
         <v>-0.150727</v>
       </c>
-      <c r="X199" s="7">
+      <c r="X199" s="6">
         <f t="shared" si="3"/>
         <v>-0.45710900000000004</v>
       </c>
@@ -18883,7 +18886,7 @@
       <c r="W200" s="2">
         <v>-0.42743599999999998</v>
       </c>
-      <c r="X200" s="7">
+      <c r="X200" s="6">
         <f t="shared" si="3"/>
         <v>-5.9267000000000014E-2</v>
       </c>
@@ -18898,7 +18901,7 @@
       <c r="W201" s="2">
         <v>-0.59662300000000001</v>
       </c>
-      <c r="X201" s="7">
+      <c r="X201" s="6">
         <f t="shared" si="3"/>
         <v>-1.8762999999999974E-2</v>
       </c>
@@ -18913,7 +18916,7 @@
       <c r="W202" s="2">
         <v>-0.55017799999999994</v>
       </c>
-      <c r="X202" s="7">
+      <c r="X202" s="6">
         <f t="shared" si="3"/>
         <v>-0.203349</v>
       </c>
@@ -18928,7 +18931,7 @@
       <c r="W203" s="2">
         <v>-0.44942599999999999</v>
       </c>
-      <c r="X203" s="7">
+      <c r="X203" s="6">
         <f t="shared" si="3"/>
         <v>5.2238000000000007E-2</v>
       </c>
@@ -18943,7 +18946,7 @@
       <c r="W204" s="2">
         <v>-0.35527199999999998</v>
       </c>
-      <c r="X204" s="7">
+      <c r="X204" s="6">
         <f t="shared" si="3"/>
         <v>-7.8632000000000035E-2</v>
       </c>
@@ -18958,7 +18961,7 @@
       <c r="W205" s="2">
         <v>-0.42062500000000003</v>
       </c>
-      <c r="X205" s="7">
+      <c r="X205" s="6">
         <f t="shared" si="3"/>
         <v>-3.4906999999999966E-2</v>
       </c>
@@ -18973,7 +18976,7 @@
       <c r="W206" s="2">
         <v>-0.46563599999999999</v>
       </c>
-      <c r="X206" s="7">
+      <c r="X206" s="6">
         <f t="shared" si="3"/>
         <v>-3.7663999999999975E-2</v>
       </c>
@@ -18988,7 +18991,7 @@
       <c r="W207" s="2">
         <v>-0.58424299999999996</v>
       </c>
-      <c r="X207" s="7">
+      <c r="X207" s="6">
         <f t="shared" si="3"/>
         <v>7.0863999999999927E-2</v>
       </c>
@@ -19003,7 +19006,7 @@
       <c r="W208" s="2">
         <v>-0.350574</v>
       </c>
-      <c r="X208" s="7">
+      <c r="X208" s="6">
         <f t="shared" si="3"/>
         <v>-8.0040000000000111E-3</v>
       </c>
@@ -19018,7 +19021,7 @@
       <c r="W209" s="2">
         <v>-0.48886299999999999</v>
       </c>
-      <c r="X209" s="7">
+      <c r="X209" s="6">
         <f t="shared" si="3"/>
         <v>-3.8799999999999946E-3</v>
       </c>
@@ -19033,7 +19036,7 @@
       <c r="W210" s="2">
         <v>-0.39972800000000003</v>
       </c>
-      <c r="X210" s="7">
+      <c r="X210" s="6">
         <f t="shared" si="3"/>
         <v>6.7730000000000012E-2</v>
       </c>
@@ -19048,7 +19051,7 @@
       <c r="W211" s="2">
         <v>-0.50442600000000004</v>
       </c>
-      <c r="X211" s="7">
+      <c r="X211" s="6">
         <f t="shared" si="3"/>
         <v>2.8223000000000054E-2</v>
       </c>
@@ -19063,7 +19066,7 @@
       <c r="W212" s="2">
         <v>-0.471024</v>
       </c>
-      <c r="X212" s="7">
+      <c r="X212" s="6">
         <f t="shared" si="3"/>
         <v>-7.7697000000000016E-2</v>
       </c>
@@ -19078,7 +19081,7 @@
       <c r="W213" s="2">
         <v>-0.43235800000000002</v>
       </c>
-      <c r="X213" s="7">
+      <c r="X213" s="6">
         <f t="shared" si="3"/>
         <v>-0.29650900000000002</v>
       </c>
@@ -19093,7 +19096,7 @@
       <c r="W214" s="2">
         <v>-0.504216</v>
       </c>
-      <c r="X214" s="7">
+      <c r="X214" s="6">
         <f t="shared" si="3"/>
         <v>3.0963999999999992E-2</v>
       </c>
@@ -19108,7 +19111,7 @@
       <c r="W215" s="2">
         <v>-0.42634100000000003</v>
       </c>
-      <c r="X215" s="7">
+      <c r="X215" s="6">
         <f t="shared" si="3"/>
         <v>-4.7309999999999852E-3</v>
       </c>
@@ -19123,7 +19126,7 @@
       <c r="W216" s="2">
         <v>-0.44774199999999997</v>
       </c>
-      <c r="X216" s="7">
+      <c r="X216" s="6">
         <f t="shared" si="3"/>
         <v>-5.8251000000000053E-2</v>
       </c>
@@ -19138,7 +19141,7 @@
       <c r="W217" s="2">
         <v>-0.41016399999999997</v>
       </c>
-      <c r="X217" s="7">
+      <c r="X217" s="6">
         <f t="shared" si="3"/>
         <v>1.5215999999999952E-2</v>
       </c>
@@ -19153,7 +19156,7 @@
       <c r="W218" s="2">
         <v>-0.56562599999999996</v>
       </c>
-      <c r="X218" s="7">
+      <c r="X218" s="6">
         <f t="shared" si="3"/>
         <v>-0.23381700000000005</v>
       </c>
@@ -19168,7 +19171,7 @@
       <c r="W219" s="2">
         <v>2.7241200000000001</v>
       </c>
-      <c r="X219" s="7">
+      <c r="X219" s="6">
         <f t="shared" si="3"/>
         <v>-3.115713</v>
       </c>
@@ -19183,7 +19186,7 @@
       <c r="W220" s="2">
         <v>-0.59799199999999997</v>
       </c>
-      <c r="X220" s="7">
+      <c r="X220" s="6">
         <f t="shared" si="3"/>
         <v>-0.34039900000000001</v>
       </c>
@@ -19198,7 +19201,7 @@
       <c r="W221" s="2">
         <v>-0.51768199999999998</v>
       </c>
-      <c r="X221" s="7">
+      <c r="X221" s="6">
         <f t="shared" si="3"/>
         <v>3.7253999999999954E-2</v>
       </c>
@@ -19213,7 +19216,7 @@
       <c r="W222" s="2">
         <v>-0.28195700000000001</v>
       </c>
-      <c r="X222" s="7">
+      <c r="X222" s="6">
         <f t="shared" si="3"/>
         <v>3.0660000000000132E-3</v>
       </c>
@@ -19228,7 +19231,7 @@
       <c r="W223" s="2">
         <v>-0.47555900000000001</v>
       </c>
-      <c r="X223" s="7">
+      <c r="X223" s="6">
         <f t="shared" si="3"/>
         <v>-2.432899999999999E-2</v>
       </c>
@@ -19243,7 +19246,7 @@
       <c r="W224" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X224" s="7">
+      <c r="X224" s="6">
         <f t="shared" si="3"/>
         <v>-9.7835999999999979E-2</v>
       </c>
@@ -19258,7 +19261,7 @@
       <c r="W225" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X225" s="7">
+      <c r="X225" s="6">
         <f t="shared" si="3"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19273,7 +19276,7 @@
       <c r="W226" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X226" s="7">
+      <c r="X226" s="6">
         <f t="shared" si="3"/>
         <v>-0.22586599999999996</v>
       </c>
@@ -19288,7 +19291,7 @@
       <c r="W227" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X227" s="7">
+      <c r="X227" s="6">
         <f t="shared" si="3"/>
         <v>-8.5152000000000005E-2</v>
       </c>
@@ -19303,7 +19306,7 @@
       <c r="W228" s="2">
         <v>-0.20483599999999999</v>
       </c>
-      <c r="X228" s="7">
+      <c r="X228" s="6">
         <f t="shared" si="3"/>
         <v>3.8968000000000003E-2</v>
       </c>
@@ -19318,7 +19321,7 @@
       <c r="W229" s="2">
         <v>-0.49043399999999998</v>
       </c>
-      <c r="X229" s="7">
+      <c r="X229" s="6">
         <f t="shared" si="3"/>
         <v>-1.7718000000000067E-2</v>
       </c>
@@ -19333,7 +19336,7 @@
       <c r="W230" s="2">
         <v>-0.50102999999999998</v>
       </c>
-      <c r="X230" s="7">
+      <c r="X230" s="6">
         <f t="shared" si="3"/>
         <v>6.7317999999999989E-2</v>
       </c>
@@ -19348,7 +19351,7 @@
       <c r="W231" s="2">
         <v>-0.409522</v>
       </c>
-      <c r="X231" s="7">
+      <c r="X231" s="6">
         <f t="shared" si="3"/>
         <v>-0.18427399999999999</v>
       </c>
@@ -19363,7 +19366,7 @@
       <c r="W232" s="2">
         <v>-0.14824100000000001</v>
       </c>
-      <c r="X232" s="7">
+      <c r="X232" s="6">
         <f t="shared" si="3"/>
         <v>-3.7499999999999978E-2</v>
       </c>
@@ -19378,7 +19381,7 @@
       <c r="W233" s="2">
         <v>-0.47767599999999999</v>
       </c>
-      <c r="X233" s="7">
+      <c r="X233" s="6">
         <f t="shared" si="3"/>
         <v>5.2520000000000011E-2</v>
       </c>
@@ -19393,7 +19396,7 @@
       <c r="W234" s="2">
         <v>-0.234931</v>
       </c>
-      <c r="X234" s="7">
+      <c r="X234" s="6">
         <f t="shared" si="3"/>
         <v>-8.3816000000000002E-2</v>
       </c>
@@ -19408,7 +19411,7 @@
       <c r="W235" s="2">
         <v>-0.40434399999999998</v>
       </c>
-      <c r="X235" s="7">
+      <c r="X235" s="6">
         <f t="shared" si="3"/>
         <v>-2.7650000000000174E-3</v>
       </c>
@@ -19423,7 +19426,7 @@
       <c r="W236" s="2">
         <v>-0.29280200000000001</v>
       </c>
-      <c r="X236" s="7">
+      <c r="X236" s="6">
         <f t="shared" si="3"/>
         <v>0.15091200000000002</v>
       </c>
@@ -19438,7 +19441,7 @@
       <c r="W237" s="2">
         <v>-0.37360900000000002</v>
       </c>
-      <c r="X237" s="7">
+      <c r="X237" s="6">
         <f t="shared" si="3"/>
         <v>3.6815000000000042E-2</v>
       </c>
@@ -19453,7 +19456,7 @@
       <c r="W238" s="2">
         <v>-0.36092299999999999</v>
       </c>
-      <c r="X238" s="7">
+      <c r="X238" s="6">
         <f t="shared" si="3"/>
         <v>-2.7027999999999996E-2</v>
       </c>
@@ -19468,7 +19471,7 @@
       <c r="W239" s="2">
         <v>-0.35667500000000002</v>
       </c>
-      <c r="X239" s="7">
+      <c r="X239" s="6">
         <f t="shared" si="3"/>
         <v>9.5618000000000036E-2</v>
       </c>
@@ -19483,7 +19486,7 @@
       <c r="W240" s="2">
         <v>-0.55793499999999996</v>
       </c>
-      <c r="X240" s="7">
+      <c r="X240" s="6">
         <f t="shared" si="3"/>
         <v>8.2192999999999961E-2</v>
       </c>
@@ -19498,7 +19501,7 @@
       <c r="W241" s="2">
         <v>-0.52812999999999999</v>
       </c>
-      <c r="X241" s="7">
+      <c r="X241" s="6">
         <f t="shared" si="3"/>
         <v>6.6417000000000004E-2</v>
       </c>
@@ -19513,7 +19516,7 @@
       <c r="W242" s="2">
         <v>-0.839418</v>
       </c>
-      <c r="X242" s="7">
+      <c r="X242" s="6">
         <f t="shared" si="3"/>
         <v>-4.210000000000047E-3</v>
       </c>
@@ -19528,7 +19531,7 @@
       <c r="W243" s="2">
         <v>-0.47332400000000002</v>
       </c>
-      <c r="X243" s="7">
+      <c r="X243" s="6">
         <f t="shared" si="3"/>
         <v>-4.1947000000000012E-2</v>
       </c>
@@ -19543,7 +19546,7 @@
       <c r="W244" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X244" s="7">
+      <c r="X244" s="6">
         <f t="shared" si="3"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19558,7 +19561,7 @@
       <c r="W245" s="2">
         <v>-0.51505199999999995</v>
       </c>
-      <c r="X245" s="7">
+      <c r="X245" s="6">
         <f t="shared" si="3"/>
         <v>4.4281999999999933E-2</v>
       </c>
@@ -19573,7 +19576,7 @@
       <c r="W246" s="2">
         <v>-0.25179800000000002</v>
       </c>
-      <c r="X246" s="7">
+      <c r="X246" s="6">
         <f t="shared" si="3"/>
         <v>-0.17051899999999998</v>
       </c>
@@ -19588,7 +19591,7 @@
       <c r="W247" s="2">
         <v>-0.44091999999999998</v>
       </c>
-      <c r="X247" s="7">
+      <c r="X247" s="6">
         <f t="shared" si="3"/>
         <v>-0.30645200000000006</v>
       </c>
@@ -19603,7 +19606,7 @@
       <c r="W248" s="2">
         <v>-0.97514900000000004</v>
       </c>
-      <c r="X248" s="7">
+      <c r="X248" s="6">
         <f t="shared" si="3"/>
         <v>-3.7290999999999963E-2</v>
       </c>
@@ -19618,7 +19621,7 @@
       <c r="W249" s="2">
         <v>-0.51062200000000002</v>
       </c>
-      <c r="X249" s="7">
+      <c r="X249" s="6">
         <f t="shared" si="3"/>
         <v>5.0032999999999994E-2</v>
       </c>
@@ -19633,7 +19636,7 @@
       <c r="W250" s="2">
         <v>-0.48267399999999999</v>
       </c>
-      <c r="X250" s="7">
+      <c r="X250" s="6">
         <f t="shared" si="3"/>
         <v>-5.6900000000000006E-2</v>
       </c>
@@ -19648,7 +19651,7 @@
       <c r="W251" s="2">
         <v>-0.30780299999999999</v>
       </c>
-      <c r="X251" s="7">
+      <c r="X251" s="6">
         <f t="shared" si="3"/>
         <v>4.1430000000000078E-3</v>
       </c>
@@ -19663,7 +19666,7 @@
       <c r="W252" s="2">
         <v>-0.32675100000000001</v>
       </c>
-      <c r="X252" s="7">
+      <c r="X252" s="6">
         <f t="shared" si="3"/>
         <v>-4.3560999999999961E-2</v>
       </c>
@@ -19678,7 +19681,7 @@
       <c r="W253" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X253" s="7">
+      <c r="X253" s="6">
         <f t="shared" si="3"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19693,7 +19696,7 @@
       <c r="W254" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X254" s="7">
+      <c r="X254" s="6">
         <f t="shared" si="3"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19708,7 +19711,7 @@
       <c r="W255" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X255" s="7">
+      <c r="X255" s="6">
         <f t="shared" si="3"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19723,7 +19726,7 @@
       <c r="W256" s="2">
         <v>-0.60483500000000001</v>
       </c>
-      <c r="X256" s="7">
+      <c r="X256" s="6">
         <f t="shared" si="3"/>
         <v>-0.59703499999999998</v>
       </c>
@@ -19738,7 +19741,7 @@
       <c r="W257" s="2">
         <v>-0.346688</v>
       </c>
-      <c r="X257" s="7">
+      <c r="X257" s="6">
         <f t="shared" si="3"/>
         <v>-6.9023000000000001E-2</v>
       </c>
@@ -19753,7 +19756,7 @@
       <c r="W258" s="2">
         <v>-0.33849699999999999</v>
       </c>
-      <c r="X258" s="7">
+      <c r="X258" s="6">
         <f t="shared" si="3"/>
         <v>-7.4384000000000006E-2</v>
       </c>
@@ -19768,7 +19771,7 @@
       <c r="W259" s="2">
         <v>-0.75076600000000004</v>
       </c>
-      <c r="X259" s="7">
+      <c r="X259" s="6">
         <f t="shared" ref="X259:X322" si="4">V259-W259</f>
         <v>0.15940300000000007</v>
       </c>
@@ -19783,7 +19786,7 @@
       <c r="W260" s="2">
         <v>-0.51143700000000003</v>
       </c>
-      <c r="X260" s="7">
+      <c r="X260" s="6">
         <f t="shared" si="4"/>
         <v>4.6943000000000012E-2</v>
       </c>
@@ -19798,7 +19801,7 @@
       <c r="W261" s="2">
         <v>-0.55802300000000005</v>
       </c>
-      <c r="X261" s="7">
+      <c r="X261" s="6">
         <f t="shared" si="4"/>
         <v>-0.32674399999999992</v>
       </c>
@@ -19813,7 +19816,7 @@
       <c r="W262" s="2">
         <v>-0.38037799999999999</v>
       </c>
-      <c r="X262" s="7">
+      <c r="X262" s="6">
         <f t="shared" si="4"/>
         <v>-3.7951999999999986E-2</v>
       </c>
@@ -19828,7 +19831,7 @@
       <c r="W263" s="2">
         <v>-0.53270799999999996</v>
       </c>
-      <c r="X263" s="7">
+      <c r="X263" s="6">
         <f t="shared" si="4"/>
         <v>6.9979999999999987E-2</v>
       </c>
@@ -19843,7 +19846,7 @@
       <c r="W264" s="2">
         <v>-0.55651200000000001</v>
       </c>
-      <c r="X264" s="7">
+      <c r="X264" s="6">
         <f t="shared" si="4"/>
         <v>1.2997000000000036E-2</v>
       </c>
@@ -19858,7 +19861,7 @@
       <c r="W265" s="2">
         <v>-0.54054899999999995</v>
       </c>
-      <c r="X265" s="7">
+      <c r="X265" s="6">
         <f t="shared" si="4"/>
         <v>2.3980000000000001E-2</v>
       </c>
@@ -19873,7 +19876,7 @@
       <c r="W266" s="2">
         <v>-0.22062000000000001</v>
       </c>
-      <c r="X266" s="7">
+      <c r="X266" s="6">
         <f t="shared" si="4"/>
         <v>-6.673599999999999E-2</v>
       </c>
@@ -19888,7 +19891,7 @@
       <c r="W267" s="2">
         <v>-0.48494599999999999</v>
       </c>
-      <c r="X267" s="7">
+      <c r="X267" s="6">
         <f t="shared" si="4"/>
         <v>0.12773000000000001</v>
       </c>
@@ -19903,7 +19906,7 @@
       <c r="W268" s="2">
         <v>-0.54728500000000002</v>
       </c>
-      <c r="X268" s="7">
+      <c r="X268" s="6">
         <f t="shared" si="4"/>
         <v>2.113799999999999E-2</v>
       </c>
@@ -19918,7 +19921,7 @@
       <c r="W269" s="2">
         <v>-0.86608600000000002</v>
       </c>
-      <c r="X269" s="7">
+      <c r="X269" s="6">
         <f t="shared" si="4"/>
         <v>0.341615</v>
       </c>
@@ -19933,7 +19936,7 @@
       <c r="W270" s="2">
         <v>-0.55120899999999995</v>
       </c>
-      <c r="X270" s="7">
+      <c r="X270" s="6">
         <f t="shared" si="4"/>
         <v>-4.9313000000000051E-2</v>
       </c>
@@ -19948,7 +19951,7 @@
       <c r="W271" s="2">
         <v>-0.48847200000000002</v>
       </c>
-      <c r="X271" s="7">
+      <c r="X271" s="6">
         <f t="shared" si="4"/>
         <v>-6.2099000000000015E-2</v>
       </c>
@@ -19963,7 +19966,7 @@
       <c r="W272" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X272" s="7">
+      <c r="X272" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19978,7 +19981,7 @@
       <c r="W273" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X273" s="7">
+      <c r="X273" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -19993,7 +19996,7 @@
       <c r="W274" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X274" s="7">
+      <c r="X274" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20008,7 +20011,7 @@
       <c r="W275" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X275" s="7">
+      <c r="X275" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20023,7 +20026,7 @@
       <c r="W276" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X276" s="7">
+      <c r="X276" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20038,7 +20041,7 @@
       <c r="W277" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X277" s="7">
+      <c r="X277" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20053,7 +20056,7 @@
       <c r="W278" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X278" s="7">
+      <c r="X278" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20068,7 +20071,7 @@
       <c r="W279" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X279" s="7">
+      <c r="X279" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20083,7 +20086,7 @@
       <c r="W280" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X280" s="7">
+      <c r="X280" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20098,7 +20101,7 @@
       <c r="W281" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X281" s="7">
+      <c r="X281" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20113,7 +20116,7 @@
       <c r="W282" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X282" s="7">
+      <c r="X282" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20128,7 +20131,7 @@
       <c r="W283" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X283" s="7">
+      <c r="X283" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20143,7 +20146,7 @@
       <c r="W284" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X284" s="7">
+      <c r="X284" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20158,7 +20161,7 @@
       <c r="W285" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X285" s="7">
+      <c r="X285" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20173,7 +20176,7 @@
       <c r="W286" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X286" s="7">
+      <c r="X286" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20188,7 +20191,7 @@
       <c r="W287" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X287" s="7">
+      <c r="X287" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20203,7 +20206,7 @@
       <c r="W288" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X288" s="7">
+      <c r="X288" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20218,7 +20221,7 @@
       <c r="W289" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X289" s="7">
+      <c r="X289" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20233,7 +20236,7 @@
       <c r="W290" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X290" s="7">
+      <c r="X290" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20248,7 +20251,7 @@
       <c r="W291" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X291" s="7">
+      <c r="X291" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20263,7 +20266,7 @@
       <c r="W292" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X292" s="7">
+      <c r="X292" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20278,7 +20281,7 @@
       <c r="W293" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X293" s="7">
+      <c r="X293" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20293,7 +20296,7 @@
       <c r="W294" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X294" s="7">
+      <c r="X294" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20308,7 +20311,7 @@
       <c r="W295" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X295" s="7">
+      <c r="X295" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20323,7 +20326,7 @@
       <c r="W296" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X296" s="7">
+      <c r="X296" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20338,7 +20341,7 @@
       <c r="W297" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X297" s="7">
+      <c r="X297" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20353,7 +20356,7 @@
       <c r="W298" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X298" s="7">
+      <c r="X298" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20368,7 +20371,7 @@
       <c r="W299" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X299" s="7">
+      <c r="X299" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20383,7 +20386,7 @@
       <c r="W300" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X300" s="7">
+      <c r="X300" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20398,7 +20401,7 @@
       <c r="W301" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X301" s="7">
+      <c r="X301" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20413,7 +20416,7 @@
       <c r="W302" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X302" s="7">
+      <c r="X302" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20428,7 +20431,7 @@
       <c r="W303" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X303" s="7">
+      <c r="X303" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20443,7 +20446,7 @@
       <c r="W304" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X304" s="7">
+      <c r="X304" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20458,7 +20461,7 @@
       <c r="W305" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X305" s="7">
+      <c r="X305" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20473,7 +20476,7 @@
       <c r="W306" s="2">
         <v>-0.74131400000000003</v>
       </c>
-      <c r="X306" s="7">
+      <c r="X306" s="6">
         <f t="shared" si="4"/>
         <v>0.14263300000000001</v>
       </c>
@@ -20488,7 +20491,7 @@
       <c r="W307" s="2">
         <v>-0.46571099999999999</v>
       </c>
-      <c r="X307" s="7">
+      <c r="X307" s="6">
         <f t="shared" si="4"/>
         <v>2.7754999999999974E-2</v>
       </c>
@@ -20503,7 +20506,7 @@
       <c r="W308" s="2">
         <v>-0.51639299999999999</v>
       </c>
-      <c r="X308" s="7">
+      <c r="X308" s="6">
         <f t="shared" si="4"/>
         <v>2.8500999999999999E-2</v>
       </c>
@@ -20518,7 +20521,7 @@
       <c r="W309" s="2">
         <v>-0.11595999999999999</v>
       </c>
-      <c r="X309" s="7">
+      <c r="X309" s="6">
         <f t="shared" si="4"/>
         <v>-6.3336000000000017E-2</v>
       </c>
@@ -20533,7 +20536,7 @@
       <c r="W310" s="2">
         <v>-0.46199200000000001</v>
       </c>
-      <c r="X310" s="7">
+      <c r="X310" s="6">
         <f t="shared" si="4"/>
         <v>4.6194999999999986E-2</v>
       </c>
@@ -20548,7 +20551,7 @@
       <c r="W311" s="2">
         <v>-9.4960199999999995E-2</v>
       </c>
-      <c r="X311" s="7">
+      <c r="X311" s="6">
         <f t="shared" si="4"/>
         <v>-0.52116380000000007</v>
       </c>
@@ -20563,7 +20566,7 @@
       <c r="W312" s="2">
         <v>-0.47424100000000002</v>
       </c>
-      <c r="X312" s="7">
+      <c r="X312" s="6">
         <f t="shared" si="4"/>
         <v>-1.9547689999999998</v>
       </c>
@@ -20578,7 +20581,7 @@
       <c r="W313" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X313" s="7">
+      <c r="X313" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20593,7 +20596,7 @@
       <c r="W314" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X314" s="7">
+      <c r="X314" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20608,7 +20611,7 @@
       <c r="W315" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X315" s="7">
+      <c r="X315" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20623,7 +20626,7 @@
       <c r="W316" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X316" s="7">
+      <c r="X316" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20638,7 +20641,7 @@
       <c r="W317" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X317" s="7">
+      <c r="X317" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20653,7 +20656,7 @@
       <c r="W318" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X318" s="7">
+      <c r="X318" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20668,7 +20671,7 @@
       <c r="W319" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X319" s="7">
+      <c r="X319" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20683,7 +20686,7 @@
       <c r="W320" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X320" s="7">
+      <c r="X320" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20698,7 +20701,7 @@
       <c r="W321" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X321" s="7">
+      <c r="X321" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20713,7 +20716,7 @@
       <c r="W322" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X322" s="7">
+      <c r="X322" s="6">
         <f t="shared" si="4"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20728,7 +20731,7 @@
       <c r="W323" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X323" s="7">
+      <c r="X323" s="6">
         <f t="shared" ref="X323:X386" si="5">V323-W323</f>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20743,7 +20746,7 @@
       <c r="W324" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X324" s="7">
+      <c r="X324" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20758,7 +20761,7 @@
       <c r="W325" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X325" s="7">
+      <c r="X325" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20773,7 +20776,7 @@
       <c r="W326" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X326" s="7">
+      <c r="X326" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20788,7 +20791,7 @@
       <c r="W327" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X327" s="7">
+      <c r="X327" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20803,7 +20806,7 @@
       <c r="W328" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X328" s="7">
+      <c r="X328" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20818,7 +20821,7 @@
       <c r="W329" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X329" s="7">
+      <c r="X329" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20833,7 +20836,7 @@
       <c r="W330" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X330" s="7">
+      <c r="X330" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20848,7 +20851,7 @@
       <c r="W331" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X331" s="7">
+      <c r="X331" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20863,7 +20866,7 @@
       <c r="W332" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X332" s="7">
+      <c r="X332" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20878,7 +20881,7 @@
       <c r="W333" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X333" s="7">
+      <c r="X333" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20893,7 +20896,7 @@
       <c r="W334" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X334" s="7">
+      <c r="X334" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20908,7 +20911,7 @@
       <c r="W335" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X335" s="7">
+      <c r="X335" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20923,7 +20926,7 @@
       <c r="W336" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X336" s="7">
+      <c r="X336" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20938,7 +20941,7 @@
       <c r="W337" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X337" s="7">
+      <c r="X337" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20953,7 +20956,7 @@
       <c r="W338" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X338" s="7">
+      <c r="X338" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -20968,7 +20971,7 @@
       <c r="W339" s="2">
         <v>-0.40718300000000002</v>
       </c>
-      <c r="X339" s="7">
+      <c r="X339" s="6">
         <f t="shared" si="5"/>
         <v>-0.11551899999999998</v>
       </c>
@@ -20983,7 +20986,7 @@
       <c r="W340" s="2">
         <v>-0.47406199999999998</v>
       </c>
-      <c r="X340" s="7">
+      <c r="X340" s="6">
         <f t="shared" si="5"/>
         <v>4.1314999999999991E-2</v>
       </c>
@@ -20998,7 +21001,7 @@
       <c r="W341" s="2">
         <v>-0.20511199999999999</v>
       </c>
-      <c r="X341" s="7">
+      <c r="X341" s="6">
         <f t="shared" si="5"/>
         <v>-9.616700000000003E-2</v>
       </c>
@@ -21013,7 +21016,7 @@
       <c r="W342" s="2">
         <v>-0.46531699999999998</v>
       </c>
-      <c r="X342" s="7">
+      <c r="X342" s="6">
         <f t="shared" si="5"/>
         <v>6.6184999999999994E-2</v>
       </c>
@@ -21028,7 +21031,7 @@
       <c r="W343" s="2">
         <v>-0.51220299999999996</v>
       </c>
-      <c r="X343" s="7">
+      <c r="X343" s="6">
         <f t="shared" si="5"/>
         <v>-8.5800000000002541E-4</v>
       </c>
@@ -21043,7 +21046,7 @@
       <c r="W344" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X344" s="7">
+      <c r="X344" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -21058,7 +21061,7 @@
       <c r="W345" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X345" s="7">
+      <c r="X345" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -21073,7 +21076,7 @@
       <c r="W346" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X346" s="7">
+      <c r="X346" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -21088,7 +21091,7 @@
       <c r="W347" s="2">
         <v>-0.25127500000000003</v>
       </c>
-      <c r="X347" s="7">
+      <c r="X347" s="6">
         <f t="shared" si="5"/>
         <v>-7.9537999999999998E-2</v>
       </c>
@@ -21103,7 +21106,7 @@
       <c r="W348" s="2">
         <v>-0.43335600000000002</v>
       </c>
-      <c r="X348" s="7">
+      <c r="X348" s="6">
         <f t="shared" si="5"/>
         <v>-3.4036999999999984E-2</v>
       </c>
@@ -21118,7 +21121,7 @@
       <c r="W349" s="2">
         <v>-0.17508000000000001</v>
       </c>
-      <c r="X349" s="7">
+      <c r="X349" s="6">
         <f t="shared" si="5"/>
         <v>-0.117261</v>
       </c>
@@ -21133,7 +21136,7 @@
       <c r="W350" s="2">
         <v>-0.34176000000000001</v>
       </c>
-      <c r="X350" s="7">
+      <c r="X350" s="6">
         <f t="shared" si="5"/>
         <v>-8.1322000000000005E-2</v>
       </c>
@@ -21148,7 +21151,7 @@
       <c r="W351" s="2">
         <v>1.3960800000000001E-2</v>
       </c>
-      <c r="X351" s="7">
+      <c r="X351" s="6">
         <f t="shared" si="5"/>
         <v>-0.20914379999999999</v>
       </c>
@@ -21163,7 +21166,7 @@
       <c r="W352" s="2">
         <v>-0.43936700000000001</v>
       </c>
-      <c r="X352" s="7">
+      <c r="X352" s="6">
         <f t="shared" si="5"/>
         <v>9.9959999999999993E-2</v>
       </c>
@@ -21178,7 +21181,7 @@
       <c r="W353" s="2">
         <v>-0.52159100000000003</v>
       </c>
-      <c r="X353" s="7">
+      <c r="X353" s="6">
         <f t="shared" si="5"/>
         <v>1.4701000000000075E-2</v>
       </c>
@@ -21193,7 +21196,7 @@
       <c r="W354" s="2">
         <v>-0.49260500000000002</v>
       </c>
-      <c r="X354" s="7">
+      <c r="X354" s="6">
         <f t="shared" si="5"/>
         <v>5.7340000000000002E-2</v>
       </c>
@@ -21208,7 +21211,7 @@
       <c r="W355" s="2">
         <v>-0.294686</v>
       </c>
-      <c r="X355" s="7">
+      <c r="X355" s="6">
         <f t="shared" si="5"/>
         <v>-3.1741000000000019E-2</v>
       </c>
@@ -21223,7 +21226,7 @@
       <c r="W356" s="2">
         <v>-0.16533600000000001</v>
       </c>
-      <c r="X356" s="7">
+      <c r="X356" s="6">
         <f t="shared" si="5"/>
         <v>-0.28549800000000003</v>
       </c>
@@ -21238,7 +21241,7 @@
       <c r="W357" s="2">
         <v>-0.49851400000000001</v>
       </c>
-      <c r="X357" s="7">
+      <c r="X357" s="6">
         <f t="shared" si="5"/>
         <v>3.0527000000000026E-2</v>
       </c>
@@ -21253,7 +21256,7 @@
       <c r="W358" s="2">
         <v>-0.70076400000000005</v>
       </c>
-      <c r="X358" s="7">
+      <c r="X358" s="6">
         <f t="shared" si="5"/>
         <v>-0.56427599999999989</v>
       </c>
@@ -21268,7 +21271,7 @@
       <c r="W359" s="2">
         <v>-0.52000400000000002</v>
       </c>
-      <c r="X359" s="7">
+      <c r="X359" s="6">
         <f t="shared" si="5"/>
         <v>2.0286000000000026E-2</v>
       </c>
@@ -21283,7 +21286,7 @@
       <c r="W360" s="2">
         <v>-0.374359</v>
       </c>
-      <c r="X360" s="7">
+      <c r="X360" s="6">
         <f t="shared" si="5"/>
         <v>-6.4749000000000001E-2</v>
       </c>
@@ -21298,7 +21301,7 @@
       <c r="W361" s="2">
         <v>-0.40808100000000003</v>
       </c>
-      <c r="X361" s="7">
+      <c r="X361" s="6">
         <f t="shared" si="5"/>
         <v>7.9750000000000099E-3</v>
       </c>
@@ -21313,7 +21316,7 @@
       <c r="W362" s="2">
         <v>-0.339918</v>
       </c>
-      <c r="X362" s="7">
+      <c r="X362" s="6">
         <f t="shared" si="5"/>
         <v>-0.10529300000000003</v>
       </c>
@@ -21328,7 +21331,7 @@
       <c r="W363" s="2">
         <v>-0.564357</v>
       </c>
-      <c r="X363" s="7">
+      <c r="X363" s="6">
         <f t="shared" si="5"/>
         <v>3.9216999999999946E-2</v>
       </c>
@@ -21343,7 +21346,7 @@
       <c r="W364" s="2">
         <v>-0.97016599999999997</v>
       </c>
-      <c r="X364" s="7">
+      <c r="X364" s="6">
         <f t="shared" si="5"/>
         <v>0.25285499999999994</v>
       </c>
@@ -21358,7 +21361,7 @@
       <c r="W365" s="2">
         <v>-0.49409999999999998</v>
       </c>
-      <c r="X365" s="7">
+      <c r="X365" s="6">
         <f t="shared" si="5"/>
         <v>-2.4329999999999963E-2</v>
       </c>
@@ -21373,7 +21376,7 @@
       <c r="W366" s="2">
         <v>-0.428207</v>
       </c>
-      <c r="X366" s="7">
+      <c r="X366" s="6">
         <f t="shared" si="5"/>
         <v>-0.12129699999999999</v>
       </c>
@@ -21388,7 +21391,7 @@
       <c r="W367" s="2">
         <v>-0.70225700000000002</v>
       </c>
-      <c r="X367" s="7">
+      <c r="X367" s="6">
         <f t="shared" si="5"/>
         <v>6.1738999999999988E-2</v>
       </c>
@@ -21403,7 +21406,7 @@
       <c r="W368" s="2">
         <v>-0.88593</v>
       </c>
-      <c r="X368" s="7">
+      <c r="X368" s="6">
         <f t="shared" si="5"/>
         <v>0.26126000000000005</v>
       </c>
@@ -21418,7 +21421,7 @@
       <c r="W369" s="2">
         <v>-0.41391800000000001</v>
       </c>
-      <c r="X369" s="7">
+      <c r="X369" s="6">
         <f t="shared" si="5"/>
         <v>-0.78376200000000007</v>
       </c>
@@ -21433,7 +21436,7 @@
       <c r="W370" s="2">
         <v>-0.55394500000000002</v>
       </c>
-      <c r="X370" s="7">
+      <c r="X370" s="6">
         <f t="shared" si="5"/>
         <v>-0.43740299999999999</v>
       </c>
@@ -21448,7 +21451,7 @@
       <c r="W371" s="2">
         <v>-0.52317100000000005</v>
       </c>
-      <c r="X371" s="7">
+      <c r="X371" s="6">
         <f t="shared" si="5"/>
         <v>6.3066000000000066E-2</v>
       </c>
@@ -21463,7 +21466,7 @@
       <c r="W372" s="2">
         <v>-0.43968499999999999</v>
       </c>
-      <c r="X372" s="7">
+      <c r="X372" s="6">
         <f t="shared" si="5"/>
         <v>6.4531000000000005E-2</v>
       </c>
@@ -21478,7 +21481,7 @@
       <c r="W373" s="2">
         <v>-0.413387</v>
       </c>
-      <c r="X373" s="7">
+      <c r="X373" s="6">
         <f t="shared" si="5"/>
         <v>-6.6809999999999925E-3</v>
       </c>
@@ -21493,7 +21496,7 @@
       <c r="W374" s="2">
         <v>-0.58009299999999997</v>
       </c>
-      <c r="X374" s="7">
+      <c r="X374" s="6">
         <f t="shared" si="5"/>
         <v>-0.28947299999999998</v>
       </c>
@@ -21508,7 +21511,7 @@
       <c r="W375" s="2">
         <v>-0.47472599999999998</v>
       </c>
-      <c r="X375" s="7">
+      <c r="X375" s="6">
         <f t="shared" si="5"/>
         <v>0.10400799999999999</v>
       </c>
@@ -21523,7 +21526,7 @@
       <c r="W376" s="2">
         <v>-0.58221800000000001</v>
       </c>
-      <c r="X376" s="7">
+      <c r="X376" s="6">
         <f t="shared" si="5"/>
         <v>7.6580000000000537E-3</v>
       </c>
@@ -21538,7 +21541,7 @@
       <c r="W377" s="2">
         <v>-0.56600499999999998</v>
       </c>
-      <c r="X377" s="7">
+      <c r="X377" s="6">
         <f t="shared" si="5"/>
         <v>5.2470000000000017E-3</v>
       </c>
@@ -21553,7 +21556,7 @@
       <c r="W378" s="2">
         <v>-0.35056900000000002</v>
       </c>
-      <c r="X378" s="7">
+      <c r="X378" s="6">
         <f t="shared" si="5"/>
         <v>-7.1689999999999809E-3</v>
       </c>
@@ -21568,7 +21571,7 @@
       <c r="W379" s="2">
         <v>-0.50946100000000005</v>
       </c>
-      <c r="X379" s="7">
+      <c r="X379" s="6">
         <f t="shared" si="5"/>
         <v>1.5929000000000026E-2</v>
       </c>
@@ -21583,7 +21586,7 @@
       <c r="W380" s="2">
         <v>-0.537767</v>
       </c>
-      <c r="X380" s="7">
+      <c r="X380" s="6">
         <f t="shared" si="5"/>
         <v>3.0398999999999954E-2</v>
       </c>
@@ -21598,7 +21601,7 @@
       <c r="W381" s="2">
         <v>-0.478603</v>
       </c>
-      <c r="X381" s="7">
+      <c r="X381" s="6">
         <f t="shared" si="5"/>
         <v>-3.5656000000000021E-2</v>
       </c>
@@ -21613,7 +21616,7 @@
       <c r="W382" s="2">
         <v>-0.409472</v>
       </c>
-      <c r="X382" s="7">
+      <c r="X382" s="6">
         <f t="shared" si="5"/>
         <v>1.3045000000000029E-2</v>
       </c>
@@ -21628,7 +21631,7 @@
       <c r="W383" s="2">
         <v>-0.56090300000000004</v>
       </c>
-      <c r="X383" s="7">
+      <c r="X383" s="6">
         <f t="shared" si="5"/>
         <v>5.1135000000000042E-2</v>
       </c>
@@ -21643,7 +21646,7 @@
       <c r="W384" s="2">
         <v>-0.41173399999999999</v>
       </c>
-      <c r="X384" s="7">
+      <c r="X384" s="6">
         <f t="shared" si="5"/>
         <v>-7.0240000000000302E-3</v>
       </c>
@@ -21658,7 +21661,7 @@
       <c r="W385" s="2">
         <v>-0.50963199999999997</v>
       </c>
-      <c r="X385" s="7">
+      <c r="X385" s="6">
         <f t="shared" si="5"/>
         <v>0.16824099999999997</v>
       </c>
@@ -21673,7 +21676,7 @@
       <c r="W386" s="2">
         <v>-0.19273999999999999</v>
       </c>
-      <c r="X386" s="7">
+      <c r="X386" s="6">
         <f t="shared" si="5"/>
         <v>-0.11741700000000002</v>
       </c>
@@ -21688,7 +21691,7 @@
       <c r="W387" s="2">
         <v>-0.47236800000000001</v>
       </c>
-      <c r="X387" s="7">
+      <c r="X387" s="6">
         <f t="shared" ref="X387:X450" si="6">V387-W387</f>
         <v>-1.0245999999999977E-2</v>
       </c>
@@ -21703,7 +21706,7 @@
       <c r="W388" s="2">
         <v>-0.399364</v>
       </c>
-      <c r="X388" s="7">
+      <c r="X388" s="6">
         <f t="shared" si="6"/>
         <v>-3.8414000000000004E-2</v>
       </c>
@@ -21718,7 +21721,7 @@
       <c r="W389" s="2">
         <v>-0.36478899999999997</v>
       </c>
-      <c r="X389" s="7">
+      <c r="X389" s="6">
         <f t="shared" si="6"/>
         <v>-8.3576000000000039E-2</v>
       </c>
@@ -21733,7 +21736,7 @@
       <c r="W390" s="2">
         <v>-0.40808</v>
       </c>
-      <c r="X390" s="7">
+      <c r="X390" s="6">
         <f t="shared" si="6"/>
         <v>-4.0463000000000027E-2</v>
       </c>
@@ -21748,7 +21751,7 @@
       <c r="W391" s="2">
         <v>-0.518876</v>
       </c>
-      <c r="X391" s="7">
+      <c r="X391" s="6">
         <f t="shared" si="6"/>
         <v>-6.3965999999999967E-2</v>
       </c>
@@ -21763,7 +21766,7 @@
       <c r="W392" s="2">
         <v>-0.40978500000000001</v>
       </c>
-      <c r="X392" s="7">
+      <c r="X392" s="6">
         <f t="shared" si="6"/>
         <v>7.2578000000000031E-2</v>
       </c>
@@ -21778,7 +21781,7 @@
       <c r="W393" s="2">
         <v>-0.51661599999999996</v>
       </c>
-      <c r="X393" s="7">
+      <c r="X393" s="6">
         <f t="shared" si="6"/>
         <v>-2.2872000000000003E-2</v>
       </c>
@@ -21793,7 +21796,7 @@
       <c r="W394" s="2">
         <v>-0.53657699999999997</v>
       </c>
-      <c r="X394" s="7">
+      <c r="X394" s="6">
         <f t="shared" si="6"/>
         <v>-0.23377500000000007</v>
       </c>
@@ -21808,7 +21811,7 @@
       <c r="W395" s="2">
         <v>-0.46730100000000002</v>
       </c>
-      <c r="X395" s="7">
+      <c r="X395" s="6">
         <f t="shared" si="6"/>
         <v>-0.22929799999999995</v>
       </c>
@@ -21823,7 +21826,7 @@
       <c r="W396" s="2">
         <v>-0.44397700000000001</v>
       </c>
-      <c r="X396" s="7">
+      <c r="X396" s="6">
         <f t="shared" si="6"/>
         <v>-0.15098300000000003</v>
       </c>
@@ -21838,7 +21841,7 @@
       <c r="W397" s="2">
         <v>-0.59688600000000003</v>
       </c>
-      <c r="X397" s="7">
+      <c r="X397" s="6">
         <f t="shared" si="6"/>
         <v>-0.10880599999999996</v>
       </c>
@@ -21853,7 +21856,7 @@
       <c r="W398" s="2">
         <v>-1.22278</v>
       </c>
-      <c r="X398" s="7">
+      <c r="X398" s="6">
         <f t="shared" si="6"/>
         <v>0.16976999999999998</v>
       </c>
@@ -21868,7 +21871,7 @@
       <c r="W399" s="2">
         <v>-0.49639699999999998</v>
       </c>
-      <c r="X399" s="7">
+      <c r="X399" s="6">
         <f t="shared" si="6"/>
         <v>1.6376000000000002E-2</v>
       </c>
@@ -21883,7 +21886,7 @@
       <c r="W400" s="2">
         <v>-0.54577100000000001</v>
       </c>
-      <c r="X400" s="7">
+      <c r="X400" s="6">
         <f t="shared" si="6"/>
         <v>-0.20761399999999997</v>
       </c>
@@ -21898,7 +21901,7 @@
       <c r="W401" s="2">
         <v>-0.305782</v>
       </c>
-      <c r="X401" s="7">
+      <c r="X401" s="6">
         <f t="shared" si="6"/>
         <v>-0.12886700000000001</v>
       </c>
@@ -21913,7 +21916,7 @@
       <c r="W402" s="2">
         <v>-0.60702100000000003</v>
       </c>
-      <c r="X402" s="7">
+      <c r="X402" s="6">
         <f t="shared" si="6"/>
         <v>7.0021E-2</v>
       </c>
@@ -21928,7 +21931,7 @@
       <c r="W403" s="2">
         <v>-0.92795300000000003</v>
       </c>
-      <c r="X403" s="7">
+      <c r="X403" s="6">
         <f t="shared" si="6"/>
         <v>0.26818799999999998</v>
       </c>
@@ -21943,7 +21946,7 @@
       <c r="W404" s="2">
         <v>-0.48977300000000001</v>
       </c>
-      <c r="X404" s="7">
+      <c r="X404" s="6">
         <f t="shared" si="6"/>
         <v>-1.9329000000000041E-2</v>
       </c>
@@ -21958,7 +21961,7 @@
       <c r="W405" s="2">
         <v>-0.45303500000000002</v>
       </c>
-      <c r="X405" s="7">
+      <c r="X405" s="6">
         <f t="shared" si="6"/>
         <v>-0.61447499999999988</v>
       </c>
@@ -21973,7 +21976,7 @@
       <c r="W406" s="2">
         <v>-0.63590000000000002</v>
       </c>
-      <c r="X406" s="7">
+      <c r="X406" s="6">
         <f t="shared" si="6"/>
         <v>0.12214500000000006</v>
       </c>
@@ -21988,7 +21991,7 @@
       <c r="W407" s="2">
         <v>-0.48208099999999998</v>
       </c>
-      <c r="X407" s="7">
+      <c r="X407" s="6">
         <f t="shared" si="6"/>
         <v>-0.12696499999999999</v>
       </c>
@@ -22003,7 +22006,7 @@
       <c r="W408" s="2">
         <v>-0.78516399999999997</v>
       </c>
-      <c r="X408" s="7">
+      <c r="X408" s="6">
         <f t="shared" si="6"/>
         <v>0.29413099999999998</v>
       </c>
@@ -22018,7 +22021,7 @@
       <c r="W409" s="2">
         <v>-0.56834600000000002</v>
       </c>
-      <c r="X409" s="7">
+      <c r="X409" s="6">
         <f t="shared" si="6"/>
         <v>-0.12689499999999998</v>
       </c>
@@ -22033,7 +22036,7 @@
       <c r="W410" s="2">
         <v>-0.92508199999999996</v>
       </c>
-      <c r="X410" s="7">
+      <c r="X410" s="6">
         <f t="shared" si="6"/>
         <v>-0.30561799999999995</v>
       </c>
@@ -22048,7 +22051,7 @@
       <c r="W411" s="2">
         <v>-0.885073</v>
       </c>
-      <c r="X411" s="7">
+      <c r="X411" s="6">
         <f t="shared" si="6"/>
         <v>7.9960000000000031E-3</v>
       </c>
@@ -22063,7 +22066,7 @@
       <c r="W412" s="2">
         <v>-0.67532999999999999</v>
       </c>
-      <c r="X412" s="7">
+      <c r="X412" s="6">
         <f t="shared" si="6"/>
         <v>-0.14088400000000001</v>
       </c>
@@ -22078,7 +22081,7 @@
       <c r="W413" s="2">
         <v>-0.52216499999999999</v>
       </c>
-      <c r="X413" s="7">
+      <c r="X413" s="6">
         <f t="shared" si="6"/>
         <v>-7.6932E-2</v>
       </c>
@@ -22093,7 +22096,7 @@
       <c r="W414" s="2">
         <v>-1.14039</v>
       </c>
-      <c r="X414" s="7">
+      <c r="X414" s="6">
         <f t="shared" si="6"/>
         <v>0.46364700000000003</v>
       </c>
@@ -22108,7 +22111,7 @@
       <c r="W415" s="2">
         <v>-0.52564100000000002</v>
       </c>
-      <c r="X415" s="7">
+      <c r="X415" s="6">
         <f t="shared" si="6"/>
         <v>-0.17074099999999992</v>
       </c>
@@ -22123,7 +22126,7 @@
       <c r="W416" s="2">
         <v>-0.52030600000000005</v>
       </c>
-      <c r="X416" s="7">
+      <c r="X416" s="6">
         <f t="shared" si="6"/>
         <v>-0.10300199999999993</v>
       </c>
@@ -22138,7 +22141,7 @@
       <c r="W417" s="2">
         <v>-0.47521400000000003</v>
       </c>
-      <c r="X417" s="7">
+      <c r="X417" s="6">
         <f t="shared" si="6"/>
         <v>0.27295400000000003</v>
       </c>
@@ -22153,7 +22156,7 @@
       <c r="W418" s="2">
         <v>-0.459951</v>
       </c>
-      <c r="X418" s="7">
+      <c r="X418" s="6">
         <f t="shared" si="6"/>
         <v>-6.7385000000000028E-2</v>
       </c>
@@ -22168,7 +22171,7 @@
       <c r="W419" s="2">
         <v>-0.54529300000000003</v>
       </c>
-      <c r="X419" s="7">
+      <c r="X419" s="6">
         <f t="shared" si="6"/>
         <v>0.12724600000000003</v>
       </c>
@@ -22183,7 +22186,7 @@
       <c r="W420" s="2">
         <v>-0.55928900000000004</v>
       </c>
-      <c r="X420" s="7">
+      <c r="X420" s="6">
         <f t="shared" si="6"/>
         <v>4.1583000000000037E-2</v>
       </c>
@@ -22198,7 +22201,7 @@
       <c r="W421" s="2">
         <v>-0.73061900000000002</v>
       </c>
-      <c r="X421" s="7">
+      <c r="X421" s="6">
         <f t="shared" si="6"/>
         <v>-0.28608099999999992</v>
       </c>
@@ -22213,7 +22216,7 @@
       <c r="W422" s="2">
         <v>-0.54583499999999996</v>
       </c>
-      <c r="X422" s="7">
+      <c r="X422" s="6">
         <f t="shared" si="6"/>
         <v>1.6669999999999963E-2</v>
       </c>
@@ -22228,7 +22231,7 @@
       <c r="W423" s="2">
         <v>-0.75834999999999997</v>
       </c>
-      <c r="X423" s="7">
+      <c r="X423" s="6">
         <f t="shared" si="6"/>
         <v>0.28053099999999997</v>
       </c>
@@ -22243,7 +22246,7 @@
       <c r="W424" s="2">
         <v>-1.09781</v>
       </c>
-      <c r="X424" s="7">
+      <c r="X424" s="6">
         <f t="shared" si="6"/>
         <v>0.37142500000000001</v>
       </c>
@@ -22258,7 +22261,7 @@
       <c r="W425" s="2">
         <v>-0.156498</v>
       </c>
-      <c r="X425" s="7">
+      <c r="X425" s="6">
         <f t="shared" si="6"/>
         <v>-0.22733899999999999</v>
       </c>
@@ -22273,7 +22276,7 @@
       <c r="W426" s="2">
         <v>-0.83389599999999997</v>
       </c>
-      <c r="X426" s="7">
+      <c r="X426" s="6">
         <f t="shared" si="6"/>
         <v>-0.15244000000000002</v>
       </c>
@@ -22288,7 +22291,7 @@
       <c r="W427" s="2">
         <v>-0.56613400000000003</v>
       </c>
-      <c r="X427" s="7">
+      <c r="X427" s="6">
         <f t="shared" si="6"/>
         <v>0.11411900000000003</v>
       </c>
@@ -22303,7 +22306,7 @@
       <c r="W428" s="2">
         <v>-0.52886900000000003</v>
       </c>
-      <c r="X428" s="7">
+      <c r="X428" s="6">
         <f t="shared" si="6"/>
         <v>-0.15289900000000001</v>
       </c>
@@ -22318,7 +22321,7 @@
       <c r="W429" s="2">
         <v>-0.51917899999999995</v>
       </c>
-      <c r="X429" s="7">
+      <c r="X429" s="6">
         <f t="shared" si="6"/>
         <v>0.10093999999999992</v>
       </c>
@@ -22333,7 +22336,7 @@
       <c r="W430" s="2">
         <v>-0.51783599999999996</v>
       </c>
-      <c r="X430" s="7">
+      <c r="X430" s="6">
         <f t="shared" si="6"/>
         <v>-8.4146000000000054E-2</v>
       </c>
@@ -22348,7 +22351,7 @@
       <c r="W431" s="2">
         <v>-0.51221799999999995</v>
       </c>
-      <c r="X431" s="7">
+      <c r="X431" s="6">
         <f t="shared" si="6"/>
         <v>0.21696899999999997</v>
       </c>
@@ -22363,7 +22366,7 @@
       <c r="W432" s="2">
         <v>-0.76709400000000005</v>
       </c>
-      <c r="X432" s="7">
+      <c r="X432" s="6">
         <f t="shared" si="6"/>
         <v>0.31852900000000006</v>
       </c>
@@ -22378,7 +22381,7 @@
       <c r="W433" s="2">
         <v>-0.62520200000000004</v>
       </c>
-      <c r="X433" s="7">
+      <c r="X433" s="6">
         <f t="shared" si="6"/>
         <v>-0.49127799999999988</v>
       </c>
@@ -22393,7 +22396,7 @@
       <c r="W434" s="2">
         <v>-0.57905399999999996</v>
       </c>
-      <c r="X434" s="7">
+      <c r="X434" s="6">
         <f t="shared" si="6"/>
         <v>-0.216978</v>
       </c>
@@ -22408,7 +22411,7 @@
       <c r="W435" s="2">
         <v>-0.68948500000000001</v>
       </c>
-      <c r="X435" s="7">
+      <c r="X435" s="6">
         <f t="shared" si="6"/>
         <v>-0.15337100000000004</v>
       </c>
@@ -22423,7 +22426,7 @@
       <c r="W436" s="2">
         <v>-0.49956</v>
       </c>
-      <c r="X436" s="7">
+      <c r="X436" s="6">
         <f t="shared" si="6"/>
         <v>9.1335E-2</v>
       </c>
@@ -22438,7 +22441,7 @@
       <c r="W437" s="2">
         <v>-0.548153</v>
       </c>
-      <c r="X437" s="7">
+      <c r="X437" s="6">
         <f t="shared" si="6"/>
         <v>3.2820000000000071E-3</v>
       </c>
@@ -22453,7 +22456,7 @@
       <c r="W438" s="2">
         <v>-0.47861300000000001</v>
       </c>
-      <c r="X438" s="7">
+      <c r="X438" s="6">
         <f t="shared" si="6"/>
         <v>2.4512000000000034E-2</v>
       </c>
@@ -22468,7 +22471,7 @@
       <c r="W439" s="2">
         <v>-0.57806100000000005</v>
       </c>
-      <c r="X439" s="7">
+      <c r="X439" s="6">
         <f t="shared" si="6"/>
         <v>-0.58156899999999989</v>
       </c>
@@ -22483,7 +22486,7 @@
       <c r="W440" s="2">
         <v>-0.77026700000000003</v>
       </c>
-      <c r="X440" s="7">
+      <c r="X440" s="6">
         <f t="shared" si="6"/>
         <v>0.21442300000000003</v>
       </c>
@@ -22498,7 +22501,7 @@
       <c r="W441" s="2">
         <v>-0.53544899999999995</v>
       </c>
-      <c r="X441" s="7">
+      <c r="X441" s="6">
         <f t="shared" si="6"/>
         <v>2.0181999999999922E-2</v>
       </c>
@@ -22513,7 +22516,7 @@
       <c r="W442" s="2">
         <v>-0.54423999999999995</v>
       </c>
-      <c r="X442" s="7">
+      <c r="X442" s="6">
         <f t="shared" si="6"/>
         <v>-2.4409000000000014E-2</v>
       </c>
@@ -22528,7 +22531,7 @@
       <c r="W443" s="2">
         <v>-0.54368000000000005</v>
       </c>
-      <c r="X443" s="7">
+      <c r="X443" s="6">
         <f t="shared" si="6"/>
         <v>-3.545799999999999E-2</v>
       </c>
@@ -22543,7 +22546,7 @@
       <c r="W444" s="2">
         <v>-1.01766</v>
       </c>
-      <c r="X444" s="7">
+      <c r="X444" s="6">
         <f t="shared" si="6"/>
         <v>-3.0929999999999902E-2</v>
       </c>
@@ -22558,7 +22561,7 @@
       <c r="W445" s="2">
         <v>-0.45792500000000003</v>
       </c>
-      <c r="X445" s="7">
+      <c r="X445" s="6">
         <f t="shared" si="6"/>
         <v>2.8732000000000035E-2</v>
       </c>
@@ -22573,7 +22576,7 @@
       <c r="W446" s="2">
         <v>-0.51581100000000002</v>
       </c>
-      <c r="X446" s="7">
+      <c r="X446" s="6">
         <f t="shared" si="6"/>
         <v>0.14385600000000004</v>
       </c>
@@ -22588,7 +22591,7 @@
       <c r="W447" s="2">
         <v>-0.621977</v>
       </c>
-      <c r="X447" s="7">
+      <c r="X447" s="6">
         <f t="shared" si="6"/>
         <v>-0.49371300000000007</v>
       </c>
@@ -22603,7 +22606,7 @@
       <c r="W448" s="2">
         <v>-0.47877900000000001</v>
       </c>
-      <c r="X448" s="7">
+      <c r="X448" s="6">
         <f t="shared" si="6"/>
         <v>7.2050000000000169E-3</v>
       </c>
@@ -22618,7 +22621,7 @@
       <c r="W449" s="2">
         <v>-0.519764</v>
       </c>
-      <c r="X449" s="7">
+      <c r="X449" s="6">
         <f t="shared" si="6"/>
         <v>-5.3788999999999976E-2</v>
       </c>
@@ -22633,7 +22636,7 @@
       <c r="W450" s="2">
         <v>-0.55995399999999995</v>
       </c>
-      <c r="X450" s="7">
+      <c r="X450" s="6">
         <f t="shared" si="6"/>
         <v>-0.12273500000000004</v>
       </c>
@@ -22648,7 +22651,7 @@
       <c r="W451" s="2">
         <v>-0.53527999999999998</v>
       </c>
-      <c r="X451" s="7">
+      <c r="X451" s="6">
         <f t="shared" ref="X451:X514" si="7">V451-W451</f>
         <v>0.14270499999999997</v>
       </c>
@@ -22663,7 +22666,7 @@
       <c r="W452" s="2">
         <v>-0.54695700000000003</v>
       </c>
-      <c r="X452" s="7">
+      <c r="X452" s="6">
         <f t="shared" si="7"/>
         <v>4.8975000000000046E-2</v>
       </c>
@@ -22678,7 +22681,7 @@
       <c r="W453" s="2">
         <v>-0.60600200000000004</v>
       </c>
-      <c r="X453" s="7">
+      <c r="X453" s="6">
         <f t="shared" si="7"/>
         <v>-0.47930799999999996</v>
       </c>
@@ -22693,7 +22696,7 @@
       <c r="W454" s="2">
         <v>-0.59348000000000001</v>
       </c>
-      <c r="X454" s="7">
+      <c r="X454" s="6">
         <f t="shared" si="7"/>
         <v>0.11992700000000001</v>
       </c>
@@ -22708,7 +22711,7 @@
       <c r="W455" s="2">
         <v>-0.58948199999999995</v>
       </c>
-      <c r="X455" s="7">
+      <c r="X455" s="6">
         <f t="shared" si="7"/>
         <v>5.3639999999999244E-3</v>
       </c>
@@ -22723,7 +22726,7 @@
       <c r="W456" s="2">
         <v>-0.55511999999999995</v>
       </c>
-      <c r="X456" s="7">
+      <c r="X456" s="6">
         <f t="shared" si="7"/>
         <v>3.7158999999999942E-2</v>
       </c>
@@ -22738,7 +22741,7 @@
       <c r="W457" s="2">
         <v>-0.51363800000000004</v>
       </c>
-      <c r="X457" s="7">
+      <c r="X457" s="6">
         <f t="shared" si="7"/>
         <v>-2.7961000000000014E-2</v>
       </c>
@@ -22753,7 +22756,7 @@
       <c r="W458" s="2">
         <v>-0.569577</v>
       </c>
-      <c r="X458" s="7">
+      <c r="X458" s="6">
         <f t="shared" si="7"/>
         <v>-5.4790000000000116E-3</v>
       </c>
@@ -22768,7 +22771,7 @@
       <c r="W459" s="2">
         <v>-0.38624700000000001</v>
       </c>
-      <c r="X459" s="7">
+      <c r="X459" s="6">
         <f t="shared" si="7"/>
         <v>4.573900000000003E-2</v>
       </c>
@@ -22783,7 +22786,7 @@
       <c r="W460" s="2">
         <v>-0.88904799999999995</v>
       </c>
-      <c r="X460" s="7">
+      <c r="X460" s="6">
         <f t="shared" si="7"/>
         <v>5.9858999999999996E-2</v>
       </c>
@@ -22798,7 +22801,7 @@
       <c r="W461" s="2">
         <v>-0.57307600000000003</v>
       </c>
-      <c r="X461" s="7">
+      <c r="X461" s="6">
         <f t="shared" si="7"/>
         <v>-0.28210099999999994</v>
       </c>
@@ -22813,7 +22816,7 @@
       <c r="W462" s="2">
         <v>-0.70089100000000004</v>
       </c>
-      <c r="X462" s="7">
+      <c r="X462" s="6">
         <f t="shared" si="7"/>
         <v>-5.0869999999999527E-3</v>
       </c>
@@ -22828,7 +22831,7 @@
       <c r="W463" s="2">
         <v>-0.720279</v>
       </c>
-      <c r="X463" s="7">
+      <c r="X463" s="6">
         <f t="shared" si="7"/>
         <v>-0.42470100000000011</v>
       </c>
@@ -22843,7 +22846,7 @@
       <c r="W464" s="2">
         <v>-0.51600400000000002</v>
       </c>
-      <c r="X464" s="7">
+      <c r="X464" s="6">
         <f t="shared" si="7"/>
         <v>7.4101000000000028E-2</v>
       </c>
@@ -22858,7 +22861,7 @@
       <c r="W465" s="2">
         <v>-0.54087099999999999</v>
       </c>
-      <c r="X465" s="7">
+      <c r="X465" s="6">
         <f t="shared" si="7"/>
         <v>0.134299</v>
       </c>
@@ -22873,7 +22876,7 @@
       <c r="W466" s="2">
         <v>-0.47032600000000002</v>
       </c>
-      <c r="X466" s="7">
+      <c r="X466" s="6">
         <f t="shared" si="7"/>
         <v>0.17932600000000004</v>
       </c>
@@ -22888,7 +22891,7 @@
       <c r="W467" s="2">
         <v>-0.44964799999999999</v>
       </c>
-      <c r="X467" s="7">
+      <c r="X467" s="6">
         <f t="shared" si="7"/>
         <v>-8.6986999999999981E-2</v>
       </c>
@@ -22903,7 +22906,7 @@
       <c r="W468" s="2">
         <v>-0.5413</v>
       </c>
-      <c r="X468" s="7">
+      <c r="X468" s="6">
         <f t="shared" si="7"/>
         <v>-7.359300000000002E-2</v>
       </c>
@@ -22918,7 +22921,7 @@
       <c r="W469" s="2">
         <v>-0.54138699999999995</v>
       </c>
-      <c r="X469" s="7">
+      <c r="X469" s="6">
         <f t="shared" si="7"/>
         <v>6.6599999999994441E-4</v>
       </c>
@@ -22933,7 +22936,7 @@
       <c r="W470" s="2">
         <v>-0.60889700000000002</v>
       </c>
-      <c r="X470" s="7">
+      <c r="X470" s="6">
         <f t="shared" si="7"/>
         <v>-1.1159999999999948E-2</v>
       </c>
@@ -22948,7 +22951,7 @@
       <c r="W471" s="2">
         <v>-0.71174700000000002</v>
       </c>
-      <c r="X471" s="7">
+      <c r="X471" s="6">
         <f t="shared" si="7"/>
         <v>-8.3520000000000261E-3</v>
       </c>
@@ -22963,7 +22966,7 @@
       <c r="W472" s="2">
         <v>-0.50151999999999997</v>
       </c>
-      <c r="X472" s="7">
+      <c r="X472" s="6">
         <f t="shared" si="7"/>
         <v>-5.5238000000000009E-2</v>
       </c>
@@ -22978,7 +22981,7 @@
       <c r="W473" s="2">
         <v>-0.63356199999999996</v>
       </c>
-      <c r="X473" s="7">
+      <c r="X473" s="6">
         <f t="shared" si="7"/>
         <v>8.7549999999999573E-3</v>
       </c>
@@ -22993,7 +22996,7 @@
       <c r="W474" s="2">
         <v>-0.58105499999999999</v>
       </c>
-      <c r="X474" s="7">
+      <c r="X474" s="6">
         <f t="shared" si="7"/>
         <v>1.6421999999999937E-2</v>
       </c>
@@ -23008,7 +23011,7 @@
       <c r="W475" s="2">
         <v>-0.84543900000000005</v>
       </c>
-      <c r="X475" s="7">
+      <c r="X475" s="6">
         <f t="shared" si="7"/>
         <v>3.4564000000000039E-2</v>
       </c>
@@ -23023,7 +23026,7 @@
       <c r="W476" s="2">
         <v>-0.50841800000000004</v>
       </c>
-      <c r="X476" s="7">
+      <c r="X476" s="6">
         <f t="shared" si="7"/>
         <v>7.9191000000000011E-2</v>
       </c>
@@ -23038,7 +23041,7 @@
       <c r="W477" s="2">
         <v>-0.488396</v>
       </c>
-      <c r="X477" s="7">
+      <c r="X477" s="6">
         <f t="shared" si="7"/>
         <v>-5.7650000000000035E-2</v>
       </c>
@@ -23053,7 +23056,7 @@
       <c r="W478" s="2">
         <v>-0.43743399999999999</v>
       </c>
-      <c r="X478" s="7">
+      <c r="X478" s="6">
         <f t="shared" si="7"/>
         <v>-2.1050999999999986E-2</v>
       </c>
@@ -23068,7 +23071,7 @@
       <c r="W479" s="2">
         <v>-0.55621600000000004</v>
       </c>
-      <c r="X479" s="7">
+      <c r="X479" s="6">
         <f t="shared" si="7"/>
         <v>-8.6133999999999933E-2</v>
       </c>
@@ -23083,7 +23086,7 @@
       <c r="W480" s="2">
         <v>-0.197213</v>
       </c>
-      <c r="X480" s="7">
+      <c r="X480" s="6">
         <f t="shared" si="7"/>
         <v>-6.7878000000000022E-2</v>
       </c>
@@ -23098,7 +23101,7 @@
       <c r="W481" s="2">
         <v>-0.54813800000000001</v>
       </c>
-      <c r="X481" s="7">
+      <c r="X481" s="6">
         <f t="shared" si="7"/>
         <v>2.9615999999999976E-2</v>
       </c>
@@ -23113,7 +23116,7 @@
       <c r="W482" s="2">
         <v>-0.50473500000000004</v>
       </c>
-      <c r="X482" s="7">
+      <c r="X482" s="6">
         <f t="shared" si="7"/>
         <v>-8.8617999999999975E-2</v>
       </c>
@@ -23128,7 +23131,7 @@
       <c r="W483" s="2">
         <v>-0.250336</v>
       </c>
-      <c r="X483" s="7">
+      <c r="X483" s="6">
         <f t="shared" si="7"/>
         <v>0.16355320000000001</v>
       </c>
@@ -23143,7 +23146,7 @@
       <c r="W484" s="2">
         <v>-0.50781100000000001</v>
       </c>
-      <c r="X484" s="7">
+      <c r="X484" s="6">
         <f t="shared" si="7"/>
         <v>7.9145999999999994E-2</v>
       </c>
@@ -23158,7 +23161,7 @@
       <c r="W485" s="2">
         <v>-0.28814200000000001</v>
       </c>
-      <c r="X485" s="7">
+      <c r="X485" s="6">
         <f t="shared" si="7"/>
         <v>-0.58694000000000002</v>
       </c>
@@ -23173,7 +23176,7 @@
       <c r="W486" s="2">
         <v>-0.71276399999999995</v>
       </c>
-      <c r="X486" s="7">
+      <c r="X486" s="6">
         <f t="shared" si="7"/>
         <v>-0.2633890000000001</v>
       </c>
@@ -23188,7 +23191,7 @@
       <c r="W487" s="2">
         <v>-0.44658599999999998</v>
       </c>
-      <c r="X487" s="7">
+      <c r="X487" s="6">
         <f t="shared" si="7"/>
         <v>0.10838799999999998</v>
       </c>
@@ -23203,7 +23206,7 @@
       <c r="W488" s="2">
         <v>-0.516652</v>
       </c>
-      <c r="X488" s="7">
+      <c r="X488" s="6">
         <f t="shared" si="7"/>
         <v>-3.9355000000000029E-2</v>
       </c>
@@ -23218,7 +23221,7 @@
       <c r="W489" s="2">
         <v>-0.55288899999999996</v>
       </c>
-      <c r="X489" s="7">
+      <c r="X489" s="6">
         <f t="shared" si="7"/>
         <v>-2.5594000000000006E-2</v>
       </c>
@@ -23233,7 +23236,7 @@
       <c r="W490" s="2">
         <v>-0.57579499999999995</v>
       </c>
-      <c r="X490" s="7">
+      <c r="X490" s="6">
         <f t="shared" si="7"/>
         <v>0.27147799999999994</v>
       </c>
@@ -23248,7 +23251,7 @@
       <c r="W491" s="2">
         <v>-1.2459899999999999</v>
       </c>
-      <c r="X491" s="7">
+      <c r="X491" s="6">
         <f t="shared" si="7"/>
         <v>-0.22449000000000008</v>
       </c>
@@ -23263,7 +23266,7 @@
       <c r="W492" s="2">
         <v>-0.90137100000000003</v>
       </c>
-      <c r="X492" s="7">
+      <c r="X492" s="6">
         <f t="shared" si="7"/>
         <v>3.4837000000000007E-2</v>
       </c>
@@ -23278,7 +23281,7 @@
       <c r="W493" s="2">
         <v>-0.62445300000000004</v>
       </c>
-      <c r="X493" s="7">
+      <c r="X493" s="6">
         <f t="shared" si="7"/>
         <v>-9.4646000000000008E-2</v>
       </c>
@@ -23293,7 +23296,7 @@
       <c r="W494" s="2">
         <v>-0.27702100000000002</v>
       </c>
-      <c r="X494" s="7">
+      <c r="X494" s="6">
         <f t="shared" si="7"/>
         <v>0.20157710000000001</v>
       </c>
@@ -23308,7 +23311,7 @@
       <c r="W495" s="2">
         <v>-0.43165599999999998</v>
       </c>
-      <c r="X495" s="7">
+      <c r="X495" s="6">
         <f t="shared" si="7"/>
         <v>-1.4464000000000032E-2</v>
       </c>
@@ -23323,7 +23326,7 @@
       <c r="W496" s="2">
         <v>-0.58469300000000002</v>
       </c>
-      <c r="X496" s="7">
+      <c r="X496" s="6">
         <f t="shared" si="7"/>
         <v>9.429000000000004E-2</v>
       </c>
@@ -23338,7 +23341,7 @@
       <c r="W497" s="2">
         <v>-0.50410900000000003</v>
       </c>
-      <c r="X497" s="7">
+      <c r="X497" s="6">
         <f t="shared" si="7"/>
         <v>3.5702000000000012E-2</v>
       </c>
@@ -23353,7 +23356,7 @@
       <c r="W498" s="2">
         <v>-0.53811799999999999</v>
       </c>
-      <c r="X498" s="7">
+      <c r="X498" s="6">
         <f t="shared" si="7"/>
         <v>2.457699999999996E-2</v>
       </c>
@@ -23368,7 +23371,7 @@
       <c r="W499" s="2">
         <v>3.6314600000000002E-2</v>
       </c>
-      <c r="X499" s="7">
+      <c r="X499" s="6">
         <f t="shared" si="7"/>
         <v>2.7626100000000001E-2</v>
       </c>
@@ -23383,7 +23386,7 @@
       <c r="W500" s="2">
         <v>-2.8706200000000002</v>
       </c>
-      <c r="X500" s="7">
+      <c r="X500" s="6">
         <f t="shared" si="7"/>
         <v>0.24409999999999998</v>
       </c>
@@ -23398,7 +23401,7 @@
       <c r="W501" s="2">
         <v>-0.508911</v>
       </c>
-      <c r="X501" s="7">
+      <c r="X501" s="6">
         <f t="shared" si="7"/>
         <v>-1.4615000000000045E-2</v>
       </c>
@@ -23413,7 +23416,7 @@
       <c r="W502" s="2">
         <v>-0.75008799999999998</v>
       </c>
-      <c r="X502" s="7">
+      <c r="X502" s="6">
         <f t="shared" si="7"/>
         <v>0.26242299999999996</v>
       </c>
@@ -23428,7 +23431,7 @@
       <c r="W503" s="2">
         <v>-0.55876599999999998</v>
       </c>
-      <c r="X503" s="7">
+      <c r="X503" s="6">
         <f t="shared" si="7"/>
         <v>-3.3347000000000016E-2</v>
       </c>
@@ -23443,7 +23446,7 @@
       <c r="W504" s="2">
         <v>-0.326405</v>
       </c>
-      <c r="X504" s="7">
+      <c r="X504" s="6">
         <f t="shared" si="7"/>
         <v>-0.15947499999999998</v>
       </c>
@@ -23458,7 +23461,7 @@
       <c r="W505" s="2">
         <v>-0.57227799999999995</v>
       </c>
-      <c r="X505" s="7">
+      <c r="X505" s="6">
         <f t="shared" si="7"/>
         <v>-0.22068600000000005</v>
       </c>
@@ -23473,7 +23476,7 @@
       <c r="W506" s="2">
         <v>-0.683639</v>
       </c>
-      <c r="X506" s="7">
+      <c r="X506" s="6">
         <f t="shared" si="7"/>
         <v>6.8537999999999988E-2</v>
       </c>
@@ -23488,7 +23491,7 @@
       <c r="W507" s="2">
         <v>-0.76165099999999997</v>
       </c>
-      <c r="X507" s="7">
+      <c r="X507" s="6">
         <f t="shared" si="7"/>
         <v>0.30494399999999999</v>
       </c>
@@ -23503,7 +23506,7 @@
       <c r="W508" s="2">
         <v>-0.54254199999999997</v>
       </c>
-      <c r="X508" s="7">
+      <c r="X508" s="6">
         <f t="shared" si="7"/>
         <v>-2.9997000000000051E-2</v>
       </c>
@@ -23518,7 +23521,7 @@
       <c r="W509" s="2">
         <v>-0.43489800000000001</v>
       </c>
-      <c r="X509" s="7">
+      <c r="X509" s="6">
         <f t="shared" si="7"/>
         <v>-0.33524399999999999</v>
       </c>
@@ -23533,7 +23536,7 @@
       <c r="W510" s="2">
         <v>-0.56143500000000002</v>
       </c>
-      <c r="X510" s="7">
+      <c r="X510" s="6">
         <f t="shared" si="7"/>
         <v>9.0031000000000028E-2</v>
       </c>
@@ -23548,7 +23551,7 @@
       <c r="W511" s="2">
         <v>-0.44438899999999998</v>
       </c>
-      <c r="X511" s="7">
+      <c r="X511" s="6">
         <f t="shared" si="7"/>
         <v>7.2533999999999987E-2</v>
       </c>
@@ -23563,7 +23566,7 @@
       <c r="W512" s="2">
         <v>-0.87329199999999996</v>
       </c>
-      <c r="X512" s="7">
+      <c r="X512" s="6">
         <f t="shared" si="7"/>
         <v>0.16471999999999998</v>
       </c>
@@ -23578,7 +23581,7 @@
       <c r="W513" s="2">
         <v>-1.05291</v>
       </c>
-      <c r="X513" s="7">
+      <c r="X513" s="6">
         <f t="shared" si="7"/>
         <v>0.58986300000000003</v>
       </c>
@@ -23593,7 +23596,7 @@
       <c r="W514" s="2">
         <v>-0.59821599999999997</v>
       </c>
-      <c r="X514" s="7">
+      <c r="X514" s="6">
         <f t="shared" si="7"/>
         <v>9.7670999999999952E-2</v>
       </c>
@@ -23608,7 +23611,7 @@
       <c r="W515" s="2">
         <v>-0.58574700000000002</v>
       </c>
-      <c r="X515" s="7">
+      <c r="X515" s="6">
         <f t="shared" ref="X515:X578" si="8">V515-W515</f>
         <v>6.590000000000007E-2</v>
       </c>
@@ -23623,7 +23626,7 @@
       <c r="W516" s="2">
         <v>-0.54824099999999998</v>
       </c>
-      <c r="X516" s="7">
+      <c r="X516" s="6">
         <f t="shared" si="8"/>
         <v>1.3495999999999952E-2</v>
       </c>
@@ -23638,7 +23641,7 @@
       <c r="W517" s="2">
         <v>-0.46467799999999998</v>
       </c>
-      <c r="X517" s="7">
+      <c r="X517" s="6">
         <f t="shared" si="8"/>
         <v>0.11948199999999998</v>
       </c>
@@ -23653,7 +23656,7 @@
       <c r="W518" s="2">
         <v>-0.55721299999999996</v>
       </c>
-      <c r="X518" s="7">
+      <c r="X518" s="6">
         <f t="shared" si="8"/>
         <v>-0.15143800000000007</v>
       </c>
@@ -23668,7 +23671,7 @@
       <c r="W519" s="2">
         <v>-1.01796</v>
       </c>
-      <c r="X519" s="7">
+      <c r="X519" s="6">
         <f t="shared" si="8"/>
         <v>-0.21636999999999995</v>
       </c>
@@ -23683,7 +23686,7 @@
       <c r="W520" s="2">
         <v>-0.55699900000000002</v>
       </c>
-      <c r="X520" s="7">
+      <c r="X520" s="6">
         <f t="shared" si="8"/>
         <v>-0.18260100000000001</v>
       </c>
@@ -23698,7 +23701,7 @@
       <c r="W521" s="2">
         <v>-0.54178700000000002</v>
       </c>
-      <c r="X521" s="7">
+      <c r="X521" s="6">
         <f t="shared" si="8"/>
         <v>-5.102299999999993E-2</v>
       </c>
@@ -23713,7 +23716,7 @@
       <c r="W522" s="2">
         <v>-0.53831700000000005</v>
       </c>
-      <c r="X522" s="7">
+      <c r="X522" s="6">
         <f t="shared" si="8"/>
         <v>1.7884000000000011E-2</v>
       </c>
@@ -23728,7 +23731,7 @@
       <c r="W523" s="2">
         <v>-0.54971599999999998</v>
       </c>
-      <c r="X523" s="7">
+      <c r="X523" s="6">
         <f t="shared" si="8"/>
         <v>-4.8128999999999977E-2</v>
       </c>
@@ -23743,7 +23746,7 @@
       <c r="W524" s="2">
         <v>-0.74644699999999997</v>
       </c>
-      <c r="X524" s="7">
+      <c r="X524" s="6">
         <f t="shared" si="8"/>
         <v>8.9299999999999935E-3</v>
       </c>
@@ -23758,7 +23761,7 @@
       <c r="W525" s="2">
         <v>-0.52521799999999996</v>
       </c>
-      <c r="X525" s="7">
+      <c r="X525" s="6">
         <f t="shared" si="8"/>
         <v>4.7931999999999975E-2</v>
       </c>
@@ -23773,7 +23776,7 @@
       <c r="W526" s="2">
         <v>-0.50903799999999999</v>
       </c>
-      <c r="X526" s="7">
+      <c r="X526" s="6">
         <f t="shared" si="8"/>
         <v>-2.4319999999999897E-3</v>
       </c>
@@ -23788,7 +23791,7 @@
       <c r="W527" s="2">
         <v>-0.59251799999999999</v>
       </c>
-      <c r="X527" s="7">
+      <c r="X527" s="6">
         <f t="shared" si="8"/>
         <v>-0.59438200000000008</v>
       </c>
@@ -23803,7 +23806,7 @@
       <c r="W528" s="2">
         <v>-0.52440299999999995</v>
       </c>
-      <c r="X528" s="7">
+      <c r="X528" s="6">
         <f t="shared" si="8"/>
         <v>1.4064999999999994E-2</v>
       </c>
@@ -23818,7 +23821,7 @@
       <c r="W529" s="2">
         <v>-0.49376500000000001</v>
       </c>
-      <c r="X529" s="7">
+      <c r="X529" s="6">
         <f t="shared" si="8"/>
         <v>-6.1634999999999995E-2</v>
       </c>
@@ -23833,7 +23836,7 @@
       <c r="W530" s="2">
         <v>-0.57434099999999999</v>
       </c>
-      <c r="X530" s="7">
+      <c r="X530" s="6">
         <f t="shared" si="8"/>
         <v>-3.9557000000000064E-2</v>
       </c>
@@ -23848,7 +23851,7 @@
       <c r="W531" s="2">
         <v>-0.79504600000000003</v>
       </c>
-      <c r="X531" s="7">
+      <c r="X531" s="6">
         <f t="shared" si="8"/>
         <v>0.19081000000000004</v>
       </c>
@@ -23863,7 +23866,7 @@
       <c r="W532" s="2">
         <v>-0.50420100000000001</v>
       </c>
-      <c r="X532" s="7">
+      <c r="X532" s="6">
         <f t="shared" si="8"/>
         <v>-0.12101499999999998</v>
       </c>
@@ -23878,7 +23881,7 @@
       <c r="W533" s="2">
         <v>-0.550423</v>
       </c>
-      <c r="X533" s="7">
+      <c r="X533" s="6">
         <f t="shared" si="8"/>
         <v>-2.8175999999999979E-2</v>
       </c>
@@ -23893,7 +23896,7 @@
       <c r="W534" s="2">
         <v>-0.51544699999999999</v>
       </c>
-      <c r="X534" s="7">
+      <c r="X534" s="6">
         <f t="shared" si="8"/>
         <v>-0.24286300000000005</v>
       </c>
@@ -23908,7 +23911,7 @@
       <c r="W535" s="2">
         <v>-0.46176600000000001</v>
       </c>
-      <c r="X535" s="7">
+      <c r="X535" s="6">
         <f t="shared" si="8"/>
         <v>-2.5722999999999996E-2</v>
       </c>
@@ -23923,7 +23926,7 @@
       <c r="W536" s="2">
         <v>-0.52272700000000005</v>
       </c>
-      <c r="X536" s="7">
+      <c r="X536" s="6">
         <f t="shared" si="8"/>
         <v>0.12898100000000007</v>
       </c>
@@ -23938,7 +23941,7 @@
       <c r="W537" s="2">
         <v>-0.552508</v>
       </c>
-      <c r="X537" s="7">
+      <c r="X537" s="6">
         <f t="shared" si="8"/>
         <v>0.22713899999999998</v>
       </c>
@@ -23953,7 +23956,7 @@
       <c r="W538" s="2">
         <v>-0.73384799999999994</v>
       </c>
-      <c r="X538" s="7">
+      <c r="X538" s="6">
         <f t="shared" si="8"/>
         <v>-0.27560200000000001</v>
       </c>
@@ -23968,7 +23971,7 @@
       <c r="W539" s="2">
         <v>-0.36574099999999998</v>
       </c>
-      <c r="X539" s="7">
+      <c r="X539" s="6">
         <f t="shared" si="8"/>
         <v>-3.0500000000000027E-2</v>
       </c>
@@ -23983,7 +23986,7 @@
       <c r="W540" s="2">
         <v>-0.52791100000000002</v>
       </c>
-      <c r="X540" s="7">
+      <c r="X540" s="6">
         <f t="shared" si="8"/>
         <v>-4.1540000000000021E-2</v>
       </c>
@@ -23998,7 +24001,7 @@
       <c r="W541" s="2">
         <v>-0.51826899999999998</v>
       </c>
-      <c r="X541" s="7">
+      <c r="X541" s="6">
         <f t="shared" si="8"/>
         <v>0.20397299999999996</v>
       </c>
@@ -24013,7 +24016,7 @@
       <c r="W542" s="2">
         <v>-0.38490000000000002</v>
       </c>
-      <c r="X542" s="7">
+      <c r="X542" s="6">
         <f t="shared" si="8"/>
         <v>3.1820000000000181E-3</v>
       </c>
@@ -24028,7 +24031,7 @@
       <c r="W543" s="2">
         <v>-0.57815799999999995</v>
       </c>
-      <c r="X543" s="7">
+      <c r="X543" s="6">
         <f t="shared" si="8"/>
         <v>-9.1567000000000065E-2</v>
       </c>
@@ -24043,7 +24046,7 @@
       <c r="W544" s="2">
         <v>-0.26245400000000002</v>
       </c>
-      <c r="X544" s="7">
+      <c r="X544" s="6">
         <f t="shared" si="8"/>
         <v>-1.7203999999999997E-2</v>
       </c>
@@ -24058,7 +24061,7 @@
       <c r="W545" s="2">
         <v>-0.53017400000000003</v>
       </c>
-      <c r="X545" s="7">
+      <c r="X545" s="6">
         <f t="shared" si="8"/>
         <v>-0.19441299999999995</v>
       </c>
@@ -24073,7 +24076,7 @@
       <c r="W546" s="2">
         <v>-0.36916500000000002</v>
       </c>
-      <c r="X546" s="7">
+      <c r="X546" s="6">
         <f t="shared" si="8"/>
         <v>2.0101000000000036E-2</v>
       </c>
@@ -24088,7 +24091,7 @@
       <c r="W547" s="2">
         <v>-1.0159800000000001</v>
       </c>
-      <c r="X547" s="7">
+      <c r="X547" s="6">
         <f t="shared" si="8"/>
         <v>-0.22123999999999988</v>
       </c>
@@ -24103,7 +24106,7 @@
       <c r="W548" s="2">
         <v>-0.54118200000000005</v>
       </c>
-      <c r="X548" s="7">
+      <c r="X548" s="6">
         <f t="shared" si="8"/>
         <v>2.3035000000000028E-2</v>
       </c>
@@ -24118,7 +24121,7 @@
       <c r="W549" s="2">
         <v>-0.62081200000000003</v>
       </c>
-      <c r="X549" s="7">
+      <c r="X549" s="6">
         <f t="shared" si="8"/>
         <v>-0.46011799999999992</v>
       </c>
@@ -24133,7 +24136,7 @@
       <c r="W550" s="2">
         <v>-0.48725400000000002</v>
       </c>
-      <c r="X550" s="7">
+      <c r="X550" s="6">
         <f t="shared" si="8"/>
         <v>8.9958000000000038E-2</v>
       </c>
@@ -24148,7 +24151,7 @@
       <c r="W551" s="2">
         <v>-0.70495399999999997</v>
       </c>
-      <c r="X551" s="7">
+      <c r="X551" s="6">
         <f t="shared" si="8"/>
         <v>0.353072</v>
       </c>
@@ -24163,7 +24166,7 @@
       <c r="W552" s="2">
         <v>-0.41055199999999997</v>
       </c>
-      <c r="X552" s="7">
+      <c r="X552" s="6">
         <f t="shared" si="8"/>
         <v>6.8862999999999952E-2</v>
       </c>
@@ -24178,7 +24181,7 @@
       <c r="W553" s="2">
         <v>-0.55053700000000005</v>
       </c>
-      <c r="X553" s="7">
+      <c r="X553" s="6">
         <f t="shared" si="8"/>
         <v>1.1656E-2</v>
       </c>
@@ -24193,7 +24196,7 @@
       <c r="W554" s="2">
         <v>-1.0732999999999999</v>
       </c>
-      <c r="X554" s="7">
+      <c r="X554" s="6">
         <f t="shared" si="8"/>
         <v>0.19059699999999991</v>
       </c>
@@ -24208,7 +24211,7 @@
       <c r="W555" s="2">
         <v>-0.522065</v>
       </c>
-      <c r="X555" s="7">
+      <c r="X555" s="6">
         <f t="shared" si="8"/>
         <v>-0.11337900000000001</v>
       </c>
@@ -24223,7 +24226,7 @@
       <c r="W556" s="2">
         <v>-0.55107700000000004</v>
       </c>
-      <c r="X556" s="7">
+      <c r="X556" s="6">
         <f t="shared" si="8"/>
         <v>1.0143000000000013E-2</v>
       </c>
@@ -24238,7 +24241,7 @@
       <c r="W557" s="2">
         <v>-0.49945499999999998</v>
       </c>
-      <c r="X557" s="7">
+      <c r="X557" s="6">
         <f t="shared" si="8"/>
         <v>9.317700000000001E-2</v>
       </c>
@@ -24253,7 +24256,7 @@
       <c r="W558" s="2">
         <v>-0.65397700000000003</v>
       </c>
-      <c r="X558" s="7">
+      <c r="X558" s="6">
         <f t="shared" si="8"/>
         <v>7.3647000000000018E-2</v>
       </c>
@@ -24268,7 +24271,7 @@
       <c r="W559" s="2">
         <v>-0.434834</v>
       </c>
-      <c r="X559" s="7">
+      <c r="X559" s="6">
         <f t="shared" si="8"/>
         <v>-2.7855999999999992E-2</v>
       </c>
@@ -24283,7 +24286,7 @@
       <c r="W560" s="2">
         <v>-0.50677000000000005</v>
       </c>
-      <c r="X560" s="7">
+      <c r="X560" s="6">
         <f t="shared" si="8"/>
         <v>5.6788000000000061E-2</v>
       </c>
@@ -24298,7 +24301,7 @@
       <c r="W561" s="2">
         <v>-0.109072</v>
       </c>
-      <c r="X561" s="7">
+      <c r="X561" s="6">
         <f t="shared" si="8"/>
         <v>-0.27357799999999999</v>
       </c>
@@ -24313,7 +24316,7 @@
       <c r="W562" s="2">
         <v>-0.51455799999999996</v>
       </c>
-      <c r="X562" s="7">
+      <c r="X562" s="6">
         <f t="shared" si="8"/>
         <v>-0.13799800000000007</v>
       </c>
@@ -24328,7 +24331,7 @@
       <c r="W563" s="2">
         <v>-0.53076100000000004</v>
       </c>
-      <c r="X563" s="7">
+      <c r="X563" s="6">
         <f t="shared" si="8"/>
         <v>6.6653000000000018E-2</v>
       </c>
@@ -24343,7 +24346,7 @@
       <c r="W564" s="2">
         <v>-0.38213999999999998</v>
       </c>
-      <c r="X564" s="7">
+      <c r="X564" s="6">
         <f t="shared" si="8"/>
         <v>0.30854609999999999</v>
       </c>
@@ -24358,7 +24361,7 @@
       <c r="W565" s="2">
         <v>-0.27315200000000001</v>
       </c>
-      <c r="X565" s="7">
+      <c r="X565" s="6">
         <f t="shared" si="8"/>
         <v>6.1913999999999997E-2</v>
       </c>
@@ -24373,7 +24376,7 @@
       <c r="W566" s="2">
         <v>-0.47451599999999999</v>
       </c>
-      <c r="X566" s="7">
+      <c r="X566" s="6">
         <f t="shared" si="8"/>
         <v>0.10376200000000002</v>
       </c>
@@ -24388,7 +24391,7 @@
       <c r="W567" s="2">
         <v>-0.48175000000000001</v>
       </c>
-      <c r="X567" s="7">
+      <c r="X567" s="6">
         <f t="shared" si="8"/>
         <v>-4.6988999999999947E-2</v>
       </c>
@@ -24403,7 +24406,7 @@
       <c r="W568" s="2">
         <v>-0.65658000000000005</v>
       </c>
-      <c r="X568" s="7">
+      <c r="X568" s="6">
         <f t="shared" si="8"/>
         <v>5.8716000000000101E-2</v>
       </c>
@@ -24418,7 +24421,7 @@
       <c r="W569" s="2">
         <v>-0.51994099999999999</v>
       </c>
-      <c r="X569" s="7">
+      <c r="X569" s="6">
         <f t="shared" si="8"/>
         <v>-2.2010000000000085E-3</v>
       </c>
@@ -24433,7 +24436,7 @@
       <c r="W570" s="2">
         <v>-0.33695199999999997</v>
       </c>
-      <c r="X570" s="7">
+      <c r="X570" s="6">
         <f t="shared" si="8"/>
         <v>0.18839699999999998</v>
       </c>
@@ -24448,7 +24451,7 @@
       <c r="W571" s="2">
         <v>-0.39130799999999999</v>
       </c>
-      <c r="X571" s="7">
+      <c r="X571" s="6">
         <f t="shared" si="8"/>
         <v>0.46096979999999999</v>
       </c>
@@ -24463,7 +24466,7 @@
       <c r="W572" s="2">
         <v>-0.53433900000000001</v>
       </c>
-      <c r="X572" s="7">
+      <c r="X572" s="6">
         <f t="shared" si="8"/>
         <v>1.7160000000000508E-3</v>
       </c>
@@ -24478,7 +24481,7 @@
       <c r="W573" s="2">
         <v>-1.06138</v>
       </c>
-      <c r="X573" s="7">
+      <c r="X573" s="6">
         <f t="shared" si="8"/>
         <v>0.59068500000000002</v>
       </c>
@@ -24493,7 +24496,7 @@
       <c r="W574" s="2">
         <v>-1.0145299999999999</v>
       </c>
-      <c r="X574" s="7">
+      <c r="X574" s="6">
         <f t="shared" si="8"/>
         <v>0.52753899999999998</v>
       </c>
@@ -24508,7 +24511,7 @@
       <c r="W575" s="2">
         <v>-0.53151800000000005</v>
       </c>
-      <c r="X575" s="7">
+      <c r="X575" s="6">
         <f t="shared" si="8"/>
         <v>-0.10835099999999998</v>
       </c>
@@ -24523,7 +24526,7 @@
       <c r="W576" s="2">
         <v>-0.86776600000000004</v>
       </c>
-      <c r="X576" s="7">
+      <c r="X576" s="6">
         <f t="shared" si="8"/>
         <v>-4.9592999999999998E-2</v>
       </c>
@@ -24538,7 +24541,7 @@
       <c r="W577" s="2">
         <v>-0.51852399999999998</v>
       </c>
-      <c r="X577" s="7">
+      <c r="X577" s="6">
         <f t="shared" si="8"/>
         <v>1.0726999999999931E-2</v>
       </c>
@@ -24553,7 +24556,7 @@
       <c r="W578" s="2">
         <v>-0.50086799999999998</v>
       </c>
-      <c r="X578" s="7">
+      <c r="X578" s="6">
         <f t="shared" si="8"/>
         <v>1.2403999999999971E-2</v>
       </c>
@@ -24568,7 +24571,7 @@
       <c r="W579" s="2">
         <v>-0.53205000000000002</v>
       </c>
-      <c r="X579" s="7">
+      <c r="X579" s="6">
         <f t="shared" ref="X579:X642" si="9">V579-W579</f>
         <v>0.164441</v>
       </c>
@@ -24583,7 +24586,7 @@
       <c r="W580" s="2">
         <v>-0.56190099999999998</v>
       </c>
-      <c r="X580" s="7">
+      <c r="X580" s="6">
         <f t="shared" si="9"/>
         <v>5.5271999999999988E-2</v>
       </c>
@@ -24598,7 +24601,7 @@
       <c r="W581" s="2">
         <v>-0.59815499999999999</v>
       </c>
-      <c r="X581" s="7">
+      <c r="X581" s="6">
         <f t="shared" si="9"/>
         <v>3.2994999999999997E-2</v>
       </c>
@@ -24613,7 +24616,7 @@
       <c r="W582" s="2">
         <v>-0.79391599999999996</v>
       </c>
-      <c r="X582" s="7">
+      <c r="X582" s="6">
         <f t="shared" si="9"/>
         <v>2.2820000000000062E-3</v>
       </c>
@@ -24628,7 +24631,7 @@
       <c r="W583" s="2">
         <v>-0.50037699999999996</v>
       </c>
-      <c r="X583" s="7">
+      <c r="X583" s="6">
         <f t="shared" si="9"/>
         <v>-0.57515300000000014</v>
       </c>
@@ -24643,7 +24646,7 @@
       <c r="W584" s="2">
         <v>-0.49639299999999997</v>
       </c>
-      <c r="X584" s="7">
+      <c r="X584" s="6">
         <f t="shared" si="9"/>
         <v>0.11865199999999998</v>
       </c>
@@ -24658,7 +24661,7 @@
       <c r="W585" s="2">
         <v>-0.53603999999999996</v>
       </c>
-      <c r="X585" s="7">
+      <c r="X585" s="6">
         <f t="shared" si="9"/>
         <v>2.8061000000000003E-2</v>
       </c>
@@ -24673,7 +24676,7 @@
       <c r="W586" s="2">
         <v>-0.89670700000000003</v>
       </c>
-      <c r="X586" s="7">
+      <c r="X586" s="6">
         <f t="shared" si="9"/>
         <v>0.28845399999999999</v>
       </c>
@@ -24688,7 +24691,7 @@
       <c r="W587" s="2">
         <v>-0.58214699999999997</v>
       </c>
-      <c r="X587" s="7">
+      <c r="X587" s="6">
         <f t="shared" si="9"/>
         <v>2.1065999999999918E-2</v>
       </c>
@@ -24703,7 +24706,7 @@
       <c r="W588" s="2">
         <v>-0.59359499999999998</v>
       </c>
-      <c r="X588" s="7">
+      <c r="X588" s="6">
         <f t="shared" si="9"/>
         <v>5.8373000000000008E-2</v>
       </c>
@@ -24718,7 +24721,7 @@
       <c r="W589" s="2">
         <v>-0.211503</v>
       </c>
-      <c r="X589" s="7">
+      <c r="X589" s="6">
         <f t="shared" si="9"/>
         <v>-0.120006</v>
       </c>
@@ -24733,7 +24736,7 @@
       <c r="W590" s="2">
         <v>-0.51627599999999996</v>
       </c>
-      <c r="X590" s="7">
+      <c r="X590" s="6">
         <f t="shared" si="9"/>
         <v>1.0849999999999915E-2</v>
       </c>
@@ -24748,7 +24751,7 @@
       <c r="W591" s="2">
         <v>-0.87313399999999997</v>
       </c>
-      <c r="X591" s="7">
+      <c r="X591" s="6">
         <f t="shared" si="9"/>
         <v>0.44532999999999995</v>
       </c>
@@ -24763,7 +24766,7 @@
       <c r="W592" s="2">
         <v>-0.46610600000000002</v>
       </c>
-      <c r="X592" s="7">
+      <c r="X592" s="6">
         <f t="shared" si="9"/>
         <v>-7.1169999999999844E-3</v>
       </c>
@@ -24778,7 +24781,7 @@
       <c r="W593" s="2">
         <v>-0.43265199999999998</v>
       </c>
-      <c r="X593" s="7">
+      <c r="X593" s="6">
         <f t="shared" si="9"/>
         <v>0.23881799999999997</v>
       </c>
@@ -24793,7 +24796,7 @@
       <c r="W594" s="2">
         <v>-0.54546300000000003</v>
       </c>
-      <c r="X594" s="7">
+      <c r="X594" s="6">
         <f t="shared" si="9"/>
         <v>1.5043000000000029E-2</v>
       </c>
@@ -24808,7 +24811,7 @@
       <c r="W595" s="2">
         <v>-0.523038</v>
       </c>
-      <c r="X595" s="7">
+      <c r="X595" s="6">
         <f t="shared" si="9"/>
         <v>-6.3388E-2</v>
       </c>
@@ -24823,7 +24826,7 @@
       <c r="W596" s="2">
         <v>-0.54001500000000002</v>
       </c>
-      <c r="X596" s="7">
+      <c r="X596" s="6">
         <f t="shared" si="9"/>
         <v>2.201300000000006E-2</v>
       </c>
@@ -24838,7 +24841,7 @@
       <c r="W597" s="2">
         <v>-0.54077200000000003</v>
       </c>
-      <c r="X597" s="7">
+      <c r="X597" s="6">
         <f t="shared" si="9"/>
         <v>-4.9069999999999947E-3</v>
       </c>
@@ -24853,7 +24856,7 @@
       <c r="W598" s="2">
         <v>-0.54492499999999999</v>
       </c>
-      <c r="X598" s="7">
+      <c r="X598" s="6">
         <f t="shared" si="9"/>
         <v>5.7186000000000015E-2</v>
       </c>
@@ -24868,7 +24871,7 @@
       <c r="W599" s="2">
         <v>-0.50063000000000002</v>
       </c>
-      <c r="X599" s="7">
+      <c r="X599" s="6">
         <f t="shared" si="9"/>
         <v>-4.0135000000000032E-2</v>
       </c>
@@ -24883,7 +24886,7 @@
       <c r="W600" s="2">
         <v>-0.52360499999999999</v>
       </c>
-      <c r="X600" s="7">
+      <c r="X600" s="6">
         <f t="shared" si="9"/>
         <v>-8.6188000000000042E-2</v>
       </c>
@@ -24898,7 +24901,7 @@
       <c r="W601" s="2">
         <v>-0.57606999999999997</v>
       </c>
-      <c r="X601" s="7">
+      <c r="X601" s="6">
         <f t="shared" si="9"/>
         <v>8.6866999999999972E-2</v>
       </c>
@@ -24913,7 +24916,7 @@
       <c r="W602" s="2">
         <v>-1.2542500000000001</v>
       </c>
-      <c r="X602" s="7">
+      <c r="X602" s="6">
         <f t="shared" si="9"/>
         <v>0.16603000000000012</v>
       </c>
@@ -24928,7 +24931,7 @@
       <c r="W603" s="2">
         <v>-0.49387799999999998</v>
       </c>
-      <c r="X603" s="7">
+      <c r="X603" s="6">
         <f t="shared" si="9"/>
         <v>-0.45023200000000002</v>
       </c>
@@ -24943,7 +24946,7 @@
       <c r="W604" s="2">
         <v>-0.54403400000000002</v>
       </c>
-      <c r="X604" s="7">
+      <c r="X604" s="6">
         <f t="shared" si="9"/>
         <v>7.0640000000000702E-3</v>
       </c>
@@ -24958,7 +24961,7 @@
       <c r="W605" s="2">
         <v>-9.1157700000000005E-3</v>
       </c>
-      <c r="X605" s="7">
+      <c r="X605" s="6">
         <f t="shared" si="9"/>
         <v>-0.24424923000000001</v>
       </c>
@@ -24973,7 +24976,7 @@
       <c r="W606" s="2">
         <v>-0.47737299999999999</v>
       </c>
-      <c r="X606" s="7">
+      <c r="X606" s="6">
         <f t="shared" si="9"/>
         <v>-0.13585399999999997</v>
       </c>
@@ -24988,7 +24991,7 @@
       <c r="W607" s="2">
         <v>-0.48109200000000002</v>
       </c>
-      <c r="X607" s="7">
+      <c r="X607" s="6">
         <f t="shared" si="9"/>
         <v>-1.0600000000000054E-3</v>
       </c>
@@ -25003,7 +25006,7 @@
       <c r="W608" s="2">
         <v>-0.59406800000000004</v>
       </c>
-      <c r="X608" s="7">
+      <c r="X608" s="6">
         <f t="shared" si="9"/>
         <v>-0.16685499999999998</v>
       </c>
@@ -25018,7 +25021,7 @@
       <c r="W609" s="2">
         <v>-0.47711900000000002</v>
       </c>
-      <c r="X609" s="7">
+      <c r="X609" s="6">
         <f t="shared" si="9"/>
         <v>4.1291999999999995E-2</v>
       </c>
@@ -25033,7 +25036,7 @@
       <c r="W610" s="2">
         <v>-0.55741300000000005</v>
       </c>
-      <c r="X610" s="7">
+      <c r="X610" s="6">
         <f t="shared" si="9"/>
         <v>-8.983999999999992E-3</v>
       </c>
@@ -25048,7 +25051,7 @@
       <c r="W611" s="2">
         <v>-1.1536599999999999</v>
       </c>
-      <c r="X611" s="7">
+      <c r="X611" s="6">
         <f t="shared" si="9"/>
         <v>-1.7290000000000028E-2</v>
       </c>
@@ -25063,7 +25066,7 @@
       <c r="W612" s="2">
         <v>-1.08256</v>
       </c>
-      <c r="X612" s="7">
+      <c r="X612" s="6">
         <f t="shared" si="9"/>
         <v>-0.2241200000000001</v>
       </c>
@@ -25078,7 +25081,7 @@
       <c r="W613" s="2">
         <v>-0.40106199999999997</v>
       </c>
-      <c r="X613" s="7">
+      <c r="X613" s="6">
         <f t="shared" si="9"/>
         <v>5.4870999999999948E-2</v>
       </c>
@@ -25093,7 +25096,7 @@
       <c r="W614" s="2">
         <v>-1.22397</v>
       </c>
-      <c r="X614" s="7">
+      <c r="X614" s="6">
         <f t="shared" si="9"/>
         <v>0.65888599999999997</v>
       </c>
@@ -25108,7 +25111,7 @@
       <c r="W615" s="2">
         <v>-0.51327699999999998</v>
       </c>
-      <c r="X615" s="7">
+      <c r="X615" s="6">
         <f t="shared" si="9"/>
         <v>0.16684699999999997</v>
       </c>
@@ -25123,7 +25126,7 @@
       <c r="W616" s="2">
         <v>-0.39487299999999997</v>
       </c>
-      <c r="X616" s="7">
+      <c r="X616" s="6">
         <f t="shared" si="9"/>
         <v>-1.9322000000000006E-2</v>
       </c>
@@ -25138,7 +25141,7 @@
       <c r="W617" s="2">
         <v>-0.40700599999999998</v>
       </c>
-      <c r="X617" s="7">
+      <c r="X617" s="6">
         <f t="shared" si="9"/>
         <v>0.26469399999999998</v>
       </c>
@@ -25153,7 +25156,7 @@
       <c r="W618" s="2">
         <v>-0.508494</v>
       </c>
-      <c r="X618" s="7">
+      <c r="X618" s="6">
         <f t="shared" si="9"/>
         <v>0.35936699999999999</v>
       </c>
@@ -25168,7 +25171,7 @@
       <c r="W619" s="2">
         <v>-0.54827599999999999</v>
       </c>
-      <c r="X619" s="7">
+      <c r="X619" s="6">
         <f t="shared" si="9"/>
         <v>-1.7565999999999971E-2</v>
       </c>
@@ -25183,7 +25186,7 @@
       <c r="W620" s="2">
         <v>-0.42711300000000002</v>
       </c>
-      <c r="X620" s="7">
+      <c r="X620" s="6">
         <f t="shared" si="9"/>
         <v>0.10437800000000003</v>
       </c>
@@ -25198,7 +25201,7 @@
       <c r="W621" s="2">
         <v>-0.54141700000000004</v>
       </c>
-      <c r="X621" s="7">
+      <c r="X621" s="6">
         <f t="shared" si="9"/>
         <v>3.1430000000000069E-2</v>
       </c>
@@ -25213,7 +25216,7 @@
       <c r="W622" s="2">
         <v>-0.52556099999999994</v>
       </c>
-      <c r="X622" s="7">
+      <c r="X622" s="6">
         <f t="shared" si="9"/>
         <v>5.7152999999999954E-2</v>
       </c>
@@ -25228,7 +25231,7 @@
       <c r="W623" s="2">
         <v>-0.61303200000000002</v>
       </c>
-      <c r="X623" s="7">
+      <c r="X623" s="6">
         <f t="shared" si="9"/>
         <v>-0.51730799999999988</v>
       </c>
@@ -25243,7 +25246,7 @@
       <c r="W624" s="2">
         <v>-0.51064699999999996</v>
       </c>
-      <c r="X624" s="7">
+      <c r="X624" s="6">
         <f t="shared" si="9"/>
         <v>-3.2660000000000022E-2</v>
       </c>
@@ -25258,7 +25261,7 @@
       <c r="W625" s="2">
         <v>-0.53728200000000004</v>
       </c>
-      <c r="X625" s="7">
+      <c r="X625" s="6">
         <f t="shared" si="9"/>
         <v>-3.447699999999998E-2</v>
       </c>
@@ -25273,7 +25276,7 @@
       <c r="W626" s="2">
         <v>-0.47389599999999998</v>
       </c>
-      <c r="X626" s="7">
+      <c r="X626" s="6">
         <f t="shared" si="9"/>
         <v>-3.1814000000000009E-2</v>
       </c>
@@ -25288,7 +25291,7 @@
       <c r="W627" s="2">
         <v>-0.57775299999999996</v>
       </c>
-      <c r="X627" s="7">
+      <c r="X627" s="6">
         <f t="shared" si="9"/>
         <v>2.830099999999991E-2</v>
       </c>
@@ -25303,7 +25306,7 @@
       <c r="W628" s="2">
         <v>-0.41337600000000002</v>
       </c>
-      <c r="X628" s="7">
+      <c r="X628" s="6">
         <f t="shared" si="9"/>
         <v>-0.72790400000000011</v>
       </c>
@@ -25318,7 +25321,7 @@
       <c r="W629" s="2">
         <v>-0.55942999999999998</v>
       </c>
-      <c r="X629" s="7">
+      <c r="X629" s="6">
         <f t="shared" si="9"/>
         <v>-9.3886000000000025E-2</v>
       </c>
@@ -25333,7 +25336,7 @@
       <c r="W630" s="2">
         <v>-0.55356300000000003</v>
       </c>
-      <c r="X630" s="7">
+      <c r="X630" s="6">
         <f t="shared" si="9"/>
         <v>4.8124000000000056E-2</v>
       </c>
@@ -25348,7 +25351,7 @@
       <c r="W631" s="2">
         <v>-0.53347500000000003</v>
       </c>
-      <c r="X631" s="7">
+      <c r="X631" s="6">
         <f t="shared" si="9"/>
         <v>5.1205000000000056E-2</v>
       </c>
@@ -25363,7 +25366,7 @@
       <c r="W632" s="2">
         <v>-1.3221099999999999</v>
       </c>
-      <c r="X632" s="7">
+      <c r="X632" s="6">
         <f t="shared" si="9"/>
         <v>0.59048099999999992</v>
       </c>
@@ -25378,7 +25381,7 @@
       <c r="W633" s="2">
         <v>-0.71162700000000001</v>
       </c>
-      <c r="X633" s="7">
+      <c r="X633" s="6">
         <f t="shared" si="9"/>
         <v>-7.9479999999999551E-3</v>
       </c>
@@ -25393,7 +25396,7 @@
       <c r="W634" s="2">
         <v>-0.51784799999999997</v>
       </c>
-      <c r="X634" s="7">
+      <c r="X634" s="6">
         <f t="shared" si="9"/>
         <v>-7.8539000000000025E-2</v>
       </c>
@@ -25408,7 +25411,7 @@
       <c r="W635" s="2">
         <v>-0.55032499999999995</v>
       </c>
-      <c r="X635" s="7">
+      <c r="X635" s="6">
         <f t="shared" si="9"/>
         <v>2.0616999999999996E-2</v>
       </c>
@@ -25423,7 +25426,7 @@
       <c r="W636" s="2">
         <v>-0.71162700000000001</v>
       </c>
-      <c r="X636" s="7">
+      <c r="X636" s="6">
         <f t="shared" si="9"/>
         <v>-7.9479999999999551E-3</v>
       </c>
@@ -25438,7 +25441,7 @@
       <c r="W637" s="2">
         <v>-0.54946300000000003</v>
       </c>
-      <c r="X637" s="7">
+      <c r="X637" s="6">
         <f t="shared" si="9"/>
         <v>7.0891000000000037E-2</v>
       </c>
@@ -25453,7 +25456,7 @@
       <c r="W638" s="2">
         <v>-0.69104200000000005</v>
       </c>
-      <c r="X638" s="7">
+      <c r="X638" s="6">
         <f t="shared" si="9"/>
         <v>0.28714300000000004</v>
       </c>
@@ -25468,7 +25471,7 @@
       <c r="W639" s="2">
         <v>-0.43959399999999998</v>
       </c>
-      <c r="X639" s="7">
+      <c r="X639" s="6">
         <f t="shared" si="9"/>
         <v>-5.8429000000000009E-2</v>
       </c>
@@ -25483,7 +25486,7 @@
       <c r="W640" s="2">
         <v>-0.51972200000000002</v>
       </c>
-      <c r="X640" s="7">
+      <c r="X640" s="6">
         <f t="shared" si="9"/>
         <v>-0.12334899999999993</v>
       </c>
@@ -25498,7 +25501,7 @@
       <c r="W641" s="2">
         <v>-0.48443000000000003</v>
       </c>
-      <c r="X641" s="7">
+      <c r="X641" s="6">
         <f t="shared" si="9"/>
         <v>0.16138800000000003</v>
       </c>
@@ -25513,7 +25516,7 @@
       <c r="W642" s="2">
         <v>-0.92047900000000005</v>
       </c>
-      <c r="X642" s="7">
+      <c r="X642" s="6">
         <f t="shared" si="9"/>
         <v>0.33748900000000004</v>
       </c>
@@ -25528,7 +25531,7 @@
       <c r="W643" s="2">
         <v>-0.549817</v>
       </c>
-      <c r="X643" s="7">
+      <c r="X643" s="6">
         <f t="shared" ref="X643:X706" si="10">V643-W643</f>
         <v>1.7356999999999956E-2</v>
       </c>
@@ -25543,7 +25546,7 @@
       <c r="W644" s="2">
         <v>-0.45787</v>
       </c>
-      <c r="X644" s="7">
+      <c r="X644" s="6">
         <f t="shared" si="10"/>
         <v>0.13178200000000001</v>
       </c>
@@ -25558,7 +25561,7 @@
       <c r="W645" s="2">
         <v>-0.61495699999999998</v>
       </c>
-      <c r="X645" s="7">
+      <c r="X645" s="6">
         <f t="shared" si="10"/>
         <v>0.18628599999999995</v>
       </c>
@@ -25573,7 +25576,7 @@
       <c r="W646" s="2">
         <v>-0.34083599999999997</v>
       </c>
-      <c r="X646" s="7">
+      <c r="X646" s="6">
         <f t="shared" si="10"/>
         <v>9.484799999999996E-2</v>
       </c>
@@ -25588,7 +25591,7 @@
       <c r="W647" s="2">
         <v>-0.819079</v>
       </c>
-      <c r="X647" s="7">
+      <c r="X647" s="6">
         <f t="shared" si="10"/>
         <v>0.31185600000000002</v>
       </c>
@@ -25603,7 +25606,7 @@
       <c r="W648" s="2">
         <v>-0.49721199999999999</v>
       </c>
-      <c r="X648" s="7">
+      <c r="X648" s="6">
         <f t="shared" si="10"/>
         <v>2.1649999999999725E-3</v>
       </c>
@@ -25618,7 +25621,7 @@
       <c r="W649" s="2">
         <v>-0.60382599999999997</v>
       </c>
-      <c r="X649" s="7">
+      <c r="X649" s="6">
         <f t="shared" si="10"/>
         <v>0.16887099999999999</v>
       </c>
@@ -25633,7 +25636,7 @@
       <c r="W650" s="2">
         <v>-0.72322299999999995</v>
       </c>
-      <c r="X650" s="7">
+      <c r="X650" s="6">
         <f t="shared" si="10"/>
         <v>-0.8146770000000001</v>
       </c>
@@ -25648,7 +25651,7 @@
       <c r="W651" s="2">
         <v>-0.97610699999999995</v>
       </c>
-      <c r="X651" s="7">
+      <c r="X651" s="6">
         <f t="shared" si="10"/>
         <v>0.45091599999999998</v>
       </c>
@@ -25663,7 +25666,7 @@
       <c r="W652" s="2">
         <v>-0.51942500000000003</v>
       </c>
-      <c r="X652" s="7">
+      <c r="X652" s="6">
         <f t="shared" si="10"/>
         <v>1.034999999999997E-2</v>
       </c>
@@ -25678,7 +25681,7 @@
       <c r="W653" s="2">
         <v>-0.47522199999999998</v>
       </c>
-      <c r="X653" s="7">
+      <c r="X653" s="6">
         <f t="shared" si="10"/>
         <v>-0.16188799999999998</v>
       </c>
@@ -25693,7 +25696,7 @@
       <c r="W654" s="2">
         <v>-0.49798999999999999</v>
       </c>
-      <c r="X654" s="7">
+      <c r="X654" s="6">
         <f t="shared" si="10"/>
         <v>3.7086999999999981E-2</v>
       </c>
@@ -25708,7 +25711,7 @@
       <c r="W655" s="2">
         <v>-0.71162700000000001</v>
       </c>
-      <c r="X655" s="7">
+      <c r="X655" s="6">
         <f t="shared" si="10"/>
         <v>-7.9479999999999551E-3</v>
       </c>
@@ -25723,7 +25726,7 @@
       <c r="W656" s="2">
         <v>-0.47465400000000002</v>
       </c>
-      <c r="X656" s="7">
+      <c r="X656" s="6">
         <f t="shared" si="10"/>
         <v>-0.13570300000000002</v>
       </c>
@@ -25738,7 +25741,7 @@
       <c r="W657" s="2">
         <v>-0.53623100000000001</v>
       </c>
-      <c r="X657" s="7">
+      <c r="X657" s="6">
         <f t="shared" si="10"/>
         <v>9.9250000000000005E-2</v>
       </c>
@@ -25753,7 +25756,7 @@
       <c r="W658" s="2">
         <v>-0.52356199999999997</v>
       </c>
-      <c r="X658" s="7">
+      <c r="X658" s="6">
         <f t="shared" si="10"/>
         <v>-0.10169300000000003</v>
       </c>
@@ -25768,7 +25771,7 @@
       <c r="W659" s="2">
         <v>-0.54353300000000004</v>
       </c>
-      <c r="X659" s="7">
+      <c r="X659" s="6">
         <f t="shared" si="10"/>
         <v>0.22660500000000006</v>
       </c>
@@ -25783,7 +25786,7 @@
       <c r="W660" s="2">
         <v>-0.45561699999999999</v>
       </c>
-      <c r="X660" s="7">
+      <c r="X660" s="6">
         <f t="shared" si="10"/>
         <v>-0.12873700000000005</v>
       </c>
@@ -25798,7 +25801,7 @@
       <c r="W661" s="2">
         <v>-0.46613599999999999</v>
       </c>
-      <c r="X661" s="7">
+      <c r="X661" s="6">
         <f t="shared" si="10"/>
         <v>-7.1170999999999984E-2</v>
       </c>
@@ -25813,7 +25816,7 @@
       <c r="W662" s="2">
         <v>-0.13531399999999999</v>
       </c>
-      <c r="X662" s="7">
+      <c r="X662" s="6">
         <f t="shared" si="10"/>
         <v>-0.200073</v>
       </c>
@@ -25828,7 +25831,7 @@
       <c r="W663" s="2">
         <v>-0.60447600000000001</v>
       </c>
-      <c r="X663" s="7">
+      <c r="X663" s="6">
         <f t="shared" si="10"/>
         <v>0.19475400000000004</v>
       </c>
@@ -25843,7 +25846,7 @@
       <c r="W664" s="2">
         <v>-0.78335600000000005</v>
       </c>
-      <c r="X664" s="7">
+      <c r="X664" s="6">
         <f t="shared" si="10"/>
         <v>0.16517700000000002</v>
       </c>
@@ -25858,7 +25861,7 @@
       <c r="W665" s="2">
         <v>-0.34188000000000002</v>
       </c>
-      <c r="X665" s="7">
+      <c r="X665" s="6">
         <f t="shared" si="10"/>
         <v>2.5357999999999992E-2</v>
       </c>
@@ -25873,7 +25876,7 @@
       <c r="W666" s="2">
         <v>-0.37928800000000001</v>
       </c>
-      <c r="X666" s="7">
+      <c r="X666" s="6">
         <f t="shared" si="10"/>
         <v>8.5220000000000296E-3</v>
       </c>
@@ -25888,7 +25891,7 @@
       <c r="W667" s="2">
         <v>-0.45578000000000002</v>
       </c>
-      <c r="X667" s="7">
+      <c r="X667" s="6">
         <f t="shared" si="10"/>
         <v>0.12208400000000003</v>
       </c>
@@ -25903,7 +25906,7 @@
       <c r="W668" s="2">
         <v>-0.492369</v>
       </c>
-      <c r="X668" s="7">
+      <c r="X668" s="6">
         <f t="shared" si="10"/>
         <v>0.109815</v>
       </c>
@@ -25918,7 +25921,7 @@
       <c r="W669" s="2">
         <v>-0.451071</v>
       </c>
-      <c r="X669" s="7">
+      <c r="X669" s="6">
         <f t="shared" si="10"/>
         <v>0.10362399999999999</v>
       </c>
@@ -25933,7 +25936,7 @@
       <c r="W670" s="2">
         <v>-0.48987799999999998</v>
       </c>
-      <c r="X670" s="7">
+      <c r="X670" s="6">
         <f t="shared" si="10"/>
         <v>3.5139999999999616E-3</v>
       </c>
@@ -25948,7 +25951,7 @@
       <c r="W671" s="2">
         <v>-0.54652100000000003</v>
       </c>
-      <c r="X671" s="7">
+      <c r="X671" s="6">
         <f t="shared" si="10"/>
         <v>0.17444000000000004</v>
       </c>
@@ -25963,7 +25966,7 @@
       <c r="W672" s="2">
         <v>-0.43759500000000001</v>
       </c>
-      <c r="X672" s="7">
+      <c r="X672" s="6">
         <f t="shared" si="10"/>
         <v>-2.7119999999999922E-3</v>
       </c>
@@ -25978,7 +25981,7 @@
       <c r="W673" s="2">
         <v>-0.36467899999999998</v>
       </c>
-      <c r="X673" s="7">
+      <c r="X673" s="6">
         <f t="shared" si="10"/>
         <v>-7.2253000000000012E-2</v>
       </c>
@@ -25993,7 +25996,7 @@
       <c r="W674" s="2">
         <v>-0.48527599999999999</v>
       </c>
-      <c r="X674" s="7">
+      <c r="X674" s="6">
         <f t="shared" si="10"/>
         <v>4.2930999999999997E-2</v>
       </c>
@@ -26008,7 +26011,7 @@
       <c r="W675" s="2">
         <v>-0.49696299999999999</v>
       </c>
-      <c r="X675" s="7">
+      <c r="X675" s="6">
         <f t="shared" si="10"/>
         <v>2.0216000000000012E-2</v>
       </c>
@@ -26023,7 +26026,7 @@
       <c r="W676" s="2">
         <v>-0.63727999999999996</v>
       </c>
-      <c r="X676" s="7">
+      <c r="X676" s="6">
         <f t="shared" si="10"/>
         <v>-6.0474000000000028E-2</v>
       </c>
@@ -26038,7 +26041,7 @@
       <c r="W677" s="2">
         <v>-1.25522</v>
       </c>
-      <c r="X677" s="7">
+      <c r="X677" s="6">
         <f t="shared" si="10"/>
         <v>0.28630800000000001</v>
       </c>
@@ -26053,7 +26056,7 @@
       <c r="W678" s="2">
         <v>-0.73196099999999997</v>
       </c>
-      <c r="X678" s="7">
+      <c r="X678" s="6">
         <f t="shared" si="10"/>
         <v>-0.160941</v>
       </c>
@@ -26068,7 +26071,7 @@
       <c r="W679" s="2">
         <v>-0.62316199999999999</v>
       </c>
-      <c r="X679" s="7">
+      <c r="X679" s="6">
         <f t="shared" si="10"/>
         <v>0.24393399999999998</v>
       </c>
@@ -26083,7 +26086,7 @@
       <c r="W680" s="2">
         <v>-0.55531299999999995</v>
       </c>
-      <c r="X680" s="7">
+      <c r="X680" s="6">
         <f t="shared" si="10"/>
         <v>4.5494999999999952E-2</v>
       </c>
@@ -26098,7 +26101,7 @@
       <c r="W681" s="2">
         <v>-0.566998</v>
       </c>
-      <c r="X681" s="7">
+      <c r="X681" s="6">
         <f t="shared" si="10"/>
         <v>0.13776100000000002</v>
       </c>
@@ -26113,7 +26116,7 @@
       <c r="W682" s="2">
         <v>-0.40962500000000002</v>
       </c>
-      <c r="X682" s="7">
+      <c r="X682" s="6">
         <f t="shared" si="10"/>
         <v>-0.16162399999999999</v>
       </c>
@@ -26128,7 +26131,7 @@
       <c r="W683" s="2">
         <v>-0.53764400000000001</v>
       </c>
-      <c r="X683" s="7">
+      <c r="X683" s="6">
         <f t="shared" si="10"/>
         <v>-5.7220000000000049E-3</v>
       </c>
@@ -26143,7 +26146,7 @@
       <c r="W684" s="2">
         <v>-0.96570699999999998</v>
       </c>
-      <c r="X684" s="7">
+      <c r="X684" s="6">
         <f t="shared" si="10"/>
         <v>-0.17199299999999995</v>
       </c>
@@ -26158,7 +26161,7 @@
       <c r="W685" s="2">
         <v>-0.16275700000000001</v>
       </c>
-      <c r="X685" s="7">
+      <c r="X685" s="6">
         <f t="shared" si="10"/>
         <v>-2.7153999999999984E-2</v>
       </c>
@@ -26173,7 +26176,7 @@
       <c r="W686" s="2">
         <v>-0.50506099999999998</v>
       </c>
-      <c r="X686" s="7">
+      <c r="X686" s="6">
         <f t="shared" si="10"/>
         <v>7.3931999999999998E-2</v>
       </c>
@@ -26188,7 +26191,7 @@
       <c r="W687" s="2">
         <v>-0.30771199999999999</v>
       </c>
-      <c r="X687" s="7">
+      <c r="X687" s="6">
         <f t="shared" si="10"/>
         <v>-8.265100000000003E-2</v>
       </c>
@@ -26203,7 +26206,7 @@
       <c r="W688" s="2">
         <v>-0.50921499999999997</v>
       </c>
-      <c r="X688" s="7">
+      <c r="X688" s="6">
         <f t="shared" si="10"/>
         <v>1.9925999999999999E-2</v>
       </c>
@@ -26218,7 +26221,7 @@
       <c r="W689" s="2">
         <v>-0.84601099999999996</v>
       </c>
-      <c r="X689" s="7">
+      <c r="X689" s="6">
         <f t="shared" si="10"/>
         <v>0.25772899999999999</v>
       </c>
@@ -26233,7 +26236,7 @@
       <c r="W690" s="2">
         <v>-0.96342499999999998</v>
       </c>
-      <c r="X690" s="7">
+      <c r="X690" s="6">
         <f t="shared" si="10"/>
         <v>0.43468099999999998</v>
       </c>
@@ -26248,7 +26251,7 @@
       <c r="W691" s="2">
         <v>-3.3312500000000002E-2</v>
       </c>
-      <c r="X691" s="7">
+      <c r="X691" s="6">
         <f t="shared" si="10"/>
         <v>5.6627900000000002E-2</v>
       </c>
@@ -26263,7 +26266,7 @@
       <c r="W692" s="2">
         <v>-0.43681399999999998</v>
       </c>
-      <c r="X692" s="7">
+      <c r="X692" s="6">
         <f t="shared" si="10"/>
         <v>-0.62682599999999988</v>
       </c>
@@ -26278,7 +26281,7 @@
       <c r="W693" s="2">
         <v>-0.93135699999999999</v>
       </c>
-      <c r="X693" s="7">
+      <c r="X693" s="6">
         <f t="shared" si="10"/>
         <v>0.68193499999999996</v>
       </c>
@@ -26293,7 +26296,7 @@
       <c r="W694" s="2">
         <v>-0.54226700000000005</v>
       </c>
-      <c r="X694" s="7">
+      <c r="X694" s="6">
         <f t="shared" si="10"/>
         <v>0.40974900000000003</v>
       </c>
@@ -26308,7 +26311,7 @@
       <c r="W695" s="2">
         <v>-0.36185099999999998</v>
       </c>
-      <c r="X695" s="7">
+      <c r="X695" s="6">
         <f t="shared" si="10"/>
         <v>-0.10910700000000001</v>
       </c>
@@ -26323,7 +26326,7 @@
       <c r="W696" s="2">
         <v>-0.74254699999999996</v>
       </c>
-      <c r="X696" s="7">
+      <c r="X696" s="6">
         <f t="shared" si="10"/>
         <v>0.195581</v>
       </c>
@@ -26338,7 +26341,7 @@
       <c r="W697" s="2">
         <v>-0.78208900000000003</v>
       </c>
-      <c r="X697" s="7">
+      <c r="X697" s="6">
         <f t="shared" si="10"/>
         <v>0.23891800000000007</v>
       </c>
@@ -26353,7 +26356,7 @@
       <c r="W698" s="2">
         <v>-0.40182899999999999</v>
       </c>
-      <c r="X698" s="7">
+      <c r="X698" s="6">
         <f t="shared" si="10"/>
         <v>-0.103939</v>
       </c>
@@ -26368,7 +26371,7 @@
       <c r="W699" s="2">
         <v>-1.24135</v>
       </c>
-      <c r="X699" s="7">
+      <c r="X699" s="6">
         <f t="shared" si="10"/>
         <v>0.664435</v>
       </c>
@@ -26383,7 +26386,7 @@
       <c r="W700" s="2">
         <v>-0.16836899999999999</v>
       </c>
-      <c r="X700" s="7">
+      <c r="X700" s="6">
         <f t="shared" si="10"/>
         <v>-0.18517500000000003</v>
       </c>
@@ -26398,7 +26401,7 @@
       <c r="W701" s="2">
         <v>-0.39320899999999998</v>
       </c>
-      <c r="X701" s="7">
+      <c r="X701" s="6">
         <f t="shared" si="10"/>
         <v>-2.9396000000000033E-2</v>
       </c>
@@ -26413,7 +26416,7 @@
       <c r="W702" s="2">
         <v>-0.169373</v>
       </c>
-      <c r="X702" s="7">
+      <c r="X702" s="6">
         <f t="shared" si="10"/>
         <v>4.4975000000000001E-2</v>
       </c>
@@ -26428,7 +26431,7 @@
       <c r="W703" s="2">
         <v>-0.54924300000000004</v>
       </c>
-      <c r="X703" s="7">
+      <c r="X703" s="6">
         <f t="shared" si="10"/>
         <v>0.38769700000000007</v>
       </c>
@@ -26443,7 +26446,7 @@
       <c r="W704" s="2">
         <v>-0.61267400000000005</v>
       </c>
-      <c r="X704" s="7">
+      <c r="X704" s="6">
         <f t="shared" si="10"/>
         <v>0.28472000000000003</v>
       </c>
@@ -26458,7 +26461,7 @@
       <c r="W705" s="2">
         <v>0.22148999999999999</v>
       </c>
-      <c r="X705" s="7">
+      <c r="X705" s="6">
         <f t="shared" si="10"/>
         <v>-0.26327600000000001</v>
       </c>
@@ -26473,7 +26476,7 @@
       <c r="W706" s="2">
         <v>-0.62458499999999995</v>
       </c>
-      <c r="X706" s="7">
+      <c r="X706" s="6">
         <f t="shared" si="10"/>
         <v>0.22644899999999996</v>
       </c>
@@ -26488,7 +26491,7 @@
       <c r="W707" s="2">
         <v>-0.50775700000000001</v>
       </c>
-      <c r="X707" s="7">
+      <c r="X707" s="6">
         <f t="shared" ref="X707:X770" si="11">V707-W707</f>
         <v>0.10581000000000002</v>
       </c>
@@ -26503,7 +26506,7 @@
       <c r="W708" s="2">
         <v>-0.564805</v>
       </c>
-      <c r="X708" s="7">
+      <c r="X708" s="6">
         <f t="shared" si="11"/>
         <v>0.28444700000000001</v>
       </c>
@@ -26518,7 +26521,7 @@
       <c r="W709" s="2">
         <v>-0.360844</v>
       </c>
-      <c r="X709" s="7">
+      <c r="X709" s="6">
         <f t="shared" si="11"/>
         <v>-0.36051300000000003</v>
       </c>
@@ -26533,7 +26536,7 @@
       <c r="W710" s="2">
         <v>-0.33990799999999999</v>
       </c>
-      <c r="X710" s="7">
+      <c r="X710" s="6">
         <f t="shared" si="11"/>
         <v>2.8646000000000005E-2</v>
       </c>
@@ -26548,7 +26551,7 @@
       <c r="W711" s="2">
         <v>-0.56117499999999998</v>
       </c>
-      <c r="X711" s="7">
+      <c r="X711" s="6">
         <f t="shared" si="11"/>
         <v>-1.2766000000000055E-2</v>
       </c>
@@ -26563,7 +26566,7 @@
       <c r="W712" s="2">
         <v>-0.46517799999999998</v>
       </c>
-      <c r="X712" s="7">
+      <c r="X712" s="6">
         <f t="shared" si="11"/>
         <v>-0.44384699999999999</v>
       </c>
@@ -26578,7 +26581,7 @@
       <c r="W713" s="2">
         <v>-0.82639600000000002</v>
       </c>
-      <c r="X713" s="7">
+      <c r="X713" s="6">
         <f t="shared" si="11"/>
         <v>-3.9212000000000025E-2</v>
       </c>
@@ -26593,7 +26596,7 @@
       <c r="W714" s="2">
         <v>-0.39451000000000003</v>
       </c>
-      <c r="X714" s="7">
+      <c r="X714" s="6">
         <f t="shared" si="11"/>
         <v>0.11853400000000003</v>
       </c>
@@ -26608,7 +26611,7 @@
       <c r="W715" s="2">
         <v>-0.49891400000000002</v>
       </c>
-      <c r="X715" s="7">
+      <c r="X715" s="6">
         <f t="shared" si="11"/>
         <v>0.12428400000000001</v>
       </c>
@@ -26623,7 +26626,7 @@
       <c r="W716" s="2">
         <v>-0.43891000000000002</v>
       </c>
-      <c r="X716" s="7">
+      <c r="X716" s="6">
         <f t="shared" si="11"/>
         <v>9.1405000000000014E-2</v>
       </c>
@@ -26638,7 +26641,7 @@
       <c r="W717" s="2">
         <v>-0.46976499999999999</v>
       </c>
-      <c r="X717" s="7">
+      <c r="X717" s="6">
         <f t="shared" si="11"/>
         <v>9.5123999999999986E-2</v>
       </c>
@@ -26653,7 +26656,7 @@
       <c r="W718" s="2">
         <v>-0.72337899999999999</v>
       </c>
-      <c r="X718" s="7">
+      <c r="X718" s="6">
         <f t="shared" si="11"/>
         <v>0.19609500000000002</v>
       </c>
@@ -26668,7 +26671,7 @@
       <c r="W719" s="2">
         <v>-0.34986099999999998</v>
       </c>
-      <c r="X719" s="7">
+      <c r="X719" s="6">
         <f t="shared" si="11"/>
         <v>-0.169076</v>
       </c>
@@ -26683,7 +26686,7 @@
       <c r="W720" s="2">
         <v>-0.60264300000000004</v>
       </c>
-      <c r="X720" s="7">
+      <c r="X720" s="6">
         <f t="shared" si="11"/>
         <v>0.12068300000000004</v>
       </c>
@@ -26698,7 +26701,7 @@
       <c r="W721" s="2">
         <v>-0.501332</v>
       </c>
-      <c r="X721" s="7">
+      <c r="X721" s="6">
         <f t="shared" si="11"/>
         <v>-0.12089499999999997</v>
       </c>
@@ -26713,7 +26716,7 @@
       <c r="W722" s="2">
         <v>-0.54709399999999997</v>
       </c>
-      <c r="X722" s="7">
+      <c r="X722" s="6">
         <f t="shared" si="11"/>
         <v>0.11894399999999999</v>
       </c>
@@ -26728,7 +26731,7 @@
       <c r="W723" s="2">
         <v>-0.452982</v>
       </c>
-      <c r="X723" s="7">
+      <c r="X723" s="6">
         <f t="shared" si="11"/>
         <v>2.9571000000000014E-2</v>
       </c>
@@ -26743,7 +26746,7 @@
       <c r="W724" s="2">
         <v>-0.51257799999999998</v>
       </c>
-      <c r="X724" s="7">
+      <c r="X724" s="6">
         <f t="shared" si="11"/>
         <v>-0.353993</v>
       </c>
@@ -26758,7 +26761,7 @@
       <c r="W725" s="2">
         <v>-0.927477</v>
       </c>
-      <c r="X725" s="7">
+      <c r="X725" s="6">
         <f t="shared" si="11"/>
         <v>0.55387699999999995</v>
       </c>
@@ -26773,7 +26776,7 @@
       <c r="W726" s="2">
         <v>-0.52672399999999997</v>
       </c>
-      <c r="X726" s="7">
+      <c r="X726" s="6">
         <f t="shared" si="11"/>
         <v>-0.24504000000000004</v>
       </c>
@@ -26788,7 +26791,7 @@
       <c r="W727" s="2">
         <v>-0.45602700000000002</v>
       </c>
-      <c r="X727" s="7">
+      <c r="X727" s="6">
         <f t="shared" si="11"/>
         <v>7.3133000000000004E-2</v>
       </c>
@@ -26803,7 +26806,7 @@
       <c r="W728" s="2">
         <v>-0.52922199999999997</v>
       </c>
-      <c r="X728" s="7">
+      <c r="X728" s="6">
         <f t="shared" si="11"/>
         <v>8.0338999999999994E-2</v>
       </c>
@@ -26818,7 +26821,7 @@
       <c r="W729" s="2">
         <v>-0.514621</v>
       </c>
-      <c r="X729" s="7">
+      <c r="X729" s="6">
         <f t="shared" si="11"/>
         <v>-0.21052999999999999</v>
       </c>
@@ -26833,7 +26836,7 @@
       <c r="W730" s="2">
         <v>-0.82298899999999997</v>
       </c>
-      <c r="X730" s="7">
+      <c r="X730" s="6">
         <f t="shared" si="11"/>
         <v>0.13162699999999994</v>
       </c>
@@ -26848,7 +26851,7 @@
       <c r="W731" s="2">
         <v>-0.43154599999999999</v>
       </c>
-      <c r="X731" s="7">
+      <c r="X731" s="6">
         <f t="shared" si="11"/>
         <v>-0.53146099999999996</v>
       </c>
@@ -26863,7 +26866,7 @@
       <c r="W732" s="2">
         <v>-0.60165100000000005</v>
       </c>
-      <c r="X732" s="7">
+      <c r="X732" s="6">
         <f t="shared" si="11"/>
         <v>6.0260000000000091E-2</v>
       </c>
@@ -26878,7 +26881,7 @@
       <c r="W733" s="2">
         <v>-0.50750499999999998</v>
       </c>
-      <c r="X733" s="7">
+      <c r="X733" s="6">
         <f t="shared" si="11"/>
         <v>4.3993999999999978E-2</v>
       </c>
@@ -26893,7 +26896,7 @@
       <c r="W734" s="2">
         <v>-0.54495099999999996</v>
       </c>
-      <c r="X734" s="7">
+      <c r="X734" s="6">
         <f t="shared" si="11"/>
         <v>0.11569699999999994</v>
       </c>
@@ -26908,7 +26911,7 @@
       <c r="W735" s="2">
         <v>-0.45680399999999999</v>
       </c>
-      <c r="X735" s="7">
+      <c r="X735" s="6">
         <f t="shared" si="11"/>
         <v>4.3607000000000007E-2</v>
       </c>
@@ -26923,7 +26926,7 @@
       <c r="W736" s="2">
         <v>-0.38812999999999998</v>
       </c>
-      <c r="X736" s="7">
+      <c r="X736" s="6">
         <f t="shared" si="11"/>
         <v>0.23513899999999999</v>
       </c>
@@ -26938,7 +26941,7 @@
       <c r="W737" s="2">
         <v>-0.413439</v>
       </c>
-      <c r="X737" s="7">
+      <c r="X737" s="6">
         <f t="shared" si="11"/>
         <v>-8.2214999999999983E-2</v>
       </c>
@@ -26953,7 +26956,7 @@
       <c r="W738" s="2">
         <v>-0.51591100000000001</v>
       </c>
-      <c r="X738" s="7">
+      <c r="X738" s="6">
         <f t="shared" si="11"/>
         <v>-7.359300000000002E-2</v>
       </c>
@@ -26968,7 +26971,7 @@
       <c r="W739" s="2">
         <v>-0.54645200000000005</v>
       </c>
-      <c r="X739" s="7">
+      <c r="X739" s="6">
         <f t="shared" si="11"/>
         <v>-3.095199999999998E-2</v>
       </c>
@@ -26983,7 +26986,7 @@
       <c r="W740" s="2">
         <v>-0.68576700000000002</v>
       </c>
-      <c r="X740" s="7">
+      <c r="X740" s="6">
         <f t="shared" si="11"/>
         <v>0.14760600000000001</v>
       </c>
@@ -26998,7 +27001,7 @@
       <c r="W741" s="2">
         <v>-1.40656</v>
       </c>
-      <c r="X741" s="7">
+      <c r="X741" s="6">
         <f t="shared" si="11"/>
         <v>0.70675200000000005</v>
       </c>
@@ -27013,7 +27016,7 @@
       <c r="W742" s="2">
         <v>-1.0831</v>
       </c>
-      <c r="X742" s="7">
+      <c r="X742" s="6">
         <f t="shared" si="11"/>
         <v>0.37168099999999993</v>
       </c>
@@ -27028,7 +27031,7 @@
       <c r="W743" s="2">
         <v>-0.55179800000000001</v>
       </c>
-      <c r="X743" s="7">
+      <c r="X743" s="6">
         <f t="shared" si="11"/>
         <v>8.1205000000000027E-2</v>
       </c>
@@ -27043,7 +27046,7 @@
       <c r="W744" s="2">
         <v>-0.49899199999999999</v>
       </c>
-      <c r="X744" s="7">
+      <c r="X744" s="6">
         <f t="shared" si="11"/>
         <v>5.4736000000000007E-2</v>
       </c>
@@ -27058,7 +27061,7 @@
       <c r="W745" s="2">
         <v>-0.53080000000000005</v>
       </c>
-      <c r="X745" s="7">
+      <c r="X745" s="6">
         <f t="shared" si="11"/>
         <v>2.5655000000000094E-2</v>
       </c>
@@ -27073,7 +27076,7 @@
       <c r="W746" s="2">
         <v>-0.520625</v>
       </c>
-      <c r="X746" s="7">
+      <c r="X746" s="6">
         <f t="shared" si="11"/>
         <v>-0.299211</v>
       </c>
@@ -27088,7 +27091,7 @@
       <c r="W747" s="2">
         <v>-0.54361199999999998</v>
       </c>
-      <c r="X747" s="7">
+      <c r="X747" s="6">
         <f t="shared" si="11"/>
         <v>-0.22774000000000005</v>
       </c>
@@ -27103,7 +27106,7 @@
       <c r="W748" s="2">
         <v>-0.53046099999999996</v>
       </c>
-      <c r="X748" s="7">
+      <c r="X748" s="6">
         <f t="shared" si="11"/>
         <v>4.2556999999999956E-2</v>
       </c>
@@ -27118,7 +27121,7 @@
       <c r="W749" s="2">
         <v>-0.51823799999999998</v>
       </c>
-      <c r="X749" s="7">
+      <c r="X749" s="6">
         <f t="shared" si="11"/>
         <v>9.4913999999999998E-2</v>
       </c>
@@ -27133,7 +27136,7 @@
       <c r="W750" s="2">
         <v>-0.52422299999999999</v>
       </c>
-      <c r="X750" s="7">
+      <c r="X750" s="6">
         <f t="shared" si="11"/>
         <v>-9.856100000000001E-2</v>
       </c>
@@ -27148,7 +27151,7 @@
       <c r="W751" s="2">
         <v>-0.63569600000000004</v>
       </c>
-      <c r="X751" s="7">
+      <c r="X751" s="6">
         <f t="shared" si="11"/>
         <v>0.12204300000000001</v>
       </c>
@@ -27163,7 +27166,7 @@
       <c r="W752" s="2">
         <v>-0.50262300000000004</v>
       </c>
-      <c r="X752" s="7">
+      <c r="X752" s="6">
         <f t="shared" si="11"/>
         <v>-1.8699999999993722E-4</v>
       </c>
@@ -27178,7 +27181,7 @@
       <c r="W753" s="2">
         <v>-0.88002199999999997</v>
       </c>
-      <c r="X753" s="7">
+      <c r="X753" s="6">
         <f t="shared" si="11"/>
         <v>0.22901099999999996</v>
       </c>
@@ -27193,7 +27196,7 @@
       <c r="W754" s="2">
         <v>-0.45191199999999998</v>
       </c>
-      <c r="X754" s="7">
+      <c r="X754" s="6">
         <f t="shared" si="11"/>
         <v>1.1640999999999957E-2</v>
       </c>
@@ -27208,7 +27211,7 @@
       <c r="W755" s="2">
         <v>-0.48324600000000001</v>
       </c>
-      <c r="X755" s="7">
+      <c r="X755" s="6">
         <f t="shared" si="11"/>
         <v>-3.7071000000000021E-2</v>
       </c>
@@ -27223,7 +27226,7 @@
       <c r="W756" s="2">
         <v>-0.54626600000000003</v>
       </c>
-      <c r="X756" s="7">
+      <c r="X756" s="6">
         <f t="shared" si="11"/>
         <v>0.14857200000000004</v>
       </c>
@@ -27238,7 +27241,7 @@
       <c r="W757" s="2">
         <v>-0.523262</v>
       </c>
-      <c r="X757" s="7">
+      <c r="X757" s="6">
         <f t="shared" si="11"/>
         <v>0.30762200000000001</v>
       </c>
@@ -27253,7 +27256,7 @@
       <c r="W758" s="2">
         <v>-0.48742099999999999</v>
       </c>
-      <c r="X758" s="7">
+      <c r="X758" s="6">
         <f t="shared" si="11"/>
         <v>1.2031999999999987E-2</v>
       </c>
@@ -27268,7 +27271,7 @@
       <c r="W759" s="2">
         <v>-0.70857400000000004</v>
       </c>
-      <c r="X759" s="7">
+      <c r="X759" s="6">
         <f t="shared" si="11"/>
         <v>-0.19817599999999991</v>
       </c>
@@ -27283,7 +27286,7 @@
       <c r="W760" s="2">
         <v>-0.25539699999999999</v>
       </c>
-      <c r="X760" s="7">
+      <c r="X760" s="6">
         <f t="shared" si="11"/>
         <v>0.18527689999999997</v>
       </c>
@@ -27298,7 +27301,7 @@
       <c r="W761" s="2">
         <v>-0.84642799999999996</v>
       </c>
-      <c r="X761" s="7">
+      <c r="X761" s="6">
         <f t="shared" si="11"/>
         <v>-4.4612000000000096E-2</v>
       </c>
@@ -27313,7 +27316,7 @@
       <c r="W762" s="2">
         <v>-0.50581200000000004</v>
       </c>
-      <c r="X762" s="7">
+      <c r="X762" s="6">
         <f t="shared" si="11"/>
         <v>-7.0328999999999975E-2</v>
       </c>
@@ -27328,7 +27331,7 @@
       <c r="W763" s="2">
         <v>-0.43099500000000002</v>
       </c>
-      <c r="X763" s="7">
+      <c r="X763" s="6">
         <f t="shared" si="11"/>
         <v>0.11813100000000004</v>
       </c>
@@ -27343,7 +27346,7 @@
       <c r="W764" s="2">
         <v>-0.51812199999999997</v>
       </c>
-      <c r="X764" s="7">
+      <c r="X764" s="6">
         <f t="shared" si="11"/>
         <v>2.0620999999999945E-2</v>
       </c>
@@ -27358,7 +27361,7 @@
       <c r="W765" s="2">
         <v>-0.52714000000000005</v>
       </c>
-      <c r="X765" s="7">
+      <c r="X765" s="6">
         <f t="shared" si="11"/>
         <v>0.11388900000000007</v>
       </c>
@@ -27373,7 +27376,7 @@
       <c r="W766" s="2">
         <v>-0.50613300000000006</v>
       </c>
-      <c r="X766" s="7">
+      <c r="X766" s="6">
         <f t="shared" si="11"/>
         <v>5.8149000000000062E-2</v>
       </c>
@@ -27388,7 +27391,7 @@
       <c r="W767" s="2">
         <v>-0.47592299999999998</v>
       </c>
-      <c r="X767" s="7">
+      <c r="X767" s="6">
         <f t="shared" si="11"/>
         <v>-4.4723000000000068E-2</v>
       </c>
@@ -27403,7 +27406,7 @@
       <c r="W768" s="2">
         <v>-0.42717100000000002</v>
       </c>
-      <c r="X768" s="7">
+      <c r="X768" s="6">
         <f t="shared" si="11"/>
         <v>-0.18235200000000001</v>
       </c>
@@ -27418,7 +27421,7 @@
       <c r="W769" s="2">
         <v>-0.758745</v>
       </c>
-      <c r="X769" s="7">
+      <c r="X769" s="6">
         <f t="shared" si="11"/>
         <v>3.012999999999999E-2</v>
       </c>
@@ -27433,7 +27436,7 @@
       <c r="W770" s="2">
         <v>-0.47626800000000002</v>
       </c>
-      <c r="X770" s="7">
+      <c r="X770" s="6">
         <f t="shared" si="11"/>
         <v>-1.0899999999999799E-3</v>
       </c>
@@ -27448,7 +27451,7 @@
       <c r="W771" s="2">
         <v>-0.52276900000000004</v>
       </c>
-      <c r="X771" s="7">
+      <c r="X771" s="6">
         <f t="shared" ref="X771:X834" si="12">V771-W771</f>
         <v>-1.1768999999999918E-2</v>
       </c>
@@ -27463,7 +27466,7 @@
       <c r="W772" s="2">
         <v>-0.51682600000000001</v>
       </c>
-      <c r="X772" s="7">
+      <c r="X772" s="6">
         <f t="shared" si="12"/>
         <v>-5.536299999999994E-2</v>
       </c>
@@ -27478,7 +27481,7 @@
       <c r="W773" s="2">
         <v>-0.56094299999999997</v>
       </c>
-      <c r="X773" s="7">
+      <c r="X773" s="6">
         <f t="shared" si="12"/>
         <v>-1.4205000000000023E-2</v>
       </c>
@@ -27493,7 +27496,7 @@
       <c r="W774" s="2">
         <v>-0.97880999999999996</v>
       </c>
-      <c r="X774" s="7">
+      <c r="X774" s="6">
         <f t="shared" si="12"/>
         <v>0.29317899999999997</v>
       </c>
@@ -27508,7 +27511,7 @@
       <c r="W775" s="2">
         <v>-0.625556</v>
       </c>
-      <c r="X775" s="7">
+      <c r="X775" s="6">
         <f t="shared" si="12"/>
         <v>-5.5498999999999965E-2</v>
       </c>
@@ -27523,7 +27526,7 @@
       <c r="W776" s="2">
         <v>-0.50135600000000002</v>
       </c>
-      <c r="X776" s="7">
+      <c r="X776" s="6">
         <f t="shared" si="12"/>
         <v>-1.2250000000000316E-3</v>
       </c>
@@ -27538,7 +27541,7 @@
       <c r="W777" s="2">
         <v>-0.43445899999999998</v>
       </c>
-      <c r="X777" s="7">
+      <c r="X777" s="6">
         <f t="shared" si="12"/>
         <v>-6.9113000000000036E-2</v>
       </c>
@@ -27553,7 +27556,7 @@
       <c r="W778" s="2">
         <v>-0.53264500000000004</v>
       </c>
-      <c r="X778" s="7">
+      <c r="X778" s="6">
         <f t="shared" si="12"/>
         <v>-1.7660000000000009E-2</v>
       </c>
@@ -27568,7 +27571,7 @@
       <c r="W779" s="2">
         <v>-0.43002400000000002</v>
       </c>
-      <c r="X779" s="7">
+      <c r="X779" s="6">
         <f t="shared" si="12"/>
         <v>7.7174999999999994E-2</v>
       </c>
@@ -27583,7 +27586,7 @@
       <c r="W780" s="2">
         <v>-0.51077300000000003</v>
       </c>
-      <c r="X780" s="7">
+      <c r="X780" s="6">
         <f t="shared" si="12"/>
         <v>4.5802000000000009E-2</v>
       </c>
@@ -27598,7 +27601,7 @@
       <c r="W781" s="2">
         <v>-0.54868499999999998</v>
       </c>
-      <c r="X781" s="7">
+      <c r="X781" s="6">
         <f t="shared" si="12"/>
         <v>-7.4304000000000037E-2</v>
       </c>
@@ -27613,7 +27616,7 @@
       <c r="W782" s="2">
         <v>-0.381635</v>
       </c>
-      <c r="X782" s="7">
+      <c r="X782" s="6">
         <f t="shared" si="12"/>
         <v>-4.7592000000000023E-2</v>
       </c>
@@ -27628,7 +27631,7 @@
       <c r="W783" s="2">
         <v>-0.88146000000000002</v>
       </c>
-      <c r="X783" s="7">
+      <c r="X783" s="6">
         <f t="shared" si="12"/>
         <v>0.15897899999999998</v>
       </c>
@@ -27643,7 +27646,7 @@
       <c r="W784" s="2">
         <v>-0.39393299999999998</v>
       </c>
-      <c r="X784" s="7">
+      <c r="X784" s="6">
         <f t="shared" si="12"/>
         <v>1.0889999999999955E-2</v>
       </c>
@@ -27658,7 +27661,7 @@
       <c r="W785" s="2">
         <v>-0.59247899999999998</v>
       </c>
-      <c r="X785" s="7">
+      <c r="X785" s="6">
         <f t="shared" si="12"/>
         <v>0.27060499999999998</v>
       </c>
@@ -27673,7 +27676,7 @@
       <c r="W786" s="2">
         <v>-0.46579300000000001</v>
       </c>
-      <c r="X786" s="7">
+      <c r="X786" s="6">
         <f t="shared" si="12"/>
         <v>-0.10875400000000002</v>
       </c>
@@ -27688,7 +27691,7 @@
       <c r="W787" s="2">
         <v>-0.27125300000000002</v>
       </c>
-      <c r="X787" s="7">
+      <c r="X787" s="6">
         <f t="shared" si="12"/>
         <v>-8.8038999999999978E-2</v>
       </c>
@@ -27703,7 +27706,7 @@
       <c r="W788" s="2">
         <v>-0.45733699999999999</v>
       </c>
-      <c r="X788" s="7">
+      <c r="X788" s="6">
         <f t="shared" si="12"/>
         <v>-3.8110000000000033E-2</v>
       </c>
@@ -27718,7 +27721,7 @@
       <c r="W789" s="2">
         <v>-1.29904</v>
       </c>
-      <c r="X789" s="7">
+      <c r="X789" s="6">
         <f t="shared" si="12"/>
         <v>0.89376199999999995</v>
       </c>
@@ -27733,7 +27736,7 @@
       <c r="W790" s="2">
         <v>-0.51869500000000002</v>
       </c>
-      <c r="X790" s="7">
+      <c r="X790" s="6">
         <f t="shared" si="12"/>
         <v>-0.16663700000000004</v>
       </c>
@@ -27748,7 +27751,7 @@
       <c r="W791" s="2">
         <v>-0.29822900000000002</v>
       </c>
-      <c r="X791" s="7">
+      <c r="X791" s="6">
         <f t="shared" si="12"/>
         <v>5.1245000000000013E-2</v>
       </c>
@@ -27763,7 +27766,7 @@
       <c r="W792" s="2">
         <v>-0.53058000000000005</v>
       </c>
-      <c r="X792" s="7">
+      <c r="X792" s="6">
         <f t="shared" si="12"/>
         <v>-0.52949000000000002</v>
       </c>
@@ -27778,7 +27781,7 @@
       <c r="W793" s="2">
         <v>-0.45011200000000001</v>
       </c>
-      <c r="X793" s="7">
+      <c r="X793" s="6">
         <f t="shared" si="12"/>
         <v>2.3332000000000019E-2</v>
       </c>
@@ -27793,7 +27796,7 @@
       <c r="W794" s="2">
         <v>-0.46209499999999998</v>
       </c>
-      <c r="X794" s="7">
+      <c r="X794" s="6">
         <f t="shared" si="12"/>
         <v>4.3784999999999963E-2</v>
       </c>
@@ -27808,7 +27811,7 @@
       <c r="W795" s="2">
         <v>-1.01231</v>
       </c>
-      <c r="X795" s="7">
+      <c r="X795" s="6">
         <f t="shared" si="12"/>
         <v>0.29685100000000009</v>
       </c>
@@ -27823,7 +27826,7 @@
       <c r="W796" s="2">
         <v>-0.40948699999999999</v>
       </c>
-      <c r="X796" s="7">
+      <c r="X796" s="6">
         <f t="shared" si="12"/>
         <v>-0.50557999999999992</v>
       </c>
@@ -27838,7 +27841,7 @@
       <c r="W797" s="2">
         <v>-0.52084399999999997</v>
       </c>
-      <c r="X797" s="7">
+      <c r="X797" s="6">
         <f t="shared" si="12"/>
         <v>-7.7090000000000769E-3</v>
       </c>
@@ -27853,7 +27856,7 @@
       <c r="W798" s="2">
         <v>-0.63749199999999995</v>
       </c>
-      <c r="X798" s="7">
+      <c r="X798" s="6">
         <f t="shared" si="12"/>
         <v>3.0541999999999958E-2</v>
       </c>
@@ -27868,7 +27871,7 @@
       <c r="W799" s="2">
         <v>-0.51486200000000004</v>
       </c>
-      <c r="X799" s="7">
+      <c r="X799" s="6">
         <f t="shared" si="12"/>
         <v>-5.6051999999999991E-2</v>
       </c>
@@ -27883,7 +27886,7 @@
       <c r="W800" s="2">
         <v>-0.94706999999999997</v>
       </c>
-      <c r="X800" s="7">
+      <c r="X800" s="6">
         <f t="shared" si="12"/>
         <v>0.39976499999999993</v>
       </c>
@@ -27898,7 +27901,7 @@
       <c r="W801" s="2">
         <v>-0.47584199999999999</v>
       </c>
-      <c r="X801" s="7">
+      <c r="X801" s="6">
         <f t="shared" si="12"/>
         <v>1.6845999999999972E-2</v>
       </c>
@@ -27913,7 +27916,7 @@
       <c r="W802" s="2">
         <v>-0.439303</v>
       </c>
-      <c r="X802" s="7">
+      <c r="X802" s="6">
         <f t="shared" si="12"/>
         <v>-0.22425200000000001</v>
       </c>
@@ -27928,7 +27931,7 @@
       <c r="W803" s="2">
         <v>-0.341644</v>
       </c>
-      <c r="X803" s="7">
+      <c r="X803" s="6">
         <f t="shared" si="12"/>
         <v>-7.0562000000000014E-2</v>
       </c>
@@ -27943,7 +27946,7 @@
       <c r="W804" s="2">
         <v>-0.53856599999999999</v>
       </c>
-      <c r="X804" s="7">
+      <c r="X804" s="6">
         <f t="shared" si="12"/>
         <v>3.8856000000000002E-2</v>
       </c>
@@ -27958,7 +27961,7 @@
       <c r="W805" s="2">
         <v>-0.41725899999999999</v>
       </c>
-      <c r="X805" s="7">
+      <c r="X805" s="6">
         <f t="shared" si="12"/>
         <v>-1.5610000000000346E-3</v>
       </c>
@@ -27973,7 +27976,7 @@
       <c r="W806" s="2">
         <v>-0.37068000000000001</v>
       </c>
-      <c r="X806" s="7">
+      <c r="X806" s="6">
         <f t="shared" si="12"/>
         <v>1.363700000000001E-2</v>
       </c>
@@ -27988,7 +27991,7 @@
       <c r="W807" s="2">
         <v>-0.49750100000000003</v>
       </c>
-      <c r="X807" s="7">
+      <c r="X807" s="6">
         <f t="shared" si="12"/>
         <v>9.4610000000000527E-3</v>
       </c>
@@ -28003,7 +28006,7 @@
       <c r="W808" s="2">
         <v>-0.46034000000000003</v>
       </c>
-      <c r="X808" s="7">
+      <c r="X808" s="6">
         <f t="shared" si="12"/>
         <v>-0.21893000000000001</v>
       </c>
@@ -28018,7 +28021,7 @@
       <c r="W809" s="2">
         <v>-0.47671000000000002</v>
       </c>
-      <c r="X809" s="7">
+      <c r="X809" s="6">
         <f t="shared" si="12"/>
         <v>0.12944500000000003</v>
       </c>
@@ -28033,7 +28036,7 @@
       <c r="W810" s="2">
         <v>-1.2520199999999999</v>
       </c>
-      <c r="X810" s="7">
+      <c r="X810" s="6">
         <f t="shared" si="12"/>
         <v>0.50976299999999997</v>
       </c>
@@ -28048,7 +28051,7 @@
       <c r="W811" s="2">
         <v>-0.65939800000000004</v>
       </c>
-      <c r="X811" s="7">
+      <c r="X811" s="6">
         <f t="shared" si="12"/>
         <v>5.8887000000000023E-2</v>
       </c>
@@ -28063,7 +28066,7 @@
       <c r="W812" s="2">
         <v>-0.25413200000000002</v>
       </c>
-      <c r="X812" s="7">
+      <c r="X812" s="6">
         <f t="shared" si="12"/>
         <v>-0.10597299999999998</v>
       </c>
@@ -28078,7 +28081,7 @@
       <c r="W813" s="2">
         <v>-0.59966200000000003</v>
       </c>
-      <c r="X813" s="7">
+      <c r="X813" s="6">
         <f t="shared" si="12"/>
         <v>0.11284300000000003</v>
       </c>
@@ -28093,7 +28096,7 @@
       <c r="W814" s="2">
         <v>-0.15158099999999999</v>
       </c>
-      <c r="X814" s="7">
+      <c r="X814" s="6">
         <f t="shared" si="12"/>
         <v>-0.32764899999999997</v>
       </c>
@@ -28108,7 +28111,7 @@
       <c r="W815" s="2">
         <v>-0.68061700000000003</v>
       </c>
-      <c r="X815" s="7">
+      <c r="X815" s="6">
         <f t="shared" si="12"/>
         <v>0.12235700000000005</v>
       </c>
@@ -28123,7 +28126,7 @@
       <c r="W816" s="2">
         <v>-0.19645099999999999</v>
       </c>
-      <c r="X816" s="7">
+      <c r="X816" s="6">
         <f t="shared" si="12"/>
         <v>-6.5014000000000016E-2</v>
       </c>
@@ -28138,7 +28141,7 @@
       <c r="W817" s="2">
         <v>-0.46112300000000001</v>
       </c>
-      <c r="X817" s="7">
+      <c r="X817" s="6">
         <f t="shared" si="12"/>
         <v>1.5900000000000025E-2</v>
       </c>
@@ -28153,7 +28156,7 @@
       <c r="W818" s="2">
         <v>-0.51818600000000004</v>
       </c>
-      <c r="X818" s="7">
+      <c r="X818" s="6">
         <f t="shared" si="12"/>
         <v>-1.6109999999999181E-3</v>
       </c>
@@ -28168,7 +28171,7 @@
       <c r="W819" s="2">
         <v>-0.50941499999999995</v>
       </c>
-      <c r="X819" s="7">
+      <c r="X819" s="6">
         <f t="shared" si="12"/>
         <v>-3.2840000000000646E-3</v>
       </c>
@@ -28183,7 +28186,7 @@
       <c r="W820" s="2">
         <v>-0.92078899999999997</v>
       </c>
-      <c r="X820" s="7">
+      <c r="X820" s="6">
         <f t="shared" si="12"/>
         <v>-0.14850100000000011</v>
       </c>
@@ -28198,7 +28201,7 @@
       <c r="W821" s="2">
         <v>-0.488564</v>
       </c>
-      <c r="X821" s="7">
+      <c r="X821" s="6">
         <f t="shared" si="12"/>
         <v>-1.4400999999999997E-2</v>
       </c>
@@ -28213,7 +28216,7 @@
       <c r="W822" s="2">
         <v>-0.54654000000000003</v>
       </c>
-      <c r="X822" s="7">
+      <c r="X822" s="6">
         <f t="shared" si="12"/>
         <v>3.4330000000000194E-3</v>
       </c>
@@ -28228,7 +28231,7 @@
       <c r="W823" s="2">
         <v>-0.121365</v>
       </c>
-      <c r="X823" s="7">
+      <c r="X823" s="6">
         <f t="shared" si="12"/>
         <v>-0.29208000000000001</v>
       </c>
@@ -28243,7 +28246,7 @@
       <c r="W824" s="2">
         <v>-0.855881</v>
       </c>
-      <c r="X824" s="7">
+      <c r="X824" s="6">
         <f t="shared" si="12"/>
         <v>3.2689999999999664E-3</v>
       </c>
@@ -28258,7 +28261,7 @@
       <c r="W825" s="2">
         <v>-0.50107500000000005</v>
       </c>
-      <c r="X825" s="7">
+      <c r="X825" s="6">
         <f t="shared" si="12"/>
         <v>8.2943000000000044E-2</v>
       </c>
@@ -28273,7 +28276,7 @@
       <c r="W826" s="2">
         <v>-0.49382399999999999</v>
       </c>
-      <c r="X826" s="7">
+      <c r="X826" s="6">
         <f t="shared" si="12"/>
         <v>0.100715</v>
       </c>
@@ -28288,7 +28291,7 @@
       <c r="W827" s="2">
         <v>-0.65870700000000004</v>
       </c>
-      <c r="X827" s="7">
+      <c r="X827" s="6">
         <f t="shared" si="12"/>
         <v>-0.54265299999999994</v>
       </c>
@@ -28303,7 +28306,7 @@
       <c r="W828" s="2">
         <v>-0.50187899999999996</v>
       </c>
-      <c r="X828" s="7">
+      <c r="X828" s="6">
         <f t="shared" si="12"/>
         <v>-2.734700000000001E-2</v>
       </c>
@@ -28318,7 +28321,7 @@
       <c r="W829" s="2">
         <v>-0.546821</v>
       </c>
-      <c r="X829" s="7">
+      <c r="X829" s="6">
         <f t="shared" si="12"/>
         <v>2.3225000000000051E-2</v>
       </c>
@@ -28333,7 +28336,7 @@
       <c r="W830" s="2">
         <v>-0.551902</v>
       </c>
-      <c r="X830" s="7">
+      <c r="X830" s="6">
         <f t="shared" si="12"/>
         <v>-1.4167000000000041E-2</v>
       </c>
@@ -28348,7 +28351,7 @@
       <c r="W831" s="2">
         <v>-0.478491</v>
       </c>
-      <c r="X831" s="7">
+      <c r="X831" s="6">
         <f t="shared" si="12"/>
         <v>-6.1393999999999949E-2</v>
       </c>
@@ -28363,7 +28366,7 @@
       <c r="W832" s="2">
         <v>-0.71147800000000005</v>
       </c>
-      <c r="X832" s="7">
+      <c r="X832" s="6">
         <f t="shared" si="12"/>
         <v>-6.8579999999999974E-2</v>
       </c>
@@ -28378,7 +28381,7 @@
       <c r="W833" s="2">
         <v>-0.50978199999999996</v>
       </c>
-      <c r="X833" s="7">
+      <c r="X833" s="6">
         <f t="shared" si="12"/>
         <v>-7.3910000000000031E-2</v>
       </c>
@@ -28393,7 +28396,7 @@
       <c r="W834" s="2">
         <v>-0.522505</v>
       </c>
-      <c r="X834" s="7">
+      <c r="X834" s="6">
         <f t="shared" si="12"/>
         <v>-0.5312349999999999</v>
       </c>
@@ -28408,7 +28411,7 @@
       <c r="W835" s="2">
         <v>-0.65166299999999999</v>
       </c>
-      <c r="X835" s="7">
+      <c r="X835" s="6">
         <f t="shared" ref="X835:X883" si="13">V835-W835</f>
         <v>4.5660999999999952E-2</v>
       </c>
@@ -28423,7 +28426,7 @@
       <c r="W836" s="2">
         <v>-0.60094999999999998</v>
       </c>
-      <c r="X836" s="7">
+      <c r="X836" s="6">
         <f t="shared" si="13"/>
         <v>4.3466000000000005E-2</v>
       </c>
@@ -28438,7 +28441,7 @@
       <c r="W837" s="2">
         <v>-0.55050699999999997</v>
       </c>
-      <c r="X837" s="7">
+      <c r="X837" s="6">
         <f t="shared" si="13"/>
         <v>6.7765999999999993E-2</v>
       </c>
@@ -28453,7 +28456,7 @@
       <c r="W838" s="2">
         <v>-0.69820099999999996</v>
       </c>
-      <c r="X838" s="7">
+      <c r="X838" s="6">
         <f t="shared" si="13"/>
         <v>-0.22941700000000009</v>
       </c>
@@ -28468,7 +28471,7 @@
       <c r="W839" s="2">
         <v>-0.71238199999999996</v>
       </c>
-      <c r="X839" s="7">
+      <c r="X839" s="6">
         <f t="shared" si="13"/>
         <v>0.10667699999999991</v>
       </c>
@@ -28483,7 +28486,7 @@
       <c r="W840" s="2">
         <v>-0.98058299999999998</v>
       </c>
-      <c r="X840" s="7">
+      <c r="X840" s="6">
         <f t="shared" si="13"/>
         <v>0.45934200000000003</v>
       </c>
@@ -28498,7 +28501,7 @@
       <c r="W841" s="2">
         <v>-0.60444399999999998</v>
       </c>
-      <c r="X841" s="7">
+      <c r="X841" s="6">
         <f t="shared" si="13"/>
         <v>8.5801999999999934E-2</v>
       </c>
@@ -28513,7 +28516,7 @@
       <c r="W842" s="2">
         <v>-0.55195700000000003</v>
       </c>
-      <c r="X842" s="7">
+      <c r="X842" s="6">
         <f t="shared" si="13"/>
         <v>5.0779000000000019E-2</v>
       </c>
@@ -28528,7 +28531,7 @@
       <c r="W843" s="2">
         <v>-0.78685400000000005</v>
       </c>
-      <c r="X843" s="7">
+      <c r="X843" s="6">
         <f t="shared" si="13"/>
         <v>0.10868100000000003</v>
       </c>
@@ -28543,7 +28546,7 @@
       <c r="W844" s="2">
         <v>-0.54096900000000003</v>
       </c>
-      <c r="X844" s="7">
+      <c r="X844" s="6">
         <f t="shared" si="13"/>
         <v>-0.61265100000000006</v>
       </c>
@@ -28558,7 +28561,7 @@
       <c r="W845" s="2">
         <v>-0.97805200000000003</v>
       </c>
-      <c r="X845" s="7">
+      <c r="X845" s="6">
         <f t="shared" si="13"/>
         <v>0.51313300000000006</v>
       </c>
@@ -28573,7 +28576,7 @@
       <c r="W846" s="2">
         <v>-0.39602700000000002</v>
       </c>
-      <c r="X846" s="7">
+      <c r="X846" s="6">
         <f t="shared" si="13"/>
         <v>0.24088700000000002</v>
       </c>
@@ -28588,7 +28591,7 @@
       <c r="W847" s="2">
         <v>-0.40426299999999998</v>
       </c>
-      <c r="X847" s="7">
+      <c r="X847" s="6">
         <f t="shared" si="13"/>
         <v>0.104072</v>
       </c>
@@ -28603,7 +28606,7 @@
       <c r="W848" s="2">
         <v>-0.53475899999999998</v>
       </c>
-      <c r="X848" s="7">
+      <c r="X848" s="6">
         <f t="shared" si="13"/>
         <v>-7.2687999999999975E-2</v>
       </c>
@@ -28618,7 +28621,7 @@
       <c r="W849" s="2">
         <v>-0.38159500000000002</v>
       </c>
-      <c r="X849" s="7">
+      <c r="X849" s="6">
         <f t="shared" si="13"/>
         <v>-1.428299999999999E-2</v>
       </c>
@@ -28633,7 +28636,7 @@
       <c r="W850" s="2">
         <v>-0.45582499999999998</v>
       </c>
-      <c r="X850" s="7">
+      <c r="X850" s="6">
         <f t="shared" si="13"/>
         <v>9.9199999999999844E-3</v>
       </c>
@@ -28648,7 +28651,7 @@
       <c r="W851" s="2">
         <v>-0.51329000000000002</v>
       </c>
-      <c r="X851" s="7">
+      <c r="X851" s="6">
         <f t="shared" si="13"/>
         <v>0.12342800000000004</v>
       </c>
@@ -28663,7 +28666,7 @@
       <c r="W852" s="2">
         <v>-0.437108</v>
       </c>
-      <c r="X852" s="7">
+      <c r="X852" s="6">
         <f t="shared" si="13"/>
         <v>-7.6943999999999957E-2</v>
       </c>
@@ -28678,7 +28681,7 @@
       <c r="W853" s="2">
         <v>-0.42013699999999998</v>
       </c>
-      <c r="X853" s="7">
+      <c r="X853" s="6">
         <f t="shared" si="13"/>
         <v>-7.2477000000000014E-2</v>
       </c>
@@ -28693,7 +28696,7 @@
       <c r="W854" s="2">
         <v>-0.55685600000000002</v>
       </c>
-      <c r="X854" s="7">
+      <c r="X854" s="6">
         <f t="shared" si="13"/>
         <v>-0.25212899999999994</v>
       </c>
@@ -28708,7 +28711,7 @@
       <c r="W855" s="2">
         <v>-0.48910300000000001</v>
       </c>
-      <c r="X855" s="7">
+      <c r="X855" s="6">
         <f t="shared" si="13"/>
         <v>4.948600000000003E-2</v>
       </c>
@@ -28723,7 +28726,7 @@
       <c r="W856" s="2">
         <v>-0.50995900000000005</v>
       </c>
-      <c r="X856" s="7">
+      <c r="X856" s="6">
         <f t="shared" si="13"/>
         <v>-1.3068999999999997E-2</v>
       </c>
@@ -28738,7 +28741,7 @@
       <c r="W857" s="2">
         <v>-0.391067</v>
       </c>
-      <c r="X857" s="7">
+      <c r="X857" s="6">
         <f t="shared" si="13"/>
         <v>-8.2729999999999748E-3</v>
       </c>
@@ -28753,7 +28756,7 @@
       <c r="W858" s="2">
         <v>-0.47869899999999999</v>
       </c>
-      <c r="X858" s="7">
+      <c r="X858" s="6">
         <f t="shared" si="13"/>
         <v>-2.5742000000000043E-2</v>
       </c>
@@ -28768,7 +28771,7 @@
       <c r="W859" s="2">
         <v>-0.51953499999999997</v>
       </c>
-      <c r="X859" s="7">
+      <c r="X859" s="6">
         <f t="shared" si="13"/>
         <v>-3.3662999999999998E-2</v>
       </c>
@@ -28783,7 +28786,7 @@
       <c r="W860" s="2">
         <v>-1.2113799999999999</v>
       </c>
-      <c r="X860" s="7">
+      <c r="X860" s="6">
         <f t="shared" si="13"/>
         <v>0.6207959999999999</v>
       </c>
@@ -28798,7 +28801,7 @@
       <c r="W861" s="2">
         <v>-0.36193900000000001</v>
       </c>
-      <c r="X861" s="7">
+      <c r="X861" s="6">
         <f t="shared" si="13"/>
         <v>-6.731100000000001E-2</v>
       </c>
@@ -28813,7 +28816,7 @@
       <c r="W862" s="2">
         <v>-1.09782</v>
       </c>
-      <c r="X862" s="7">
+      <c r="X862" s="6">
         <f t="shared" si="13"/>
         <v>0.36577599999999999</v>
       </c>
@@ -28828,7 +28831,7 @@
       <c r="W863" s="2">
         <v>-0.49814999999999998</v>
       </c>
-      <c r="X863" s="7">
+      <c r="X863" s="6">
         <f t="shared" si="13"/>
         <v>-1.8801999999999985E-2</v>
       </c>
@@ -28843,7 +28846,7 @@
       <c r="W864" s="2">
         <v>-1.1570100000000001</v>
       </c>
-      <c r="X864" s="7">
+      <c r="X864" s="6">
         <f t="shared" si="13"/>
         <v>0.10686000000000018</v>
       </c>
@@ -28858,7 +28861,7 @@
       <c r="W865" s="2">
         <v>-0.50171900000000003</v>
       </c>
-      <c r="X865" s="7">
+      <c r="X865" s="6">
         <f t="shared" si="13"/>
         <v>4.104100000000005E-2</v>
       </c>
@@ -28873,7 +28876,7 @@
       <c r="W866" s="2">
         <v>-0.72027200000000002</v>
       </c>
-      <c r="X866" s="7">
+      <c r="X866" s="6">
         <f t="shared" si="13"/>
         <v>-0.33354799999999996</v>
       </c>
@@ -28888,7 +28891,7 @@
       <c r="W867" s="2">
         <v>-0.44321100000000002</v>
       </c>
-      <c r="X867" s="7">
+      <c r="X867" s="6">
         <f t="shared" si="13"/>
         <v>-2.7086999999999972E-2</v>
       </c>
@@ -28903,7 +28906,7 @@
       <c r="W868" s="2">
         <v>-0.23264299999999999</v>
       </c>
-      <c r="X868" s="7">
+      <c r="X868" s="6">
         <f t="shared" si="13"/>
         <v>-2.7270000000000072E-3</v>
       </c>
@@ -28918,7 +28921,7 @@
       <c r="W869" s="2">
         <v>-0.53310000000000002</v>
       </c>
-      <c r="X869" s="7">
+      <c r="X869" s="6">
         <f t="shared" si="13"/>
         <v>0.104078</v>
       </c>
@@ -28933,7 +28936,7 @@
       <c r="W870" s="2">
         <v>-0.58700699999999995</v>
       </c>
-      <c r="X870" s="7">
+      <c r="X870" s="6">
         <f t="shared" si="13"/>
         <v>3.9942999999999951E-2</v>
       </c>
@@ -28948,7 +28951,7 @@
       <c r="W871" s="2">
         <v>-0.51929899999999996</v>
       </c>
-      <c r="X871" s="7">
+      <c r="X871" s="6">
         <f t="shared" si="13"/>
         <v>6.073699999999993E-2</v>
       </c>
@@ -28963,7 +28966,7 @@
       <c r="W872" s="2">
         <v>-0.49055100000000001</v>
       </c>
-      <c r="X872" s="7">
+      <c r="X872" s="6">
         <f t="shared" si="13"/>
         <v>-1.8340000000000023E-3</v>
       </c>
@@ -28978,7 +28981,7 @@
       <c r="W873" s="2">
         <v>-0.55239400000000005</v>
       </c>
-      <c r="X873" s="7">
+      <c r="X873" s="6">
         <f t="shared" si="13"/>
         <v>4.1834000000000038E-2</v>
       </c>
@@ -28993,7 +28996,7 @@
       <c r="W874" s="2">
         <v>-0.59679700000000002</v>
       </c>
-      <c r="X874" s="7">
+      <c r="X874" s="6">
         <f t="shared" si="13"/>
         <v>1.3847999999999971E-2</v>
       </c>
@@ -29008,7 +29011,7 @@
       <c r="W875" s="2">
         <v>-0.59496700000000002</v>
       </c>
-      <c r="X875" s="7">
+      <c r="X875" s="6">
         <f t="shared" si="13"/>
         <v>-3.9329999999999976E-2</v>
       </c>
@@ -29023,7 +29026,7 @@
       <c r="W876" s="2">
         <v>-0.34889999999999999</v>
       </c>
-      <c r="X876" s="7">
+      <c r="X876" s="6">
         <f t="shared" si="13"/>
         <v>-4.8818000000000028E-2</v>
       </c>
@@ -29038,7 +29041,7 @@
       <c r="W877" s="2">
         <v>-0.60258800000000001</v>
       </c>
-      <c r="X877" s="7">
+      <c r="X877" s="6">
         <f t="shared" si="13"/>
         <v>0.12345300000000003</v>
       </c>
@@ -29053,7 +29056,7 @@
       <c r="W878" s="2">
         <v>-0.66376500000000005</v>
       </c>
-      <c r="X878" s="7">
+      <c r="X878" s="6">
         <f t="shared" si="13"/>
         <v>7.3880000000000057E-2</v>
       </c>
@@ -29068,7 +29071,7 @@
       <c r="W879" s="2">
         <v>-8.0298400000000006E-2</v>
       </c>
-      <c r="X879" s="7">
+      <c r="X879" s="6">
         <f t="shared" si="13"/>
         <v>-0.26127159999999999</v>
       </c>
@@ -29083,7 +29086,7 @@
       <c r="W880" s="2">
         <v>-0.43156499999999998</v>
       </c>
-      <c r="X880" s="7">
+      <c r="X880" s="6">
         <f t="shared" si="13"/>
         <v>7.1801000000000004E-2</v>
       </c>
@@ -29098,7 +29101,7 @@
       <c r="W881" s="2">
         <v>-0.30701000000000001</v>
       </c>
-      <c r="X881" s="7">
+      <c r="X881" s="6">
         <f t="shared" si="13"/>
         <v>7.3879E-2</v>
       </c>
@@ -29113,7 +29116,7 @@
       <c r="W882" s="2">
         <v>-0.74959299999999995</v>
       </c>
-      <c r="X882" s="7">
+      <c r="X882" s="6">
         <f t="shared" si="13"/>
         <v>2.6852999999999905E-2</v>
       </c>
@@ -29128,7 +29131,7 @@
       <c r="W883" s="2">
         <v>-3.5068599999999998E-2</v>
       </c>
-      <c r="X883" s="7">
+      <c r="X883" s="6">
         <f t="shared" si="13"/>
         <v>-5.4935299999999999E-2</v>
       </c>
